--- a/data/masterminds.xlsx
+++ b/data/masterminds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="931">
   <si>
     <t>Name</t>
   </si>
@@ -215,9 +215,6 @@
     <t>Deathbird</t>
   </si>
   <si>
-    <t>Shi'Ar Imperial Guard</t>
-  </si>
-  <si>
     <t>NOTE</t>
   </si>
   <si>
@@ -266,15 +263,9 @@
     <t>Gets minus for every hero of same class</t>
   </si>
   <si>
-    <t>Immortal Emperor Zheng Zhu</t>
-  </si>
-  <si>
     <t>SW2</t>
   </si>
   <si>
-    <t>K'un-Lun</t>
-  </si>
-  <si>
     <t>Marvel Knights</t>
   </si>
   <si>
@@ -350,12 +341,6 @@
     <t>Reveal X-men or discard down to 4 cards.</t>
   </si>
   <si>
-    <t>Maria Hill, Director of SHIELD</t>
-  </si>
-  <si>
-    <t>SHIELD Elite</t>
-  </si>
-  <si>
     <t>2x shield clearance; need to clear shield officers first</t>
   </si>
   <si>
@@ -656,9 +641,6 @@
     <t>Size-changing for every color</t>
   </si>
   <si>
-    <t>General "Thunderbolt" Ross</t>
-  </si>
-  <si>
     <t>WW</t>
   </si>
   <si>
@@ -2642,15 +2624,9 @@
     <t>KO a hydra villain or gain wound. Adapt. | Fight: same for other players, adapt.</t>
   </si>
   <si>
-    <t>Hydra's Super-Adaptoid</t>
-  </si>
-  <si>
     <t>Black Widow's Bite</t>
   </si>
   <si>
-    <t>AIM, HYDRA Offshoot</t>
-  </si>
-  <si>
     <t>Captain America's Shield</t>
   </si>
   <si>
@@ -2738,9 +2714,6 @@
     <t>Other player adds a villain from VP to city</t>
   </si>
   <si>
-    <t>Emma Frost, the White Queen</t>
-  </si>
-  <si>
     <t>NM</t>
   </si>
   <si>
@@ -2808,6 +2781,33 @@
   </si>
   <si>
     <t>Placeholder, not a card</t>
+  </si>
+  <si>
+    <t>Emma Frost, The White Queen</t>
+  </si>
+  <si>
+    <t>General Ross</t>
+  </si>
+  <si>
+    <t>Hydra Super-Adaptoid</t>
+  </si>
+  <si>
+    <t>Immortal Emperor Zheng-Zhu</t>
+  </si>
+  <si>
+    <t>Maria Hill, Director of S.H.I.E.L.D.</t>
+  </si>
+  <si>
+    <t>Shi'ar Imperial Guard</t>
+  </si>
+  <si>
+    <t>S.H.I.E.L.D. Elite</t>
+  </si>
+  <si>
+    <t>K'un-lun</t>
+  </si>
+  <si>
+    <t>A.I.M., Hydra Offshoot</t>
   </si>
 </sst>
 </file>
@@ -3156,8 +3156,8 @@
   <dimension ref="A1:Y374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D330" sqref="D330"/>
+      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F347" sqref="F347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -3252,16 +3252,16 @@
         <v>27</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -3302,15 +3302,15 @@
         <v>28</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -3325,12 +3325,12 @@
         <v>2</v>
       </c>
       <c r="W3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -3345,12 +3345,12 @@
         <v>2</v>
       </c>
       <c r="W4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -3365,12 +3365,12 @@
         <v>1</v>
       </c>
       <c r="W5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -3385,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="W6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -3408,10 +3408,10 @@
         <v>1</v>
       </c>
       <c r="W7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="X7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -3437,15 +3437,15 @@
         <v>1</v>
       </c>
       <c r="W8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="X8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -3463,12 +3463,12 @@
         <v>1</v>
       </c>
       <c r="W9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -3483,12 +3483,12 @@
         <v>1</v>
       </c>
       <c r="W10" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -3503,12 +3503,12 @@
         <v>1</v>
       </c>
       <c r="W11" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -3523,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="W12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -3543,15 +3543,15 @@
         <v>6</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="X13" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
@@ -3563,12 +3563,12 @@
         <v>6</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
@@ -3583,12 +3583,12 @@
         <v>1</v>
       </c>
       <c r="W15" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -3603,12 +3603,12 @@
         <v>1</v>
       </c>
       <c r="W16" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -3620,7 +3620,7 @@
         <v>6</v>
       </c>
       <c r="W17" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -3640,15 +3640,15 @@
         <v>12</v>
       </c>
       <c r="W18" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="X18" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
@@ -3666,12 +3666,12 @@
         <v>1</v>
       </c>
       <c r="W19" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
@@ -3683,12 +3683,12 @@
         <v>6</v>
       </c>
       <c r="W20" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
@@ -3703,12 +3703,12 @@
         <v>1</v>
       </c>
       <c r="W21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
@@ -3723,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="W22" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -3757,7 +3757,7 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B24" t="s">
         <v>42</v>
@@ -3775,12 +3775,12 @@
         <v>1</v>
       </c>
       <c r="W24" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B25" t="s">
         <v>42</v>
@@ -3798,12 +3798,12 @@
         <v>1</v>
       </c>
       <c r="W25" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
@@ -3818,12 +3818,12 @@
         <v>1</v>
       </c>
       <c r="W26" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
@@ -3832,7 +3832,7 @@
         <v>37</v>
       </c>
       <c r="W27" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -3866,7 +3866,7 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s">
         <v>48</v>
@@ -3875,12 +3875,12 @@
         <v>40</v>
       </c>
       <c r="W29" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s">
         <v>48</v>
@@ -3892,12 +3892,12 @@
         <v>1</v>
       </c>
       <c r="W30" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s">
         <v>48</v>
@@ -3912,12 +3912,12 @@
         <v>1</v>
       </c>
       <c r="W31" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
@@ -3935,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="W32" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -3966,7 +3966,7 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s">
         <v>52</v>
@@ -3978,12 +3978,12 @@
         <v>2</v>
       </c>
       <c r="W34" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
@@ -3995,12 +3995,12 @@
         <v>1</v>
       </c>
       <c r="W35" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s">
         <v>52</v>
@@ -4012,12 +4012,12 @@
         <v>1</v>
       </c>
       <c r="W36" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s">
         <v>52</v>
@@ -4032,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="W37" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -4063,7 +4063,7 @@
     </row>
     <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B39" t="s">
         <v>56</v>
@@ -4072,12 +4072,12 @@
         <v>57</v>
       </c>
       <c r="W39" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B40" t="s">
         <v>56</v>
@@ -4092,12 +4092,12 @@
         <v>2</v>
       </c>
       <c r="W40" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B41" t="s">
         <v>56</v>
@@ -4115,12 +4115,12 @@
         <v>1</v>
       </c>
       <c r="W41" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B42" t="s">
         <v>56</v>
@@ -4132,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="W42" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -4158,7 +4158,7 @@
         <v>64</v>
       </c>
       <c r="X43" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -4184,15 +4184,15 @@
         <v>2</v>
       </c>
       <c r="W44" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="X44" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B45" t="s">
         <v>62</v>
@@ -4201,12 +4201,12 @@
         <v>32</v>
       </c>
       <c r="W45" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B46" t="s">
         <v>62</v>
@@ -4215,12 +4215,12 @@
         <v>32</v>
       </c>
       <c r="W46" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B47" t="s">
         <v>62</v>
@@ -4229,12 +4229,12 @@
         <v>32</v>
       </c>
       <c r="W47" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B48" t="s">
         <v>62</v>
@@ -4246,7 +4246,7 @@
         <v>2</v>
       </c>
       <c r="W48" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -4257,7 +4257,7 @@
         <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>927</v>
       </c>
       <c r="H49">
         <v>6</v>
@@ -4272,13 +4272,13 @@
         <v>2</v>
       </c>
       <c r="W49" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="X49" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="Y49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:25">
@@ -4301,18 +4301,18 @@
         <v>2</v>
       </c>
       <c r="W50" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="X50" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="Y50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B51" t="s">
         <v>65</v>
@@ -4327,12 +4327,12 @@
         <v>1</v>
       </c>
       <c r="W51" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B52" t="s">
         <v>65</v>
@@ -4344,12 +4344,12 @@
         <v>1</v>
       </c>
       <c r="W52" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s">
         <v>65</v>
@@ -4364,12 +4364,12 @@
         <v>1</v>
       </c>
       <c r="W53" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B54" t="s">
         <v>65</v>
@@ -4381,18 +4381,18 @@
         <v>1</v>
       </c>
       <c r="W54" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H55">
         <v>5</v>
@@ -4404,57 +4404,57 @@
         <v>1</v>
       </c>
       <c r="W55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
       </c>
       <c r="W56" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
       </c>
       <c r="W57" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
       </c>
       <c r="W58" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
@@ -4466,18 +4466,18 @@
         <v>1</v>
       </c>
       <c r="W59" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" t="s">
         <v>73</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>74</v>
-      </c>
-      <c r="F60" t="s">
-        <v>75</v>
       </c>
       <c r="H60">
         <v>6</v>
@@ -4489,89 +4489,89 @@
         <v>2</v>
       </c>
       <c r="W60" t="s">
+        <v>75</v>
+      </c>
+      <c r="X60" t="s">
         <v>76</v>
-      </c>
-      <c r="X60" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" t="s">
         <v>73</v>
       </c>
-      <c r="E61" t="s">
-        <v>74</v>
-      </c>
       <c r="Q61">
         <v>1</v>
       </c>
       <c r="W61" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" t="s">
         <v>73</v>
       </c>
-      <c r="E62" t="s">
-        <v>74</v>
-      </c>
       <c r="V62">
         <v>1</v>
       </c>
       <c r="W62" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" t="s">
         <v>73</v>
       </c>
-      <c r="E63" t="s">
-        <v>74</v>
-      </c>
       <c r="Q63">
         <v>1</v>
       </c>
       <c r="W63" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B64" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" t="s">
         <v>73</v>
       </c>
-      <c r="E64" t="s">
-        <v>74</v>
-      </c>
       <c r="Q64">
         <v>1</v>
       </c>
       <c r="W64" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" t="s">
         <v>78</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>79</v>
-      </c>
-      <c r="F65" t="s">
-        <v>80</v>
       </c>
       <c r="H65">
         <v>7</v>
@@ -4586,86 +4586,86 @@
         <v>2</v>
       </c>
       <c r="W65" t="s">
+        <v>80</v>
+      </c>
+      <c r="X65" t="s">
         <v>81</v>
       </c>
-      <c r="X65" t="s">
-        <v>82</v>
-      </c>
       <c r="Y65" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" t="s">
         <v>78</v>
       </c>
-      <c r="E66" t="s">
-        <v>79</v>
-      </c>
       <c r="W66" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67" t="s">
         <v>78</v>
       </c>
-      <c r="E67" t="s">
-        <v>79</v>
-      </c>
       <c r="U67">
         <v>1</v>
       </c>
       <c r="W67" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68" t="s">
         <v>78</v>
       </c>
-      <c r="E68" t="s">
-        <v>79</v>
-      </c>
       <c r="W68" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="E69" t="s">
         <v>78</v>
       </c>
-      <c r="E69" t="s">
-        <v>79</v>
-      </c>
       <c r="R69">
         <v>1</v>
       </c>
       <c r="W69" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>925</v>
       </c>
       <c r="E70" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F70" t="s">
-        <v>85</v>
+        <v>929</v>
       </c>
       <c r="H70">
         <v>5</v>
@@ -4674,39 +4674,39 @@
         <v>7</v>
       </c>
       <c r="W70" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X70" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>925</v>
       </c>
       <c r="E71" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W71" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B72" t="s">
+        <v>925</v>
+      </c>
+      <c r="E72" t="s">
+        <v>82</v>
+      </c>
+      <c r="O72" t="s">
         <v>83</v>
       </c>
-      <c r="E72" t="s">
-        <v>84</v>
-      </c>
-      <c r="O72" t="s">
-        <v>86</v>
-      </c>
       <c r="P72">
         <v>1</v>
       </c>
@@ -4714,55 +4714,55 @@
         <v>1</v>
       </c>
       <c r="W72" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B73" t="s">
+        <v>925</v>
+      </c>
+      <c r="E73" t="s">
+        <v>82</v>
+      </c>
+      <c r="O73" t="s">
         <v>83</v>
       </c>
-      <c r="E73" t="s">
-        <v>84</v>
-      </c>
-      <c r="O73" t="s">
-        <v>86</v>
-      </c>
       <c r="P73">
         <v>1</v>
       </c>
       <c r="W73" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>925</v>
       </c>
       <c r="E74" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q74">
         <v>1</v>
       </c>
       <c r="W74" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E75" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H75">
         <v>6</v>
@@ -4777,86 +4777,86 @@
         <v>2</v>
       </c>
       <c r="W75" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V76">
         <v>1</v>
       </c>
       <c r="W76" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E77" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V77">
         <v>1</v>
       </c>
       <c r="W77" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V78">
         <v>1</v>
       </c>
       <c r="W78" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E79" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V79">
         <v>1</v>
       </c>
       <c r="W79" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H80">
         <v>6</v>
@@ -4865,38 +4865,38 @@
         <v>13</v>
       </c>
       <c r="O80" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P80">
         <v>1</v>
       </c>
       <c r="W80" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="X80" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
       </c>
       <c r="W81" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
@@ -4905,15 +4905,15 @@
         <v>2</v>
       </c>
       <c r="W82" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
@@ -4922,15 +4922,15 @@
         <v>1</v>
       </c>
       <c r="W83" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
@@ -4939,18 +4939,18 @@
         <v>2</v>
       </c>
       <c r="W84" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
       </c>
       <c r="F85" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H85">
         <v>5</v>
@@ -4965,29 +4965,29 @@
         <v>1</v>
       </c>
       <c r="W85" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B86" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E86" t="s">
         <v>4</v>
       </c>
       <c r="W86" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E87" t="s">
         <v>4</v>
@@ -4996,46 +4996,46 @@
         <v>1</v>
       </c>
       <c r="W87" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E88" t="s">
         <v>4</v>
       </c>
       <c r="W88" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E89" t="s">
         <v>4</v>
       </c>
       <c r="W89" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E90" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F90" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H90">
         <v>6</v>
@@ -5047,77 +5047,77 @@
         <v>2</v>
       </c>
       <c r="W90" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X90" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E91" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W91" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W92" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E93" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W93" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W94" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E95" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F95" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H95">
         <v>6</v>
@@ -5132,72 +5132,72 @@
         <v>1</v>
       </c>
       <c r="W95" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="X95" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E96" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U96">
         <v>1</v>
       </c>
       <c r="W96" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U97">
         <v>1</v>
       </c>
       <c r="W97" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B98" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E98" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U98">
         <v>1</v>
       </c>
       <c r="W98" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="99" spans="1:25">
       <c r="A99" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E99" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O99" t="s">
         <v>59</v>
@@ -5209,18 +5209,18 @@
         <v>1</v>
       </c>
       <c r="W99" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E100" t="s">
         <v>4</v>
       </c>
       <c r="F100" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H100">
         <v>5</v>
@@ -5235,15 +5235,15 @@
         <v>2</v>
       </c>
       <c r="W100" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B101" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E101" t="s">
         <v>4</v>
@@ -5258,15 +5258,15 @@
         <v>2</v>
       </c>
       <c r="W101" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="102" spans="1:25">
       <c r="A102" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B102" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E102" t="s">
         <v>4</v>
@@ -5278,15 +5278,15 @@
         <v>1</v>
       </c>
       <c r="W102" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="103" spans="1:25">
       <c r="A103" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B103" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E103" t="s">
         <v>4</v>
@@ -5298,15 +5298,15 @@
         <v>2</v>
       </c>
       <c r="W103" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="104" spans="1:25">
       <c r="A104" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B104" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E104" t="s">
         <v>4</v>
@@ -5318,18 +5318,18 @@
         <v>1</v>
       </c>
       <c r="W104" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="105" spans="1:25">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>926</v>
       </c>
       <c r="E105" t="s">
         <v>40</v>
       </c>
       <c r="F105" t="s">
-        <v>112</v>
+        <v>928</v>
       </c>
       <c r="H105">
         <v>6</v>
@@ -5341,18 +5341,18 @@
         <v>2</v>
       </c>
       <c r="W105" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="X105" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:25">
       <c r="A106" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B106" t="s">
-        <v>111</v>
+        <v>926</v>
       </c>
       <c r="E106" t="s">
         <v>40</v>
@@ -5361,29 +5361,29 @@
         <v>2</v>
       </c>
       <c r="W106" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="107" spans="1:25">
       <c r="A107" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B107" t="s">
-        <v>111</v>
+        <v>926</v>
       </c>
       <c r="E107" t="s">
         <v>40</v>
       </c>
       <c r="W107" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="108" spans="1:25">
       <c r="A108" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>926</v>
       </c>
       <c r="E108" t="s">
         <v>40</v>
@@ -5392,32 +5392,32 @@
         <v>2</v>
       </c>
       <c r="W108" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="109" spans="1:25">
       <c r="A109" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>926</v>
       </c>
       <c r="E109" t="s">
         <v>40</v>
       </c>
       <c r="W109" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="110" spans="1:25">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H110">
         <v>6</v>
@@ -5426,7 +5426,7 @@
         <v>10</v>
       </c>
       <c r="O110" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P110">
         <v>1</v>
@@ -5435,18 +5435,18 @@
         <v>2</v>
       </c>
       <c r="W110" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="Y110" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:25">
       <c r="A111" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B111" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
@@ -5458,15 +5458,15 @@
         <v>1</v>
       </c>
       <c r="W111" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="112" spans="1:25">
       <c r="A112" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
@@ -5475,46 +5475,46 @@
         <v>1</v>
       </c>
       <c r="W112" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="113" spans="1:25">
       <c r="A113" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
       </c>
       <c r="W113" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="114" spans="1:25">
       <c r="A114" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
       </c>
       <c r="W114" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="115" spans="1:25">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E115" t="s">
         <v>40</v>
       </c>
       <c r="F115" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H115">
         <v>6</v>
@@ -5526,38 +5526,38 @@
         <v>1</v>
       </c>
       <c r="W115" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="X115" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:25">
       <c r="A116" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E116" t="s">
         <v>40</v>
       </c>
       <c r="W116" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="117" spans="1:25">
       <c r="A117" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E117" t="s">
         <v>40</v>
       </c>
       <c r="O117" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P117">
         <v>1</v>
@@ -5566,35 +5566,35 @@
         <v>1</v>
       </c>
       <c r="W117" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="118" spans="1:25">
       <c r="A118" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E118" t="s">
         <v>40</v>
       </c>
       <c r="O118" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P118">
         <v>1</v>
       </c>
       <c r="W118" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="119" spans="1:25">
       <c r="A119" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E119" t="s">
         <v>40</v>
@@ -5603,18 +5603,18 @@
         <v>1</v>
       </c>
       <c r="W119" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="120" spans="1:25">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E120" t="s">
         <v>32</v>
       </c>
       <c r="F120" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H120">
         <v>5</v>
@@ -5629,18 +5629,18 @@
         <v>1</v>
       </c>
       <c r="W120" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="X120" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Y120" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:25">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5649,7 +5649,7 @@
         <v>32</v>
       </c>
       <c r="F121" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H121">
         <v>5</v>
@@ -5664,21 +5664,21 @@
         <v>1</v>
       </c>
       <c r="W121" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="X121" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Y121" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="122" spans="1:25">
       <c r="A122" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E122" t="s">
         <v>32</v>
@@ -5687,15 +5687,15 @@
         <v>1</v>
       </c>
       <c r="W122" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="123" spans="1:25">
       <c r="A123" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E123" t="s">
         <v>32</v>
@@ -5707,15 +5707,15 @@
         <v>1</v>
       </c>
       <c r="W123" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="124" spans="1:25">
       <c r="A124" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E124" t="s">
         <v>32</v>
@@ -5724,15 +5724,15 @@
         <v>1</v>
       </c>
       <c r="W124" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="125" spans="1:25">
       <c r="A125" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B125" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E125" t="s">
         <v>32</v>
@@ -5741,18 +5741,18 @@
         <v>1</v>
       </c>
       <c r="W125" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="126" spans="1:25">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E126" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F126" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H126">
         <v>6</v>
@@ -5767,80 +5767,80 @@
         <v>1</v>
       </c>
       <c r="W126" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="X126" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:25">
       <c r="A127" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E127" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W127" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="128" spans="1:25">
       <c r="A128" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E128" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W128" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B129" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E129" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T129">
         <v>2</v>
       </c>
       <c r="W129" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B130" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E130" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W130" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E131" t="s">
         <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H131">
         <v>6</v>
@@ -5855,77 +5855,77 @@
         <v>1</v>
       </c>
       <c r="W131" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="X131" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E132" t="s">
         <v>11</v>
       </c>
       <c r="W132" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B133" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E133" t="s">
         <v>11</v>
       </c>
       <c r="W133" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B134" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
       </c>
       <c r="W134" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B135" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E135" t="s">
         <v>11</v>
       </c>
       <c r="W135" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E136" t="s">
         <v>53</v>
       </c>
       <c r="F136" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H136">
         <v>6</v>
@@ -5934,43 +5934,43 @@
         <v>8</v>
       </c>
       <c r="W136" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B137" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E137" t="s">
         <v>53</v>
       </c>
       <c r="W137" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B138" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E138" t="s">
         <v>53</v>
       </c>
       <c r="W138" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B139" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E139" t="s">
         <v>53</v>
@@ -5979,32 +5979,32 @@
         <v>1</v>
       </c>
       <c r="W139" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B140" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E140" t="s">
         <v>53</v>
       </c>
       <c r="W140" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E141" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F141" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H141">
         <v>6</v>
@@ -6016,77 +6016,77 @@
         <v>1</v>
       </c>
       <c r="W141" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="X141" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B142" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E142" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="W142" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B143" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E143" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="W143" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B144" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E144" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="W144" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="145" spans="1:25">
       <c r="A145" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B145" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E145" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="W145" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="146" spans="1:25">
       <c r="A146" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E146" t="s">
         <v>32</v>
       </c>
       <c r="F146" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H146">
         <v>7</v>
@@ -6098,15 +6098,15 @@
         <v>2</v>
       </c>
       <c r="W146" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="Y146" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147" spans="1:25">
       <c r="A147" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -6115,7 +6115,7 @@
         <v>32</v>
       </c>
       <c r="F147" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H147">
         <v>7</v>
@@ -6127,18 +6127,18 @@
         <v>2</v>
       </c>
       <c r="W147" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="Y147" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148" spans="1:25">
       <c r="A148" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B148" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -6147,38 +6147,38 @@
         <v>32</v>
       </c>
       <c r="O148" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="P148" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="R148">
         <v>1</v>
       </c>
       <c r="W148" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="149" spans="1:25">
       <c r="A149" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B149" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E149" t="s">
         <v>32</v>
       </c>
       <c r="W149" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="150" spans="1:25">
       <c r="A150" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B150" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E150" t="s">
         <v>32</v>
@@ -6187,21 +6187,21 @@
         <v>2</v>
       </c>
       <c r="W150" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="151" spans="1:25">
       <c r="A151" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B151" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E151" t="s">
         <v>32</v>
       </c>
       <c r="O151" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="P151">
         <v>1</v>
@@ -6210,18 +6210,18 @@
         <v>1</v>
       </c>
       <c r="W151" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="152" spans="1:25">
       <c r="A152" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E152" t="s">
         <v>40</v>
       </c>
       <c r="F152" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H152">
         <v>6</v>
@@ -6230,18 +6230,18 @@
         <v>6</v>
       </c>
       <c r="W152" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="X152" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153" spans="1:25">
       <c r="A153" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B153" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E153" t="s">
         <v>40</v>
@@ -6250,43 +6250,43 @@
         <v>1</v>
       </c>
       <c r="W153" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="154" spans="1:25">
       <c r="A154" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B154" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E154" t="s">
         <v>40</v>
       </c>
       <c r="W154" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="155" spans="1:25">
       <c r="A155" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B155" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E155" t="s">
         <v>40</v>
       </c>
       <c r="W155" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="156" spans="1:25">
       <c r="A156" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B156" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E156" t="s">
         <v>40</v>
@@ -6295,18 +6295,18 @@
         <v>2</v>
       </c>
       <c r="W156" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="157" spans="1:25">
       <c r="A157" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E157" t="s">
         <v>4</v>
       </c>
       <c r="F157" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H157">
         <v>5</v>
@@ -6318,74 +6318,74 @@
         <v>1</v>
       </c>
       <c r="W157" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="158" spans="1:25">
       <c r="A158" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B158" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E158" t="s">
         <v>4</v>
       </c>
       <c r="W158" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="159" spans="1:25">
       <c r="A159" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B159" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E159" t="s">
         <v>4</v>
       </c>
       <c r="W159" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="160" spans="1:25">
       <c r="A160" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B160" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E160" t="s">
         <v>4</v>
       </c>
       <c r="W160" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B161" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E161" t="s">
         <v>4</v>
       </c>
       <c r="W161" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E162" t="s">
         <v>32</v>
       </c>
       <c r="F162" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H162">
         <v>6</v>
@@ -6397,12 +6397,12 @@
         <v>2</v>
       </c>
       <c r="W162" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -6411,7 +6411,7 @@
         <v>32</v>
       </c>
       <c r="F163" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H163">
         <v>6</v>
@@ -6423,18 +6423,18 @@
         <v>2</v>
       </c>
       <c r="W163" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="X163" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B164" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E164" t="s">
         <v>32</v>
@@ -6443,15 +6443,15 @@
         <v>1</v>
       </c>
       <c r="W164" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B165" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E165" t="s">
         <v>32</v>
@@ -6460,46 +6460,46 @@
         <v>2</v>
       </c>
       <c r="W165" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B166" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E166" t="s">
         <v>32</v>
       </c>
       <c r="W166" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B167" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E167" t="s">
         <v>32</v>
       </c>
       <c r="W167" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E168" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F168" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H168">
         <v>6</v>
@@ -6508,74 +6508,74 @@
         <v>9</v>
       </c>
       <c r="W168" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B169" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E169" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W169" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B170" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E170" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W170" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B171" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E171" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W171" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B172" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E172" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W172" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E173" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G173" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H173">
         <v>6</v>
@@ -6590,24 +6590,24 @@
         <v>2</v>
       </c>
       <c r="W173" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="X173" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B174" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E174" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O174" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="P174">
         <v>1</v>
@@ -6616,72 +6616,72 @@
         <v>2</v>
       </c>
       <c r="W174" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B175" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E175" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O175" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="P175">
         <v>1</v>
       </c>
       <c r="W175" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B176" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E176" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U176">
         <v>2</v>
       </c>
       <c r="W176" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B177" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E177" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U177">
         <v>2</v>
       </c>
       <c r="W177" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E178" t="s">
         <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H178">
         <v>6</v>
@@ -6690,44 +6690,44 @@
         <v>7</v>
       </c>
       <c r="O178" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="P178">
         <v>1</v>
       </c>
       <c r="W178" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="X178" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B179" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E179" t="s">
         <v>11</v>
       </c>
       <c r="W179" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B180" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E180" t="s">
         <v>11</v>
       </c>
       <c r="O180" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="P180">
         <v>1</v>
@@ -6736,46 +6736,46 @@
         <v>1</v>
       </c>
       <c r="W180" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="B181" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E181" t="s">
         <v>11</v>
       </c>
       <c r="W181" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B182" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E182" t="s">
         <v>11</v>
       </c>
       <c r="W182" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E183" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F183" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H183">
         <v>6</v>
@@ -6784,77 +6784,77 @@
         <v>9</v>
       </c>
       <c r="W183" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="X183" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B184" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E184" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="W184" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B185" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E185" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="W185" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B186" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E186" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="W186" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B187" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E187" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="W187" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E188" t="s">
+        <v>163</v>
+      </c>
+      <c r="F188" t="s">
         <v>168</v>
-      </c>
-      <c r="F188" t="s">
-        <v>173</v>
       </c>
       <c r="H188">
         <v>7</v>
@@ -6863,80 +6863,80 @@
         <v>24</v>
       </c>
       <c r="W188" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="X188" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B189" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E189" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="W189" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B190" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E190" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q190">
         <v>1</v>
       </c>
       <c r="W190" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B191" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E191" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="W191" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B192" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E192" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="W192" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="193" spans="1:25">
       <c r="A193" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E193" t="s">
         <v>57</v>
       </c>
       <c r="F193" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="H193">
         <v>6</v>
@@ -6951,89 +6951,89 @@
         <v>1</v>
       </c>
       <c r="W193" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="X193" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Y193" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="194" spans="1:25">
       <c r="A194" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B194" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E194" t="s">
         <v>57</v>
       </c>
       <c r="W194" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="195" spans="1:25">
       <c r="A195" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B195" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E195" t="s">
         <v>57</v>
       </c>
       <c r="W195" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="196" spans="1:25">
       <c r="A196" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B196" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E196" t="s">
         <v>57</v>
       </c>
       <c r="O196" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="P196" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="Q196">
         <v>1</v>
       </c>
       <c r="W196" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="197" spans="1:25">
       <c r="A197" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B197" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E197" t="s">
         <v>57</v>
       </c>
       <c r="W197" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="198" spans="1:25">
       <c r="A198" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E198" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F198" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H198">
         <v>6</v>
@@ -7045,68 +7045,80 @@
         <v>1</v>
       </c>
       <c r="W198" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="X198" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="199" spans="1:25">
       <c r="A199" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="B199" t="s">
-        <v>179</v>
+        <v>174</v>
+      </c>
+      <c r="E199" t="s">
+        <v>101</v>
       </c>
       <c r="N199">
         <v>1</v>
       </c>
       <c r="W199" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="200" spans="1:25">
       <c r="A200" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="B200" t="s">
-        <v>179</v>
+        <v>174</v>
+      </c>
+      <c r="E200" t="s">
+        <v>101</v>
       </c>
       <c r="W200" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="201" spans="1:25">
       <c r="A201" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B201" t="s">
-        <v>179</v>
+        <v>174</v>
+      </c>
+      <c r="E201" t="s">
+        <v>101</v>
       </c>
       <c r="W201" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="202" spans="1:25">
       <c r="A202" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="B202" t="s">
-        <v>179</v>
+        <v>174</v>
+      </c>
+      <c r="E202" t="s">
+        <v>101</v>
       </c>
       <c r="W202" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="203" spans="1:25">
       <c r="A203" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E203" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F203" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H203">
         <v>6</v>
@@ -7118,32 +7130,38 @@
         <v>1</v>
       </c>
       <c r="W203" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="X203" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="204" spans="1:25">
       <c r="A204" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="B204" t="s">
-        <v>182</v>
+        <v>177</v>
+      </c>
+      <c r="E204" t="s">
+        <v>101</v>
       </c>
       <c r="T204">
         <v>1</v>
       </c>
       <c r="W204" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="205" spans="1:25">
       <c r="A205" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="B205" t="s">
-        <v>182</v>
+        <v>177</v>
+      </c>
+      <c r="E205" t="s">
+        <v>101</v>
       </c>
       <c r="Q205">
         <v>1</v>
@@ -7152,15 +7170,18 @@
         <v>1</v>
       </c>
       <c r="W205" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="206" spans="1:25">
       <c r="A206" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="B206" t="s">
-        <v>182</v>
+        <v>177</v>
+      </c>
+      <c r="E206" t="s">
+        <v>101</v>
       </c>
       <c r="R206">
         <v>1</v>
@@ -7169,32 +7190,35 @@
         <v>1</v>
       </c>
       <c r="W206" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="207" spans="1:25">
       <c r="A207" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B207" t="s">
-        <v>182</v>
+        <v>177</v>
+      </c>
+      <c r="E207" t="s">
+        <v>101</v>
       </c>
       <c r="T207">
         <v>1</v>
       </c>
       <c r="W207" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="208" spans="1:25">
       <c r="A208" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E208" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G208" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H208">
         <v>6</v>
@@ -7209,86 +7233,86 @@
         <v>2</v>
       </c>
       <c r="W208" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="X208" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B209" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E209" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="W209" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B210" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E210" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="W210" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="211" spans="1:24">
       <c r="A211" t="s">
+        <v>551</v>
+      </c>
+      <c r="B211" t="s">
+        <v>180</v>
+      </c>
+      <c r="E211" t="s">
+        <v>181</v>
+      </c>
+      <c r="O211" t="s">
         <v>557</v>
       </c>
-      <c r="B211" t="s">
-        <v>185</v>
-      </c>
-      <c r="E211" t="s">
-        <v>186</v>
-      </c>
-      <c r="O211" t="s">
-        <v>563</v>
-      </c>
       <c r="P211">
         <v>1</v>
       </c>
       <c r="W211" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="212" spans="1:24">
       <c r="A212" t="s">
+        <v>552</v>
+      </c>
+      <c r="B212" t="s">
+        <v>180</v>
+      </c>
+      <c r="E212" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q212">
+        <v>1</v>
+      </c>
+      <c r="W212" t="s">
         <v>558</v>
-      </c>
-      <c r="B212" t="s">
-        <v>185</v>
-      </c>
-      <c r="E212" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q212">
-        <v>1</v>
-      </c>
-      <c r="W212" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E213" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F213" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H213">
         <v>6</v>
@@ -7297,80 +7321,80 @@
         <v>8</v>
       </c>
       <c r="W213" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B214" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E214" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q214">
         <v>2</v>
       </c>
       <c r="W214" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B215" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E215" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K215">
         <v>1</v>
       </c>
       <c r="W215" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B216" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E216" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="W216" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B217" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E217" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="W217" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E218" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F218" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H218">
         <v>6</v>
@@ -7379,69 +7403,69 @@
         <v>7</v>
       </c>
       <c r="W218" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="X218" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B219" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E219" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="N219">
         <v>1</v>
       </c>
       <c r="W219" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="B220" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E220" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="W220" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="B221" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E221" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="N221">
         <v>1</v>
       </c>
       <c r="W221" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="B222" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E222" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="N222">
         <v>1</v>
@@ -7450,15 +7474,15 @@
         <v>1</v>
       </c>
       <c r="W222" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E223" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F223" t="s">
         <v>46</v>
@@ -7470,60 +7494,60 @@
         <v>9</v>
       </c>
       <c r="W223" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B224" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E224" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="W224" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="225" spans="1:25">
       <c r="A225" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B225" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E225" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="W225" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="226" spans="1:25">
       <c r="A226" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B226" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E226" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="W226" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="227" spans="1:25">
       <c r="A227" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B227" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E227" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N227">
         <v>1</v>
@@ -7532,18 +7556,18 @@
         <v>2</v>
       </c>
       <c r="W227" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="228" spans="1:25">
       <c r="A228" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E228" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F228" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H228">
         <v>6</v>
@@ -7552,27 +7576,27 @@
         <v>8</v>
       </c>
       <c r="W228" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="X228" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Y228" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="229" spans="1:25">
       <c r="A229" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B229" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E229" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O229" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P229">
         <v>1</v>
@@ -7581,63 +7605,63 @@
         <v>1</v>
       </c>
       <c r="W229" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="230" spans="1:25">
       <c r="A230" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B230" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E230" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="T230">
         <v>1</v>
       </c>
       <c r="W230" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="231" spans="1:25">
       <c r="A231" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B231" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E231" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="W231" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="232" spans="1:25">
       <c r="A232" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B232" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E232" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="W232" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="233" spans="1:25">
       <c r="A233" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E233" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F233" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H233">
         <v>7</v>
@@ -7661,24 +7685,24 @@
         <v>1</v>
       </c>
       <c r="W233" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="X233" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="234" spans="1:25">
       <c r="A234" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="E234" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F234" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H234">
         <v>7</v>
@@ -7705,35 +7729,35 @@
         <v>2</v>
       </c>
       <c r="W234" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="235" spans="1:25">
       <c r="A235" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B235" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E235" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="R235">
         <v>2</v>
       </c>
       <c r="W235" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="236" spans="1:25">
       <c r="A236" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B236" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E236" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J236">
         <v>1</v>
@@ -7751,52 +7775,52 @@
         <v>1</v>
       </c>
       <c r="W236" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="237" spans="1:25">
       <c r="A237" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B237" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E237" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="R237">
         <v>1</v>
       </c>
       <c r="W237" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="238" spans="1:25">
       <c r="A238" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B238" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E238" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="Q238">
         <v>1</v>
       </c>
       <c r="W238" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="239" spans="1:25">
       <c r="A239" t="s">
-        <v>213</v>
+        <v>923</v>
       </c>
       <c r="E239" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F239" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H239">
         <v>6</v>
@@ -7811,24 +7835,24 @@
         <v>1</v>
       </c>
       <c r="W239" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="X239" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Y239" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="240" spans="1:25">
       <c r="A240" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D240">
         <v>1</v>
       </c>
       <c r="E240" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H240">
         <v>6</v>
@@ -7843,77 +7867,77 @@
         <v>1</v>
       </c>
       <c r="W240" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="X240" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B241" t="s">
-        <v>213</v>
+        <v>923</v>
       </c>
       <c r="E241" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="W241" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B242" t="s">
-        <v>213</v>
+        <v>923</v>
       </c>
       <c r="E242" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="W242" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B243" t="s">
-        <v>213</v>
+        <v>923</v>
       </c>
       <c r="E243" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="W243" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B244" t="s">
-        <v>213</v>
+        <v>923</v>
       </c>
       <c r="E244" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="W244" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E245" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F245" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H245">
         <v>7</v>
@@ -7922,21 +7946,21 @@
         <v>11</v>
       </c>
       <c r="W245" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="X245" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D246">
         <v>1</v>
       </c>
       <c r="E246" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H246">
         <v>7</v>
@@ -7945,21 +7969,21 @@
         <v>13</v>
       </c>
       <c r="W246" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="X246" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B247" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E247" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K247">
         <v>1</v>
@@ -7971,18 +7995,18 @@
         <v>2</v>
       </c>
       <c r="W247" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B248" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E248" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K248">
         <v>1</v>
@@ -7991,18 +8015,18 @@
         <v>1</v>
       </c>
       <c r="W248" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="249" spans="1:24">
       <c r="A249" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B249" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E249" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J249">
         <v>1</v>
@@ -8011,32 +8035,32 @@
         <v>1</v>
       </c>
       <c r="W249" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="250" spans="1:24">
       <c r="A250" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B250" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E250" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="W250" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="251" spans="1:24">
       <c r="A251" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E251" t="s">
+        <v>208</v>
+      </c>
+      <c r="F251" t="s">
         <v>214</v>
-      </c>
-      <c r="F251" t="s">
-        <v>220</v>
       </c>
       <c r="H251">
         <v>6</v>
@@ -8048,21 +8072,21 @@
         <v>1</v>
       </c>
       <c r="W251" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="X251" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="252" spans="1:24">
       <c r="A252" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D252">
         <v>1</v>
       </c>
       <c r="E252" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H252">
         <v>6</v>
@@ -8074,89 +8098,89 @@
         <v>2</v>
       </c>
       <c r="W252" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="X252" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="253" spans="1:24">
       <c r="A253" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B253" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E253" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L253">
         <v>1</v>
       </c>
       <c r="W253" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="254" spans="1:24">
       <c r="A254" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B254" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E254" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L254">
         <v>2</v>
       </c>
       <c r="W254" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="255" spans="1:24">
       <c r="A255" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B255" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E255" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q255">
         <v>1</v>
       </c>
       <c r="W255" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="256" spans="1:24">
       <c r="A256" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B256" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E256" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="T256">
         <v>1</v>
       </c>
       <c r="W256" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="257" spans="1:24">
       <c r="A257" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E257" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F257" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H257">
         <v>6</v>
@@ -8168,21 +8192,21 @@
         <v>1</v>
       </c>
       <c r="W257" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="X257" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="258" spans="1:24">
       <c r="A258" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D258">
         <v>1</v>
       </c>
       <c r="E258" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H258">
         <v>6</v>
@@ -8191,77 +8215,77 @@
         <v>8</v>
       </c>
       <c r="W258" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="X258" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="259" spans="1:24">
       <c r="A259" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B259" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E259" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="W259" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="260" spans="1:24">
       <c r="A260" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B260" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E260" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="W260" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="261" spans="1:24">
       <c r="A261" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B261" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E261" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="W261" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="262" spans="1:24">
       <c r="A262" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B262" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E262" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="W262" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="263" spans="1:24">
       <c r="A263" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E263" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F263" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H263">
         <v>6</v>
@@ -8270,21 +8294,21 @@
         <v>9</v>
       </c>
       <c r="W263" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="264" spans="1:24">
       <c r="A264" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="E264" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F264" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H264">
         <v>6</v>
@@ -8293,80 +8317,80 @@
         <v>11</v>
       </c>
       <c r="W264" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="265" spans="1:24">
       <c r="A265" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B265" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E265" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="W265" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="266" spans="1:24">
       <c r="A266" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B266" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E266" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="W266" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="267" spans="1:24">
       <c r="A267" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B267" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E267" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="R267">
         <v>1</v>
       </c>
       <c r="W267" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="268" spans="1:24">
       <c r="A268" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B268" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E268" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="Q268">
         <v>1</v>
       </c>
       <c r="W268" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="269" spans="1:24">
       <c r="A269" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E269" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F269" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H269">
         <v>6</v>
@@ -8381,103 +8405,103 @@
         <v>1</v>
       </c>
       <c r="W269" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="X269" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="270" spans="1:24">
       <c r="A270" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D270">
         <v>1</v>
       </c>
       <c r="E270" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="T270">
         <v>1</v>
       </c>
       <c r="W270" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="271" spans="1:24">
       <c r="A271" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="B271" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E271" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="T271">
         <v>1</v>
       </c>
       <c r="W271" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="272" spans="1:24">
       <c r="A272" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B272" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E272" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="W272" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="273" spans="1:25">
       <c r="A273" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B273" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E273" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q273">
         <v>1</v>
       </c>
       <c r="W273" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="274" spans="1:25">
       <c r="A274" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B274" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E274" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="T274">
         <v>1</v>
       </c>
       <c r="W274" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="275" spans="1:25">
       <c r="A275" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E275" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F275" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H275">
         <v>6</v>
@@ -8489,21 +8513,21 @@
         <v>2</v>
       </c>
       <c r="W275" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="Y275" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="276" spans="1:25">
       <c r="A276" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D276">
         <v>1</v>
       </c>
       <c r="E276" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H276">
         <v>6</v>
@@ -8518,21 +8542,21 @@
         <v>1</v>
       </c>
       <c r="W276" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="X276" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="277" spans="1:25">
       <c r="A277" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="B277" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E277" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J277">
         <v>1</v>
@@ -8541,60 +8565,60 @@
         <v>1</v>
       </c>
       <c r="W277" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="278" spans="1:25">
       <c r="A278" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="B278" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E278" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="W278" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="279" spans="1:25">
       <c r="A279" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="B279" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E279" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="W279" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="280" spans="1:25">
       <c r="A280" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="B280" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E280" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="W280" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="281" spans="1:25">
       <c r="A281" t="s">
+        <v>718</v>
+      </c>
+      <c r="E281" t="s">
+        <v>723</v>
+      </c>
+      <c r="F281" t="s">
         <v>724</v>
-      </c>
-      <c r="E281" t="s">
-        <v>729</v>
-      </c>
-      <c r="F281" t="s">
-        <v>730</v>
       </c>
       <c r="H281">
         <v>6</v>
@@ -8603,24 +8627,24 @@
         <v>5</v>
       </c>
       <c r="W281" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="X281" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="282" spans="1:25">
       <c r="A282" t="s">
+        <v>718</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="E282" t="s">
+        <v>723</v>
+      </c>
+      <c r="F282" t="s">
         <v>724</v>
-      </c>
-      <c r="C282">
-        <v>1</v>
-      </c>
-      <c r="E282" t="s">
-        <v>729</v>
-      </c>
-      <c r="F282" t="s">
-        <v>730</v>
       </c>
       <c r="H282">
         <v>6</v>
@@ -8629,86 +8653,86 @@
         <v>5</v>
       </c>
       <c r="W282" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="X282" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="283" spans="1:25">
       <c r="A283" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B283" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="E283" t="s">
+        <v>723</v>
+      </c>
+      <c r="O283" t="s">
         <v>729</v>
       </c>
-      <c r="O283" t="s">
-        <v>735</v>
-      </c>
       <c r="Q283">
         <v>1</v>
       </c>
       <c r="W283" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="284" spans="1:25">
       <c r="A284" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="B284" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="E284" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="W284" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="285" spans="1:25">
       <c r="A285" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="B285" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="E285" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="U285">
         <v>1</v>
       </c>
       <c r="W285" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="286" spans="1:25">
       <c r="A286" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B286" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="E286" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="W286" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="287" spans="1:25">
       <c r="A287" t="s">
+        <v>734</v>
+      </c>
+      <c r="E287" t="s">
+        <v>723</v>
+      </c>
+      <c r="F287" t="s">
         <v>740</v>
-      </c>
-      <c r="E287" t="s">
-        <v>729</v>
-      </c>
-      <c r="F287" t="s">
-        <v>746</v>
       </c>
       <c r="H287">
         <v>6</v>
@@ -8720,24 +8744,24 @@
         <v>1</v>
       </c>
       <c r="W287" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="X287" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="288" spans="1:25">
       <c r="A288" t="s">
+        <v>734</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="E288" t="s">
+        <v>739</v>
+      </c>
+      <c r="F288" t="s">
         <v>740</v>
-      </c>
-      <c r="C288">
-        <v>1</v>
-      </c>
-      <c r="E288" t="s">
-        <v>745</v>
-      </c>
-      <c r="F288" t="s">
-        <v>746</v>
       </c>
       <c r="H288">
         <v>6</v>
@@ -8749,77 +8773,77 @@
         <v>1</v>
       </c>
       <c r="W288" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="X288" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="289" spans="1:24">
       <c r="A289" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B289" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="E289" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="W289" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="290" spans="1:24">
       <c r="A290" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="B290" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="E290" t="s">
+        <v>739</v>
+      </c>
+      <c r="W290" t="s">
         <v>745</v>
-      </c>
-      <c r="W290" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="291" spans="1:24">
       <c r="A291" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B291" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="E291" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="W291" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="292" spans="1:24">
       <c r="A292" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B292" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="E292" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="W292" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="293" spans="1:24">
       <c r="A293" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E293" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F293" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="H293">
         <v>6</v>
@@ -8834,24 +8858,24 @@
         <v>1</v>
       </c>
       <c r="W293" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="X293" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="294" spans="1:24">
       <c r="A294" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
       <c r="E294" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F294" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="H294">
         <v>6</v>
@@ -8863,21 +8887,21 @@
         <v>1</v>
       </c>
       <c r="W294" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="X294" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="295" spans="1:24">
       <c r="A295" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="B295" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E295" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="J295">
         <v>1</v>
@@ -8886,66 +8910,66 @@
         <v>1</v>
       </c>
       <c r="W295" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="296" spans="1:24">
       <c r="A296" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="B296" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E296" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="Q296">
         <v>1</v>
       </c>
       <c r="W296" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="297" spans="1:24">
       <c r="A297" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B297" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E297" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="W297" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="298" spans="1:24">
       <c r="A298" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="B298" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E298" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="R298">
         <v>1</v>
       </c>
       <c r="W298" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="299" spans="1:24">
       <c r="A299" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="E299" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F299" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="H299">
         <v>7</v>
@@ -8954,24 +8978,24 @@
         <v>12</v>
       </c>
       <c r="W299" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="X299" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="300" spans="1:24">
       <c r="A300" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
       <c r="E300" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F300" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="H300">
         <v>7</v>
@@ -8983,80 +9007,80 @@
         <v>1</v>
       </c>
       <c r="W300" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="X300" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="301" spans="1:24">
       <c r="A301" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B301" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="E301" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="W301" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="302" spans="1:24">
       <c r="A302" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="B302" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="E302" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="Q302">
         <v>1</v>
       </c>
       <c r="W302" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="303" spans="1:24">
       <c r="A303" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B303" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="E303" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="W303" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="304" spans="1:24">
       <c r="A304" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B304" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="E304" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="W304" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="305" spans="1:24">
       <c r="A305" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E305" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F305" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="H305">
         <v>6</v>
@@ -9068,24 +9092,24 @@
         <v>1</v>
       </c>
       <c r="W305" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="X305" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="306" spans="1:24">
       <c r="A306" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="C306">
         <v>1</v>
       </c>
       <c r="E306" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F306" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="H306">
         <v>6</v>
@@ -9094,49 +9118,49 @@
         <v>10</v>
       </c>
       <c r="W306" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="X306" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="307" spans="1:24">
       <c r="A307" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="B307" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E307" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="W307" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="308" spans="1:24">
       <c r="A308" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="B308" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E308" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="W308" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="309" spans="1:24">
       <c r="A309" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B309" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E309" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="N309">
         <v>1</v>
@@ -9145,32 +9169,32 @@
         <v>1</v>
       </c>
       <c r="W309" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="310" spans="1:24">
       <c r="A310" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B310" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E310" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="W310" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="311" spans="1:24">
       <c r="A311" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E311" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F311" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="H311">
         <v>6</v>
@@ -9182,24 +9206,24 @@
         <v>2</v>
       </c>
       <c r="W311" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="X311" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="312" spans="1:24">
       <c r="A312" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="C312">
         <v>1</v>
       </c>
       <c r="E312" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F312" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="H312">
         <v>6</v>
@@ -9211,86 +9235,86 @@
         <v>2</v>
       </c>
       <c r="W312" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="X312" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="313" spans="1:24">
       <c r="A313" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B313" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E313" t="s">
+        <v>723</v>
+      </c>
+      <c r="O313" t="s">
         <v>729</v>
       </c>
-      <c r="O313" t="s">
-        <v>735</v>
-      </c>
       <c r="W313" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="314" spans="1:24">
       <c r="A314" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B314" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E314" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="W314" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="315" spans="1:24">
       <c r="A315" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="B315" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E315" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="T315">
         <v>1</v>
       </c>
       <c r="W315" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="316" spans="1:24">
       <c r="A316" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B316" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E316" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="N316">
         <v>1</v>
       </c>
       <c r="W316" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="317" spans="1:24">
       <c r="A317" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="E317" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="G317" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="H317">
         <v>5</v>
@@ -9299,21 +9323,21 @@
         <v>4</v>
       </c>
       <c r="W317" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="318" spans="1:24">
       <c r="A318" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="C318">
         <v>1</v>
       </c>
       <c r="E318" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="G318" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="H318">
         <v>5</v>
@@ -9325,83 +9349,83 @@
         <v>1</v>
       </c>
       <c r="W318" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="319" spans="1:24">
       <c r="A319" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B319" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="E319" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="W319" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="320" spans="1:24">
       <c r="A320" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B320" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="E320" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="Q320">
         <v>2</v>
       </c>
       <c r="W320" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="321" spans="1:24">
       <c r="A321" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B321" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="E321" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="T321">
         <v>1</v>
       </c>
       <c r="W321" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="322" spans="1:24">
       <c r="A322" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B322" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="E322" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="O322" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="W322" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="323" spans="1:24">
       <c r="A323" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="E323" t="s">
         <v>5</v>
       </c>
       <c r="F323" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="H323">
         <v>6</v>
@@ -9410,15 +9434,15 @@
         <v>8</v>
       </c>
       <c r="W323" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="X323" s="4" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="324" spans="1:24">
       <c r="A324" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C324">
         <v>1</v>
@@ -9427,7 +9451,7 @@
         <v>5</v>
       </c>
       <c r="F324" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="H324">
         <v>6</v>
@@ -9439,18 +9463,18 @@
         <v>1</v>
       </c>
       <c r="W324" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="X324" s="4" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="325" spans="1:24">
       <c r="A325" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B325" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="E325" t="s">
         <v>5</v>
@@ -9459,29 +9483,29 @@
         <v>1</v>
       </c>
       <c r="W325" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="326" spans="1:24">
       <c r="A326" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="B326" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="E326" t="s">
         <v>5</v>
       </c>
       <c r="W326" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="327" spans="1:24">
       <c r="A327" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="B327" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="E327" t="s">
         <v>5</v>
@@ -9490,15 +9514,15 @@
         <v>1</v>
       </c>
       <c r="W327" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="328" spans="1:24">
       <c r="A328" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="B328" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="E328" t="s">
         <v>5</v>
@@ -9507,18 +9531,18 @@
         <v>1</v>
       </c>
       <c r="W328" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="329" spans="1:24">
       <c r="A329" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="E329" t="s">
         <v>5</v>
       </c>
       <c r="F329" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="H329">
         <v>6</v>
@@ -9527,15 +9551,15 @@
         <v>9</v>
       </c>
       <c r="W329" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="X329" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="330" spans="1:24">
       <c r="A330" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="C330">
         <v>1</v>
@@ -9544,7 +9568,7 @@
         <v>5</v>
       </c>
       <c r="F330" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="H330">
         <v>6</v>
@@ -9553,32 +9577,32 @@
         <v>10</v>
       </c>
       <c r="W330" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="X330" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="331" spans="1:24">
       <c r="A331" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B331" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="E331" t="s">
         <v>5</v>
       </c>
       <c r="W331" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="332" spans="1:24">
       <c r="A332" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B332" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="E332" t="s">
         <v>5</v>
@@ -9590,29 +9614,29 @@
         <v>1</v>
       </c>
       <c r="W332" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="333" spans="1:24">
       <c r="A333" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="B333" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="E333" t="s">
         <v>5</v>
       </c>
       <c r="W333" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="334" spans="1:24">
       <c r="A334" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B334" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="E334" t="s">
         <v>5</v>
@@ -9624,18 +9648,18 @@
         <v>1</v>
       </c>
       <c r="W334" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="335" spans="1:24">
       <c r="A335" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="E335" t="s">
         <v>5</v>
       </c>
       <c r="G335" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="H335">
         <v>6</v>
@@ -9650,15 +9674,15 @@
         <v>2</v>
       </c>
       <c r="W335" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="X335" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="336" spans="1:24">
       <c r="A336" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C336">
         <v>1</v>
@@ -9667,7 +9691,7 @@
         <v>5</v>
       </c>
       <c r="G336" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="H336">
         <v>6</v>
@@ -9682,32 +9706,32 @@
         <v>2</v>
       </c>
       <c r="W336" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="X336" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="337" spans="1:24">
       <c r="A337" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="B337" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="E337" t="s">
         <v>5</v>
       </c>
       <c r="W337" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="338" spans="1:24">
       <c r="A338" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="B338" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="E338" t="s">
         <v>5</v>
@@ -9716,15 +9740,15 @@
         <v>1</v>
       </c>
       <c r="W338" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="339" spans="1:24">
       <c r="A339" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="B339" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="E339" t="s">
         <v>5</v>
@@ -9736,15 +9760,15 @@
         <v>1</v>
       </c>
       <c r="W339" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="340" spans="1:24">
       <c r="A340" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="B340" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="E340" t="s">
         <v>5</v>
@@ -9753,32 +9777,32 @@
         <v>2</v>
       </c>
       <c r="W340" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="341" spans="1:24">
       <c r="A341" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="E341" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="F341" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="W341" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
     </row>
     <row r="342" spans="1:24">
       <c r="A342" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B342" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="E342" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="H342">
         <v>6</v>
@@ -9790,21 +9814,21 @@
         <v>2</v>
       </c>
       <c r="W342" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="X342" s="4" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="343" spans="1:24">
       <c r="A343" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="B343" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="E343" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="H343">
         <v>6</v>
@@ -9816,10 +9840,10 @@
         <v>1</v>
       </c>
       <c r="W343" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="X343" s="4" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
     </row>
     <row r="344" spans="1:24">
@@ -9827,10 +9851,10 @@
         <v>36</v>
       </c>
       <c r="B344" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="E344" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="H344">
         <v>6</v>
@@ -9839,10 +9863,10 @@
         <v>6</v>
       </c>
       <c r="W344" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="X344" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
     </row>
     <row r="345" spans="1:24">
@@ -9850,10 +9874,10 @@
         <v>48</v>
       </c>
       <c r="B345" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="E345" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="H345">
         <v>6</v>
@@ -9865,36 +9889,36 @@
         <v>1</v>
       </c>
       <c r="W345" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="X345" s="4" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
     </row>
     <row r="346" spans="1:24">
       <c r="A346" t="s">
-        <v>875</v>
+        <v>924</v>
       </c>
       <c r="E346" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="F346" t="s">
-        <v>877</v>
+        <v>930</v>
       </c>
       <c r="W346" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="X346" s="4"/>
     </row>
     <row r="347" spans="1:24">
       <c r="A347" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="B347" t="s">
-        <v>875</v>
+        <v>924</v>
       </c>
       <c r="E347" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="H347">
         <v>6</v>
@@ -9915,18 +9939,18 @@
         <v>1</v>
       </c>
       <c r="W347" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
     </row>
     <row r="348" spans="1:24">
       <c r="A348" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="B348" t="s">
-        <v>875</v>
+        <v>924</v>
       </c>
       <c r="E348" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="H348">
         <v>6</v>
@@ -9938,18 +9962,18 @@
         <v>1</v>
       </c>
       <c r="W348" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
     </row>
     <row r="349" spans="1:24">
       <c r="A349" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="B349" t="s">
-        <v>875</v>
+        <v>924</v>
       </c>
       <c r="E349" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="H349">
         <v>6</v>
@@ -9961,18 +9985,18 @@
         <v>1</v>
       </c>
       <c r="W349" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
     </row>
     <row r="350" spans="1:24">
       <c r="A350" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="B350" t="s">
-        <v>875</v>
+        <v>924</v>
       </c>
       <c r="E350" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="H350">
         <v>6</v>
@@ -9990,18 +10014,18 @@
         <v>1</v>
       </c>
       <c r="W350" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
     </row>
     <row r="351" spans="1:24">
       <c r="A351" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="E351" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="F351" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H351">
         <v>6</v>
@@ -10013,21 +10037,21 @@
         <v>1</v>
       </c>
       <c r="W351" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
     </row>
     <row r="352" spans="1:24">
       <c r="A352" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="C352">
         <v>1</v>
       </c>
       <c r="E352" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="F352" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="H352">
         <v>6</v>
@@ -10039,95 +10063,95 @@
         <v>1</v>
       </c>
       <c r="W352" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
     </row>
     <row r="353" spans="1:24">
       <c r="A353" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="B353" t="s">
+        <v>877</v>
+      </c>
+      <c r="E353" t="s">
+        <v>878</v>
+      </c>
+      <c r="T353">
+        <v>1</v>
+      </c>
+      <c r="U353">
+        <v>1</v>
+      </c>
+      <c r="W353" t="s">
         <v>885</v>
-      </c>
-      <c r="E353" t="s">
-        <v>886</v>
-      </c>
-      <c r="T353">
-        <v>1</v>
-      </c>
-      <c r="U353">
-        <v>1</v>
-      </c>
-      <c r="W353" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="354" spans="1:24">
       <c r="A354" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="B354" t="s">
+        <v>877</v>
+      </c>
+      <c r="E354" t="s">
+        <v>878</v>
+      </c>
+      <c r="T354">
+        <v>1</v>
+      </c>
+      <c r="U354">
+        <v>1</v>
+      </c>
+      <c r="W354" t="s">
         <v>885</v>
-      </c>
-      <c r="E354" t="s">
-        <v>886</v>
-      </c>
-      <c r="T354">
-        <v>1</v>
-      </c>
-      <c r="U354">
-        <v>1</v>
-      </c>
-      <c r="W354" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="355" spans="1:24">
       <c r="A355" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="B355" t="s">
+        <v>877</v>
+      </c>
+      <c r="E355" t="s">
+        <v>878</v>
+      </c>
+      <c r="R355">
+        <v>1</v>
+      </c>
+      <c r="T355">
+        <v>1</v>
+      </c>
+      <c r="W355" t="s">
         <v>885</v>
-      </c>
-      <c r="E355" t="s">
-        <v>886</v>
-      </c>
-      <c r="R355">
-        <v>1</v>
-      </c>
-      <c r="T355">
-        <v>1</v>
-      </c>
-      <c r="W355" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="356" spans="1:24">
       <c r="A356" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="B356" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="E356" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="N356">
         <v>2</v>
       </c>
       <c r="W356" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="357" spans="1:24">
       <c r="A357" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="E357" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="F357" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="H357">
         <v>6</v>
@@ -10142,24 +10166,24 @@
         <v>1</v>
       </c>
       <c r="W357" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="X357" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
     </row>
     <row r="358" spans="1:24">
       <c r="A358" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="C358">
         <v>1</v>
       </c>
       <c r="E358" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="F358" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="H358">
         <v>6</v>
@@ -10174,89 +10198,89 @@
         <v>1</v>
       </c>
       <c r="W358" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="X358" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
     </row>
     <row r="359" spans="1:24">
       <c r="A359" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="B359" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="E359" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="U359">
         <v>1</v>
       </c>
       <c r="W359" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
     </row>
     <row r="360" spans="1:24">
       <c r="A360" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="B360" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="E360" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="U360">
         <v>1</v>
       </c>
       <c r="W360" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
     </row>
     <row r="361" spans="1:24">
       <c r="A361" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="B361" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="E361" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="T361">
         <v>1</v>
       </c>
       <c r="W361" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
     </row>
     <row r="362" spans="1:24">
       <c r="A362" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="B362" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="E362" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="T362">
         <v>1</v>
       </c>
       <c r="W362" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
     </row>
     <row r="363" spans="1:24">
       <c r="A363" t="s">
-        <v>907</v>
+        <v>922</v>
       </c>
       <c r="E363" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="F363" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="H363">
         <v>6</v>
@@ -10265,24 +10289,24 @@
         <v>8</v>
       </c>
       <c r="W363" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="X363" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
     </row>
     <row r="364" spans="1:24">
       <c r="A364" t="s">
-        <v>907</v>
+        <v>922</v>
       </c>
       <c r="C364">
         <v>1</v>
       </c>
       <c r="E364" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="F364" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="H364">
         <v>6</v>
@@ -10291,49 +10315,49 @@
         <v>9</v>
       </c>
       <c r="W364" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="X364" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
     </row>
     <row r="365" spans="1:24">
       <c r="A365" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="B365" t="s">
+        <v>922</v>
+      </c>
+      <c r="E365" t="s">
+        <v>899</v>
+      </c>
+      <c r="W365" t="s">
         <v>907</v>
-      </c>
-      <c r="E365" t="s">
-        <v>908</v>
-      </c>
-      <c r="W365" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="366" spans="1:24">
       <c r="A366" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="B366" t="s">
-        <v>907</v>
+        <v>922</v>
       </c>
       <c r="E366" t="s">
+        <v>899</v>
+      </c>
+      <c r="W366" t="s">
         <v>908</v>
-      </c>
-      <c r="W366" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="367" spans="1:24">
       <c r="A367" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="B367" t="s">
-        <v>907</v>
+        <v>922</v>
       </c>
       <c r="E367" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="O367" t="s">
         <v>59</v>
@@ -10345,32 +10369,32 @@
         <v>1</v>
       </c>
       <c r="W367" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
     </row>
     <row r="368" spans="1:24">
       <c r="A368" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="B368" t="s">
-        <v>907</v>
+        <v>922</v>
       </c>
       <c r="E368" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="W368" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="369" spans="1:24">
       <c r="A369" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="E369" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="F369" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="H369">
         <v>6</v>
@@ -10382,24 +10406,24 @@
         <v>2</v>
       </c>
       <c r="W369" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="X369" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
     </row>
     <row r="370" spans="1:24">
       <c r="A370" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="C370">
         <v>1</v>
       </c>
       <c r="E370" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="F370" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="H370">
         <v>6</v>
@@ -10411,75 +10435,75 @@
         <v>2</v>
       </c>
       <c r="W370" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="X370" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
     </row>
     <row r="371" spans="1:24">
       <c r="A371" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="B371" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="E371" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="R371">
         <v>2</v>
       </c>
       <c r="W371" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
     </row>
     <row r="372" spans="1:24">
       <c r="A372" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="B372" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="E372" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="R372">
         <v>2</v>
       </c>
       <c r="W372" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
     </row>
     <row r="373" spans="1:24">
       <c r="A373" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="B373" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="E373" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="R373">
         <v>2</v>
       </c>
       <c r="W373" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
     </row>
     <row r="374" spans="1:24">
       <c r="A374" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="B374" t="s">
+        <v>911</v>
+      </c>
+      <c r="E374" t="s">
+        <v>899</v>
+      </c>
+      <c r="W374" t="s">
         <v>920</v>
-      </c>
-      <c r="E374" t="s">
-        <v>908</v>
-      </c>
-      <c r="W374" t="s">
-        <v>929</v>
       </c>
     </row>
   </sheetData>
@@ -10519,18 +10543,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10642,15 +10666,15 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B19" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -10671,10 +10695,10 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/masterminds.xlsx
+++ b/data/masterminds.xlsx
@@ -3156,8 +3156,8 @@
   <dimension ref="A1:Y374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F347" sqref="F347"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/masterminds.xlsx
+++ b/data/masterminds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="953">
   <si>
     <t>Name</t>
   </si>
@@ -2808,6 +2808,72 @@
   </si>
   <si>
     <t>A.I.M., Hydra Offshoot</t>
+  </si>
+  <si>
+    <t>Magus</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>Universal Church of Truth</t>
+  </si>
+  <si>
+    <t>Seize Cosmic Power</t>
+  </si>
+  <si>
+    <t>shards</t>
+  </si>
+  <si>
+    <t>Dark Side of Adam Warlock</t>
+  </si>
+  <si>
+    <t>Resurrected as the Child Magus</t>
+  </si>
+  <si>
+    <t>Conjured Shade of Thanos</t>
+  </si>
+  <si>
+    <t>The Grandmaster</t>
+  </si>
+  <si>
+    <t>Elders of the Universe</t>
+  </si>
+  <si>
+    <t>Deal with Death</t>
+  </si>
+  <si>
+    <t>Galactic Marathon</t>
+  </si>
+  <si>
+    <t>Cheat against Thanos</t>
+  </si>
+  <si>
+    <t>Match Offenders vs. Defenders</t>
+  </si>
+  <si>
+    <t>The Beyonder</t>
+  </si>
+  <si>
+    <t>From Beyond</t>
+  </si>
+  <si>
+    <t>cosmic threat for cost &gt;4</t>
+  </si>
+  <si>
+    <t>cosmic threat for cost &gt;5</t>
+  </si>
+  <si>
+    <t>Dimensional Collapse</t>
+  </si>
+  <si>
+    <t>Playthings of a Petulant God</t>
+  </si>
+  <si>
+    <t>Create the Secret Wars</t>
+  </si>
+  <si>
+    <t>Pull Earth into the Beyond</t>
   </si>
 </sst>
 </file>
@@ -3153,11 +3219,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y374"/>
+  <dimension ref="A1:Y392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="1" topLeftCell="A360" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U393" sqref="U393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10386,7 +10452,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="369" spans="1:24">
+    <row r="369" spans="1:25">
       <c r="A369" t="s">
         <v>911</v>
       </c>
@@ -10412,7 +10478,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="370" spans="1:24">
+    <row r="370" spans="1:25">
       <c r="A370" t="s">
         <v>911</v>
       </c>
@@ -10441,7 +10507,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="371" spans="1:24">
+    <row r="371" spans="1:25">
       <c r="A371" t="s">
         <v>915</v>
       </c>
@@ -10458,7 +10524,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="372" spans="1:24">
+    <row r="372" spans="1:25">
       <c r="A372" t="s">
         <v>916</v>
       </c>
@@ -10475,7 +10541,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="373" spans="1:24">
+    <row r="373" spans="1:25">
       <c r="A373" t="s">
         <v>917</v>
       </c>
@@ -10492,7 +10558,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="374" spans="1:24">
+    <row r="374" spans="1:25">
       <c r="A374" t="s">
         <v>918</v>
       </c>
@@ -10504,6 +10570,327 @@
       </c>
       <c r="W374" t="s">
         <v>920</v>
+      </c>
+    </row>
+    <row r="375" spans="1:25">
+      <c r="A375" t="s">
+        <v>931</v>
+      </c>
+      <c r="E375" t="s">
+        <v>932</v>
+      </c>
+      <c r="G375" t="s">
+        <v>933</v>
+      </c>
+      <c r="H375">
+        <v>6</v>
+      </c>
+      <c r="I375">
+        <v>9</v>
+      </c>
+      <c r="Q375">
+        <v>2</v>
+      </c>
+      <c r="T375">
+        <v>1</v>
+      </c>
+      <c r="Y375" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="376" spans="1:25">
+      <c r="A376" t="s">
+        <v>931</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="E376" t="s">
+        <v>932</v>
+      </c>
+      <c r="G376" t="s">
+        <v>933</v>
+      </c>
+      <c r="H376">
+        <v>6</v>
+      </c>
+      <c r="I376">
+        <v>11</v>
+      </c>
+      <c r="Q376">
+        <v>2</v>
+      </c>
+      <c r="T376">
+        <v>2</v>
+      </c>
+      <c r="Y376" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="377" spans="1:25">
+      <c r="A377" t="s">
+        <v>934</v>
+      </c>
+      <c r="B377" t="s">
+        <v>931</v>
+      </c>
+      <c r="E377" t="s">
+        <v>932</v>
+      </c>
+      <c r="Y377" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="378" spans="1:25">
+      <c r="A378" t="s">
+        <v>936</v>
+      </c>
+      <c r="B378" t="s">
+        <v>931</v>
+      </c>
+      <c r="E378" t="s">
+        <v>932</v>
+      </c>
+      <c r="K378">
+        <v>1</v>
+      </c>
+      <c r="Y378" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="379" spans="1:25">
+      <c r="A379" t="s">
+        <v>937</v>
+      </c>
+      <c r="B379" t="s">
+        <v>931</v>
+      </c>
+      <c r="E379" t="s">
+        <v>932</v>
+      </c>
+      <c r="Y379" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="380" spans="1:25">
+      <c r="A380" t="s">
+        <v>938</v>
+      </c>
+      <c r="B380" t="s">
+        <v>931</v>
+      </c>
+      <c r="E380" t="s">
+        <v>932</v>
+      </c>
+      <c r="U380">
+        <v>1</v>
+      </c>
+      <c r="Y380" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="381" spans="1:25">
+      <c r="A381" t="s">
+        <v>939</v>
+      </c>
+      <c r="E381" t="s">
+        <v>932</v>
+      </c>
+      <c r="F381" t="s">
+        <v>940</v>
+      </c>
+      <c r="H381">
+        <v>6</v>
+      </c>
+      <c r="I381">
+        <v>10</v>
+      </c>
+      <c r="Q381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:25">
+      <c r="A382" t="s">
+        <v>939</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="E382" t="s">
+        <v>932</v>
+      </c>
+      <c r="F382" t="s">
+        <v>940</v>
+      </c>
+      <c r="H382">
+        <v>6</v>
+      </c>
+      <c r="I382">
+        <v>11</v>
+      </c>
+      <c r="Q382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:25">
+      <c r="A383" t="s">
+        <v>941</v>
+      </c>
+      <c r="B383" t="s">
+        <v>939</v>
+      </c>
+      <c r="E383" t="s">
+        <v>932</v>
+      </c>
+      <c r="K383">
+        <v>1</v>
+      </c>
+      <c r="R383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:25">
+      <c r="A384" t="s">
+        <v>942</v>
+      </c>
+      <c r="B384" t="s">
+        <v>939</v>
+      </c>
+      <c r="E384" t="s">
+        <v>932</v>
+      </c>
+      <c r="M384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:24">
+      <c r="A385" t="s">
+        <v>943</v>
+      </c>
+      <c r="B385" t="s">
+        <v>939</v>
+      </c>
+      <c r="E385" t="s">
+        <v>932</v>
+      </c>
+      <c r="J385">
+        <v>1</v>
+      </c>
+      <c r="S385">
+        <v>1</v>
+      </c>
+      <c r="U385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:24">
+      <c r="A386" t="s">
+        <v>944</v>
+      </c>
+      <c r="B386" t="s">
+        <v>939</v>
+      </c>
+      <c r="E386" t="s">
+        <v>932</v>
+      </c>
+      <c r="L386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:24">
+      <c r="A387" t="s">
+        <v>945</v>
+      </c>
+      <c r="E387" t="s">
+        <v>932</v>
+      </c>
+      <c r="F387" t="s">
+        <v>946</v>
+      </c>
+      <c r="H387">
+        <v>7</v>
+      </c>
+      <c r="I387">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="388" spans="1:24">
+      <c r="A388" t="s">
+        <v>945</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="E388" t="s">
+        <v>932</v>
+      </c>
+      <c r="F388" t="s">
+        <v>946</v>
+      </c>
+      <c r="H388">
+        <v>7</v>
+      </c>
+      <c r="I388">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="389" spans="1:24">
+      <c r="A389" t="s">
+        <v>950</v>
+      </c>
+      <c r="B389" t="s">
+        <v>945</v>
+      </c>
+      <c r="E389" t="s">
+        <v>932</v>
+      </c>
+      <c r="R389">
+        <v>1</v>
+      </c>
+      <c r="X389" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="390" spans="1:24">
+      <c r="A390" t="s">
+        <v>949</v>
+      </c>
+      <c r="B390" t="s">
+        <v>945</v>
+      </c>
+      <c r="E390" t="s">
+        <v>932</v>
+      </c>
+      <c r="X390" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="391" spans="1:24">
+      <c r="A391" t="s">
+        <v>951</v>
+      </c>
+      <c r="B391" t="s">
+        <v>945</v>
+      </c>
+      <c r="E391" t="s">
+        <v>932</v>
+      </c>
+      <c r="Q391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:24">
+      <c r="A392" t="s">
+        <v>952</v>
+      </c>
+      <c r="B392" t="s">
+        <v>945</v>
+      </c>
+      <c r="E392" t="s">
+        <v>932</v>
+      </c>
+      <c r="U392">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10516,7 +10903,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/masterminds.xlsx
+++ b/data/masterminds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="1088">
   <si>
     <t>Name</t>
   </si>
@@ -3627,10 +3627,10 @@
   <dimension ref="A1:AA392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y277" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B250" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA313" sqref="AA313"/>
+      <selection pane="bottomRight" activeCell="B276" sqref="B276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8467,7 +8467,7 @@
         <v>1017</v>
       </c>
       <c r="AA188" t="s">
-        <v>1021</v>
+        <v>963</v>
       </c>
     </row>
     <row r="189" spans="1:27">
@@ -9755,6 +9755,9 @@
       <c r="A240" t="s">
         <v>371</v>
       </c>
+      <c r="B240" t="s">
+        <v>922</v>
+      </c>
       <c r="D240">
         <v>1</v>
       </c>
@@ -9899,6 +9902,9 @@
       <c r="A246" t="s">
         <v>383</v>
       </c>
+      <c r="B246" t="s">
+        <v>211</v>
+      </c>
       <c r="D246">
         <v>1</v>
       </c>
@@ -10061,6 +10067,9 @@
       <c r="A252" t="s">
         <v>404</v>
       </c>
+      <c r="B252" t="s">
+        <v>213</v>
+      </c>
       <c r="D252">
         <v>1</v>
       </c>
@@ -10217,6 +10226,9 @@
       <c r="A258" t="s">
         <v>485</v>
       </c>
+      <c r="B258" t="s">
+        <v>216</v>
+      </c>
       <c r="D258">
         <v>1</v>
       </c>
@@ -10502,6 +10514,9 @@
       <c r="A270" t="s">
         <v>668</v>
       </c>
+      <c r="B270" t="s">
+        <v>220</v>
+      </c>
       <c r="D270">
         <v>1</v>
       </c>
@@ -10645,6 +10660,9 @@
     <row r="276" spans="1:27">
       <c r="A276" t="s">
         <v>679</v>
+      </c>
+      <c r="B276" t="s">
+        <v>223</v>
       </c>
       <c r="D276">
         <v>1</v>

--- a/data/masterminds.xlsx
+++ b/data/masterminds.xlsx
@@ -3065,9 +3065,6 @@
     <t>eemma,png</t>
   </si>
   <si>
-    <t>fearitself,png</t>
-  </si>
-  <si>
     <t>gotg,jpg</t>
   </si>
   <si>
@@ -3279,6 +3276,9 @@
   </si>
   <si>
     <t>evult,png</t>
+  </si>
+  <si>
+    <t>fearitself,jpg</t>
   </si>
 </sst>
 </file>
@@ -3627,10 +3627,10 @@
   <dimension ref="A1:AA392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B250" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W199" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B276" sqref="B276"/>
+      <selection pane="bottomRight" activeCell="Z222" sqref="Z222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3923,7 +3923,7 @@
         <v>243</v>
       </c>
       <c r="Z7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AA7" t="s">
         <v>979</v>
@@ -3958,7 +3958,7 @@
         <v>244</v>
       </c>
       <c r="Z8" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AA8">
         <v>1</v>
@@ -3987,7 +3987,7 @@
         <v>247</v>
       </c>
       <c r="Z9" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA9" t="s">
         <v>961</v>
@@ -4013,7 +4013,7 @@
         <v>250</v>
       </c>
       <c r="Z10" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA10" t="s">
         <v>959</v>
@@ -4039,10 +4039,10 @@
         <v>252</v>
       </c>
       <c r="Z11" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA11" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -4065,7 +4065,7 @@
         <v>254</v>
       </c>
       <c r="Z12" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA12" t="s">
         <v>960</v>
@@ -4629,10 +4629,10 @@
         <v>55</v>
       </c>
       <c r="Z33" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AA33" t="s">
         <v>1026</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -4652,7 +4652,7 @@
         <v>295</v>
       </c>
       <c r="Z34" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AA34" t="s">
         <v>959</v>
@@ -4675,7 +4675,7 @@
         <v>296</v>
       </c>
       <c r="Z35" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AA35" t="s">
         <v>960</v>
@@ -4698,7 +4698,7 @@
         <v>297</v>
       </c>
       <c r="Z36" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AA36" t="s">
         <v>955</v>
@@ -4724,7 +4724,7 @@
         <v>298</v>
       </c>
       <c r="Z37" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AA37" t="s">
         <v>961</v>
@@ -4756,7 +4756,7 @@
         <v>61</v>
       </c>
       <c r="Z38" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AA38" t="s">
         <v>1003</v>
@@ -4776,7 +4776,7 @@
         <v>303</v>
       </c>
       <c r="Z39" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AA39" t="s">
         <v>1002</v>
@@ -4802,7 +4802,7 @@
         <v>304</v>
       </c>
       <c r="Z40" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AA40" t="s">
         <v>1000</v>
@@ -4831,7 +4831,7 @@
         <v>305</v>
       </c>
       <c r="Z41" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AA41" t="s">
         <v>1001</v>
@@ -4854,7 +4854,7 @@
         <v>306</v>
       </c>
       <c r="Z42" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AA42" t="s">
         <v>995</v>
@@ -4886,7 +4886,7 @@
         <v>307</v>
       </c>
       <c r="Z43" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AA43" t="s">
         <v>973</v>
@@ -4921,7 +4921,7 @@
         <v>307</v>
       </c>
       <c r="Z44" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AA44">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         <v>313</v>
       </c>
       <c r="Z45" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA45" t="s">
         <v>957</v>
@@ -4961,7 +4961,7 @@
         <v>314</v>
       </c>
       <c r="Z46" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA46" t="s">
         <v>981</v>
@@ -4981,7 +4981,7 @@
         <v>315</v>
       </c>
       <c r="Z47" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA47" t="s">
         <v>955</v>
@@ -5004,7 +5004,7 @@
         <v>316</v>
       </c>
       <c r="Z48" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA48" t="s">
         <v>958</v>
@@ -5042,7 +5042,7 @@
         <v>67</v>
       </c>
       <c r="Z49" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AA49" t="s">
         <v>975</v>
@@ -5077,7 +5077,7 @@
         <v>67</v>
       </c>
       <c r="Z50" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="AA50">
         <v>1</v>
@@ -5103,7 +5103,7 @@
         <v>325</v>
       </c>
       <c r="Z51" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA51" t="s">
         <v>991</v>
@@ -5126,7 +5126,7 @@
         <v>326</v>
       </c>
       <c r="Z52" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA52" t="s">
         <v>976</v>
@@ -5152,7 +5152,7 @@
         <v>327</v>
       </c>
       <c r="Z53" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA53" t="s">
         <v>990</v>
@@ -5175,7 +5175,7 @@
         <v>328</v>
       </c>
       <c r="Z54" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA54" t="s">
         <v>989</v>
@@ -5452,10 +5452,10 @@
         <v>362</v>
       </c>
       <c r="Z65" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AA65" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="66" spans="1:27">
@@ -5472,10 +5472,10 @@
         <v>367</v>
       </c>
       <c r="Z66" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AA66" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="67" spans="1:27">
@@ -5495,10 +5495,10 @@
         <v>368</v>
       </c>
       <c r="Z67" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AA67" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="68" spans="1:27">
@@ -5515,10 +5515,10 @@
         <v>369</v>
       </c>
       <c r="Z68" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AA68" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="69" spans="1:27">
@@ -5538,10 +5538,10 @@
         <v>370</v>
       </c>
       <c r="Z69" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AA69" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="70" spans="1:27">
@@ -5567,7 +5567,7 @@
         <v>85</v>
       </c>
       <c r="Z70" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA70" t="s">
         <v>969</v>
@@ -5587,7 +5587,7 @@
         <v>400</v>
       </c>
       <c r="Z71" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA71" t="s">
         <v>984</v>
@@ -5616,7 +5616,7 @@
         <v>401</v>
       </c>
       <c r="Z72" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA72" t="s">
         <v>982</v>
@@ -5642,7 +5642,7 @@
         <v>402</v>
       </c>
       <c r="Z73" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA73" t="s">
         <v>983</v>
@@ -5665,7 +5665,7 @@
         <v>403</v>
       </c>
       <c r="Z74" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA74" t="s">
         <v>1010</v>
@@ -5697,7 +5697,7 @@
         <v>88</v>
       </c>
       <c r="Z75" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA75" t="s">
         <v>970</v>
@@ -5720,7 +5720,7 @@
         <v>419</v>
       </c>
       <c r="Z76" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA76" t="s">
         <v>985</v>
@@ -5743,7 +5743,7 @@
         <v>420</v>
       </c>
       <c r="Z77" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA77" t="s">
         <v>989</v>
@@ -5766,7 +5766,7 @@
         <v>421</v>
       </c>
       <c r="Z78" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA78" t="s">
         <v>976</v>
@@ -5789,7 +5789,7 @@
         <v>422</v>
       </c>
       <c r="Z79" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA79" t="s">
         <v>986</v>
@@ -5827,7 +5827,7 @@
         <v>1009</v>
       </c>
       <c r="AA80" t="s">
-        <v>981</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="81" spans="1:27">
@@ -5847,7 +5847,7 @@
         <v>1009</v>
       </c>
       <c r="AA81" t="s">
-        <v>980</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="82" spans="1:27">
@@ -5870,7 +5870,7 @@
         <v>1009</v>
       </c>
       <c r="AA82" t="s">
-        <v>979</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="83" spans="1:27">
@@ -5893,7 +5893,7 @@
         <v>1009</v>
       </c>
       <c r="AA83" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
     </row>
     <row r="84" spans="1:27">
@@ -5916,7 +5916,7 @@
         <v>1009</v>
       </c>
       <c r="AA84" t="s">
-        <v>974</v>
+        <v>960</v>
       </c>
     </row>
     <row r="85" spans="1:27">
@@ -6175,7 +6175,7 @@
         <v>104</v>
       </c>
       <c r="Z95" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AA95" t="s">
         <v>969</v>
@@ -6198,7 +6198,7 @@
         <v>446</v>
       </c>
       <c r="Z96" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA96" t="s">
         <v>973</v>
@@ -6244,7 +6244,7 @@
         <v>452</v>
       </c>
       <c r="Z98" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AA98" t="s">
         <v>970</v>
@@ -6273,7 +6273,7 @@
         <v>305</v>
       </c>
       <c r="Z99" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AA99" t="s">
         <v>971</v>
@@ -6825,7 +6825,7 @@
         <v>121</v>
       </c>
       <c r="Z120" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AA120" t="s">
         <v>981</v>
@@ -6866,7 +6866,7 @@
         <v>500</v>
       </c>
       <c r="Z121" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AA121">
         <v>1</v>
@@ -6889,10 +6889,10 @@
         <v>505</v>
       </c>
       <c r="Z122" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA122" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="123" spans="1:27">
@@ -6915,7 +6915,7 @@
         <v>506</v>
       </c>
       <c r="Z123" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA123" t="s">
         <v>982</v>
@@ -6938,7 +6938,7 @@
         <v>474</v>
       </c>
       <c r="Z124" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA124" t="s">
         <v>1010</v>
@@ -6961,10 +6961,10 @@
         <v>507</v>
       </c>
       <c r="Z125" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA125" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="126" spans="1:27">
@@ -6996,10 +6996,10 @@
         <v>125</v>
       </c>
       <c r="Z126" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AA126" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="127" spans="1:27">
@@ -7016,10 +7016,10 @@
         <v>512</v>
       </c>
       <c r="Z127" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AA127" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="128" spans="1:27">
@@ -7036,10 +7036,10 @@
         <v>513</v>
       </c>
       <c r="Z128" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AA128" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="129" spans="1:27">
@@ -7059,10 +7059,10 @@
         <v>514</v>
       </c>
       <c r="Z129" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AA129" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="130" spans="1:27">
@@ -7079,10 +7079,10 @@
         <v>515</v>
       </c>
       <c r="Z130" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AA130" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="131" spans="1:27">
@@ -7220,10 +7220,10 @@
         <v>132</v>
       </c>
       <c r="Z136" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AA136" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="137" spans="1:27">
@@ -7240,7 +7240,7 @@
         <v>528</v>
       </c>
       <c r="Z137" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AA137" t="s">
         <v>1010</v>
@@ -7260,7 +7260,7 @@
         <v>529</v>
       </c>
       <c r="Z138" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AA138" t="s">
         <v>983</v>
@@ -7283,10 +7283,10 @@
         <v>530</v>
       </c>
       <c r="Z139" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AA139" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="140" spans="1:27">
@@ -7303,7 +7303,7 @@
         <v>531</v>
       </c>
       <c r="Z140" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AA140" t="s">
         <v>982</v>
@@ -7335,7 +7335,7 @@
         <v>136</v>
       </c>
       <c r="Z141" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA141" t="s">
         <v>974</v>
@@ -7355,7 +7355,7 @@
         <v>544</v>
       </c>
       <c r="Z142" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA142" t="s">
         <v>981</v>
@@ -7375,7 +7375,7 @@
         <v>545</v>
       </c>
       <c r="Z143" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA143" t="s">
         <v>980</v>
@@ -7395,7 +7395,7 @@
         <v>546</v>
       </c>
       <c r="Z144" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA144" t="s">
         <v>979</v>
@@ -7415,7 +7415,7 @@
         <v>547</v>
       </c>
       <c r="Z145" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA145" t="s">
         <v>975</v>
@@ -7447,7 +7447,7 @@
         <v>140</v>
       </c>
       <c r="Z146" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AA146" t="s">
         <v>974</v>
@@ -7482,7 +7482,7 @@
         <v>140</v>
       </c>
       <c r="Z147" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AA147">
         <v>1</v>
@@ -7514,7 +7514,7 @@
         <v>563</v>
       </c>
       <c r="Z148" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA148" t="s">
         <v>983</v>
@@ -7534,7 +7534,7 @@
         <v>566</v>
       </c>
       <c r="Z149" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA149" t="s">
         <v>984</v>
@@ -7557,7 +7557,7 @@
         <v>567</v>
       </c>
       <c r="Z150" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA150" t="s">
         <v>986</v>
@@ -7586,7 +7586,7 @@
         <v>568</v>
       </c>
       <c r="Z151" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA151" t="s">
         <v>985</v>
@@ -7839,7 +7839,7 @@
         <v>150</v>
       </c>
       <c r="Z162" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AA162" t="s">
         <v>980</v>
@@ -7874,7 +7874,7 @@
         <v>605</v>
       </c>
       <c r="Z163" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="AA163">
         <v>1</v>
@@ -7897,7 +7897,7 @@
         <v>610</v>
       </c>
       <c r="Z164" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA164" t="s">
         <v>1011</v>
@@ -7920,7 +7920,7 @@
         <v>611</v>
       </c>
       <c r="Z165" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA165" t="s">
         <v>997</v>
@@ -7940,7 +7940,7 @@
         <v>612</v>
       </c>
       <c r="Z166" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA166" t="s">
         <v>998</v>
@@ -7960,7 +7960,7 @@
         <v>613</v>
       </c>
       <c r="Z167" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA167" t="s">
         <v>999</v>
@@ -7986,7 +7986,7 @@
         <v>614</v>
       </c>
       <c r="Z168" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA168" t="s">
         <v>971</v>
@@ -8006,7 +8006,7 @@
         <v>619</v>
       </c>
       <c r="Z169" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA169" t="s">
         <v>1011</v>
@@ -8026,7 +8026,7 @@
         <v>620</v>
       </c>
       <c r="Z170" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA170" t="s">
         <v>990</v>
@@ -8046,7 +8046,7 @@
         <v>621</v>
       </c>
       <c r="Z171" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA171" t="s">
         <v>991</v>
@@ -8066,7 +8066,7 @@
         <v>622</v>
       </c>
       <c r="Z172" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA172" t="s">
         <v>998</v>
@@ -8101,10 +8101,10 @@
         <v>155</v>
       </c>
       <c r="Z173" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA173" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="174" spans="1:27">
@@ -8130,7 +8130,7 @@
         <v>628</v>
       </c>
       <c r="Z174" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA174" t="s">
         <v>993</v>
@@ -8156,7 +8156,7 @@
         <v>630</v>
       </c>
       <c r="Z175" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA175" t="s">
         <v>999</v>
@@ -8179,7 +8179,7 @@
         <v>631</v>
       </c>
       <c r="Z176" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA176" t="s">
         <v>992</v>
@@ -8202,7 +8202,7 @@
         <v>632</v>
       </c>
       <c r="Z177" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA177" t="s">
         <v>997</v>
@@ -8355,10 +8355,10 @@
         <v>166</v>
       </c>
       <c r="Z183" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AA183" t="s">
-        <v>1018</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="184" spans="1:27">
@@ -8375,10 +8375,10 @@
         <v>645</v>
       </c>
       <c r="Z184" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AA184" t="s">
-        <v>1020</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="185" spans="1:27">
@@ -8395,10 +8395,10 @@
         <v>646</v>
       </c>
       <c r="Z185" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AA185" t="s">
-        <v>1019</v>
+        <v>967</v>
       </c>
     </row>
     <row r="186" spans="1:27">
@@ -8415,7 +8415,7 @@
         <v>647</v>
       </c>
       <c r="Z186" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AA186" t="s">
         <v>981</v>
@@ -8435,7 +8435,7 @@
         <v>648</v>
       </c>
       <c r="Z187" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AA187" t="s">
         <v>980</v>
@@ -8464,7 +8464,7 @@
         <v>169</v>
       </c>
       <c r="Z188" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AA188" t="s">
         <v>963</v>
@@ -8484,7 +8484,7 @@
         <v>654</v>
       </c>
       <c r="Z189" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AA189" t="s">
         <v>959</v>
@@ -8507,7 +8507,7 @@
         <v>655</v>
       </c>
       <c r="Z190" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AA190" t="s">
         <v>955</v>
@@ -8527,7 +8527,7 @@
         <v>656</v>
       </c>
       <c r="Z191" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AA191" t="s">
         <v>958</v>
@@ -8547,7 +8547,7 @@
         <v>657</v>
       </c>
       <c r="Z192" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AA192" t="s">
         <v>957</v>
@@ -8585,7 +8585,7 @@
         <v>173</v>
       </c>
       <c r="Z193" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AA193" t="s">
         <v>1004</v>
@@ -8605,7 +8605,7 @@
         <v>662</v>
       </c>
       <c r="Z194" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AA194" t="s">
         <v>1008</v>
@@ -8625,7 +8625,7 @@
         <v>664</v>
       </c>
       <c r="Z195" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AA195" t="s">
         <v>1006</v>
@@ -8654,7 +8654,7 @@
         <v>665</v>
       </c>
       <c r="Z196" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AA196" t="s">
         <v>1005</v>
@@ -8674,7 +8674,7 @@
         <v>667</v>
       </c>
       <c r="Z197" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AA197" t="s">
         <v>1007</v>
@@ -8706,10 +8706,10 @@
         <v>699</v>
       </c>
       <c r="Z198" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AA198" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="199" spans="1:27">
@@ -8729,10 +8729,10 @@
         <v>704</v>
       </c>
       <c r="Z199" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AA199" t="s">
         <v>1042</v>
-      </c>
-      <c r="AA199" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="200" spans="1:27">
@@ -8749,10 +8749,10 @@
         <v>705</v>
       </c>
       <c r="Z200" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AA200" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="201" spans="1:27">
@@ -8769,10 +8769,10 @@
         <v>706</v>
       </c>
       <c r="Z201" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AA201" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="202" spans="1:27">
@@ -8789,10 +8789,10 @@
         <v>707</v>
       </c>
       <c r="Z202" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AA202" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="203" spans="1:27">
@@ -8821,10 +8821,10 @@
         <v>712</v>
       </c>
       <c r="Z203" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AA203" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="204" spans="1:27">
@@ -8844,10 +8844,10 @@
         <v>713</v>
       </c>
       <c r="Z204" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AA204" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="205" spans="1:27">
@@ -8870,10 +8870,10 @@
         <v>714</v>
       </c>
       <c r="Z205" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AA205" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="206" spans="1:27">
@@ -8896,10 +8896,10 @@
         <v>715</v>
       </c>
       <c r="Z206" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AA206" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="207" spans="1:27">
@@ -8919,10 +8919,10 @@
         <v>716</v>
       </c>
       <c r="Z207" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AA207" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="208" spans="1:27">
@@ -8954,7 +8954,7 @@
         <v>183</v>
       </c>
       <c r="Z208" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AA208" t="s">
         <v>1007</v>
@@ -8974,7 +8974,7 @@
         <v>553</v>
       </c>
       <c r="Z209" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AA209" t="s">
         <v>1008</v>
@@ -8994,7 +8994,7 @@
         <v>554</v>
       </c>
       <c r="Z210" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AA210" t="s">
         <v>1005</v>
@@ -9020,7 +9020,7 @@
         <v>555</v>
       </c>
       <c r="Z211" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AA211" t="s">
         <v>962</v>
@@ -9043,7 +9043,7 @@
         <v>557</v>
       </c>
       <c r="Z212" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AA212" t="s">
         <v>1006</v>
@@ -9069,7 +9069,7 @@
         <v>186</v>
       </c>
       <c r="Z213" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AA213" t="s">
         <v>964</v>
@@ -9092,7 +9092,7 @@
         <v>338</v>
       </c>
       <c r="Z214" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AA214" t="s">
         <v>966</v>
@@ -9115,7 +9115,7 @@
         <v>340</v>
       </c>
       <c r="Z215" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AA215" t="s">
         <v>965</v>
@@ -9135,7 +9135,7 @@
         <v>342</v>
       </c>
       <c r="Z216" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AA216" t="s">
         <v>963</v>
@@ -9155,7 +9155,7 @@
         <v>344</v>
       </c>
       <c r="Z217" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AA217" t="s">
         <v>967</v>
@@ -9184,7 +9184,7 @@
         <v>191</v>
       </c>
       <c r="Z218" t="s">
-        <v>1016</v>
+        <v>1087</v>
       </c>
       <c r="AA218" t="s">
         <v>999</v>
@@ -9207,7 +9207,7 @@
         <v>695</v>
       </c>
       <c r="Z219" t="s">
-        <v>1016</v>
+        <v>1087</v>
       </c>
       <c r="AA219" t="s">
         <v>993</v>
@@ -9227,7 +9227,7 @@
         <v>696</v>
       </c>
       <c r="Z220" t="s">
-        <v>1016</v>
+        <v>1087</v>
       </c>
       <c r="AA220" t="s">
         <v>994</v>
@@ -9250,7 +9250,7 @@
         <v>697</v>
       </c>
       <c r="Z221" t="s">
-        <v>1016</v>
+        <v>1087</v>
       </c>
       <c r="AA221" t="s">
         <v>997</v>
@@ -9276,7 +9276,7 @@
         <v>698</v>
       </c>
       <c r="Z222" t="s">
-        <v>1016</v>
+        <v>1087</v>
       </c>
       <c r="AA222" t="s">
         <v>992</v>
@@ -9302,7 +9302,7 @@
         <v>193</v>
       </c>
       <c r="Z223" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AA223" t="s">
         <v>1003</v>
@@ -9322,7 +9322,7 @@
         <v>536</v>
       </c>
       <c r="Z224" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AA224" t="s">
         <v>1002</v>
@@ -9342,7 +9342,7 @@
         <v>537</v>
       </c>
       <c r="Z225" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AA225" t="s">
         <v>1004</v>
@@ -9362,7 +9362,7 @@
         <v>538</v>
       </c>
       <c r="Z226" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AA226" t="s">
         <v>1001</v>
@@ -9388,7 +9388,7 @@
         <v>539</v>
       </c>
       <c r="Z227" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AA227" t="s">
         <v>1000</v>
@@ -9420,10 +9420,10 @@
         <v>198</v>
       </c>
       <c r="Z228" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AA228" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="229" spans="1:27">
@@ -9449,10 +9449,10 @@
         <v>584</v>
       </c>
       <c r="Z229" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AA229" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="230" spans="1:27">
@@ -9472,10 +9472,10 @@
         <v>585</v>
       </c>
       <c r="Z230" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AA230" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="231" spans="1:27">
@@ -9492,10 +9492,10 @@
         <v>586</v>
       </c>
       <c r="Z231" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AA231" t="s">
         <v>1046</v>
-      </c>
-      <c r="AA231" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="232" spans="1:27">
@@ -9512,10 +9512,10 @@
         <v>587</v>
       </c>
       <c r="Z232" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AA232" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="233" spans="1:27">
@@ -9556,7 +9556,7 @@
         <v>207</v>
       </c>
       <c r="Z233" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AA233" t="s">
         <v>1004</v>
@@ -9603,7 +9603,7 @@
         <v>353</v>
       </c>
       <c r="Z234" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AA234">
         <v>1</v>
@@ -9626,7 +9626,7 @@
         <v>358</v>
       </c>
       <c r="Z235" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AA235" t="s">
         <v>1006</v>
@@ -9661,7 +9661,7 @@
         <v>359</v>
       </c>
       <c r="Z236" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AA236" t="s">
         <v>1005</v>
@@ -9684,7 +9684,7 @@
         <v>360</v>
       </c>
       <c r="Z237" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AA237" t="s">
         <v>1008</v>
@@ -9707,7 +9707,7 @@
         <v>361</v>
       </c>
       <c r="Z238" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AA238" t="s">
         <v>1007</v>
@@ -9745,10 +9745,10 @@
         <v>210</v>
       </c>
       <c r="Z239" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA239" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="240" spans="1:27">
@@ -9783,7 +9783,7 @@
         <v>225</v>
       </c>
       <c r="Z240" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA240" t="s">
         <v>983</v>
@@ -9803,7 +9803,7 @@
         <v>379</v>
       </c>
       <c r="Z241" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA241" t="s">
         <v>982</v>
@@ -9823,7 +9823,7 @@
         <v>380</v>
       </c>
       <c r="Z242" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA242" t="s">
         <v>1010</v>
@@ -9843,10 +9843,10 @@
         <v>381</v>
       </c>
       <c r="Z243" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA243" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="244" spans="1:27">
@@ -9863,10 +9863,10 @@
         <v>382</v>
       </c>
       <c r="Z244" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA244" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="245" spans="1:27">
@@ -9892,7 +9892,7 @@
         <v>385</v>
       </c>
       <c r="Z245" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AA245" t="s">
         <v>998</v>
@@ -9924,7 +9924,7 @@
         <v>386</v>
       </c>
       <c r="Z246" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AA246" t="s">
         <v>994</v>
@@ -9953,7 +9953,7 @@
         <v>392</v>
       </c>
       <c r="Z247" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AA247" t="s">
         <v>992</v>
@@ -9979,7 +9979,7 @@
         <v>394</v>
       </c>
       <c r="Z248" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AA248" t="s">
         <v>993</v>
@@ -10005,7 +10005,7 @@
         <v>393</v>
       </c>
       <c r="Z249" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AA249" t="s">
         <v>997</v>
@@ -10025,7 +10025,7 @@
         <v>395</v>
       </c>
       <c r="Z250" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AA250" t="s">
         <v>999</v>
@@ -10057,7 +10057,7 @@
         <v>215</v>
       </c>
       <c r="Z251" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AA251" t="s">
         <v>1007</v>
@@ -10092,7 +10092,7 @@
         <v>225</v>
       </c>
       <c r="Z252" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AA252" t="s">
         <v>964</v>
@@ -10115,7 +10115,7 @@
         <v>411</v>
       </c>
       <c r="Z253" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AA253" t="s">
         <v>1008</v>
@@ -10138,7 +10138,7 @@
         <v>412</v>
       </c>
       <c r="Z254" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AA254" t="s">
         <v>965</v>
@@ -10161,7 +10161,7 @@
         <v>413</v>
       </c>
       <c r="Z255" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AA255" t="s">
         <v>963</v>
@@ -10184,7 +10184,7 @@
         <v>414</v>
       </c>
       <c r="Z256" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AA256" t="s">
         <v>962</v>
@@ -10216,10 +10216,10 @@
         <v>486</v>
       </c>
       <c r="Z257" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AA257" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="258" spans="1:27">
@@ -10248,10 +10248,10 @@
         <v>487</v>
       </c>
       <c r="Z258" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AA258" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="259" spans="1:27">
@@ -10268,10 +10268,10 @@
         <v>494</v>
       </c>
       <c r="Z259" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AA259" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="260" spans="1:27">
@@ -10288,10 +10288,10 @@
         <v>495</v>
       </c>
       <c r="Z260" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AA260" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="261" spans="1:27">
@@ -10308,10 +10308,10 @@
         <v>496</v>
       </c>
       <c r="Z261" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AA261" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="262" spans="1:27">
@@ -10328,10 +10328,10 @@
         <v>497</v>
       </c>
       <c r="Z262" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AA262" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="263" spans="1:27">
@@ -10354,7 +10354,7 @@
         <v>570</v>
       </c>
       <c r="Z263" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AA263" t="s">
         <v>984</v>
@@ -10383,7 +10383,7 @@
         <v>571</v>
       </c>
       <c r="Z264" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AA264">
         <v>1</v>
@@ -10403,7 +10403,7 @@
         <v>576</v>
       </c>
       <c r="Z265" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AA265" t="s">
         <v>989</v>
@@ -10423,7 +10423,7 @@
         <v>577</v>
       </c>
       <c r="Z266" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AA266" t="s">
         <v>986</v>
@@ -10446,7 +10446,7 @@
         <v>578</v>
       </c>
       <c r="Z267" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AA267" t="s">
         <v>983</v>
@@ -10469,7 +10469,7 @@
         <v>579</v>
       </c>
       <c r="Z268" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AA268" t="s">
         <v>985</v>
@@ -10504,7 +10504,7 @@
         <v>222</v>
       </c>
       <c r="Z269" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AA269" t="s">
         <v>971</v>
@@ -10530,7 +10530,7 @@
         <v>670</v>
       </c>
       <c r="Z270" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA270" t="s">
         <v>980</v>
@@ -10553,7 +10553,7 @@
         <v>675</v>
       </c>
       <c r="Z271" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA271" t="s">
         <v>979</v>
@@ -10573,7 +10573,7 @@
         <v>676</v>
       </c>
       <c r="Z272" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA272" t="s">
         <v>975</v>
@@ -10596,7 +10596,7 @@
         <v>677</v>
       </c>
       <c r="Z273" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA273" t="s">
         <v>973</v>
@@ -10619,7 +10619,7 @@
         <v>678</v>
       </c>
       <c r="Z274" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA274" t="s">
         <v>974</v>
@@ -10651,10 +10651,10 @@
         <v>680</v>
       </c>
       <c r="Z275" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA275" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="276" spans="1:27">
@@ -10689,10 +10689,10 @@
         <v>225</v>
       </c>
       <c r="Z276" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA276" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="277" spans="1:27">
@@ -10715,10 +10715,10 @@
         <v>687</v>
       </c>
       <c r="Z277" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA277" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="278" spans="1:27">
@@ -10735,10 +10735,10 @@
         <v>688</v>
       </c>
       <c r="Z278" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA278" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="279" spans="1:27">
@@ -10755,10 +10755,10 @@
         <v>689</v>
       </c>
       <c r="Z279" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA279" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="280" spans="1:27">
@@ -10775,10 +10775,10 @@
         <v>690</v>
       </c>
       <c r="Z280" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA280" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="281" spans="1:27">
@@ -10804,7 +10804,7 @@
         <v>725</v>
       </c>
       <c r="Z281" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA281" t="s">
         <v>973</v>
@@ -10836,7 +10836,7 @@
         <v>727</v>
       </c>
       <c r="Z282" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="AA282">
         <v>1</v>
@@ -10862,7 +10862,7 @@
         <v>729</v>
       </c>
       <c r="Z283" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA283" t="s">
         <v>980</v>
@@ -10882,7 +10882,7 @@
         <v>730</v>
       </c>
       <c r="Z284" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA284" t="s">
         <v>979</v>
@@ -10905,7 +10905,7 @@
         <v>731</v>
       </c>
       <c r="Z285" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA285" t="s">
         <v>975</v>
@@ -10925,7 +10925,7 @@
         <v>732</v>
       </c>
       <c r="Z286" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA286" t="s">
         <v>974</v>
@@ -10957,7 +10957,7 @@
         <v>742</v>
       </c>
       <c r="Z287" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AA287" t="s">
         <v>1000</v>
@@ -10992,7 +10992,7 @@
         <v>742</v>
       </c>
       <c r="Z288" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AA288">
         <v>1</v>
@@ -11012,7 +11012,7 @@
         <v>743</v>
       </c>
       <c r="Z289" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AA289" t="s">
         <v>1001</v>
@@ -11032,7 +11032,7 @@
         <v>744</v>
       </c>
       <c r="Z290" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AA290" t="s">
         <v>1004</v>
@@ -11052,7 +11052,7 @@
         <v>745</v>
       </c>
       <c r="Z291" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AA291" t="s">
         <v>1003</v>
@@ -11072,7 +11072,7 @@
         <v>746</v>
       </c>
       <c r="Z292" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AA292" t="s">
         <v>1002</v>
@@ -11263,7 +11263,7 @@
         <v>770</v>
       </c>
       <c r="Z299" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AA299" t="s">
         <v>1005</v>
@@ -11298,7 +11298,7 @@
         <v>769</v>
       </c>
       <c r="Z300" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="AA300">
         <v>1</v>
@@ -11318,7 +11318,7 @@
         <v>771</v>
       </c>
       <c r="Z301" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AA301" t="s">
         <v>1008</v>
@@ -11341,7 +11341,7 @@
         <v>772</v>
       </c>
       <c r="Z302" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AA302" t="s">
         <v>962</v>
@@ -11361,7 +11361,7 @@
         <v>773</v>
       </c>
       <c r="Z303" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AA303" t="s">
         <v>1007</v>
@@ -11381,7 +11381,7 @@
         <v>774</v>
       </c>
       <c r="Z304" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AA304" t="s">
         <v>1006</v>
@@ -11563,7 +11563,7 @@
         <v>795</v>
       </c>
       <c r="Z311" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA311" t="s">
         <v>1000</v>
@@ -11598,7 +11598,7 @@
         <v>795</v>
       </c>
       <c r="Z312" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="AA312">
         <v>1</v>
@@ -11621,7 +11621,7 @@
         <v>798</v>
       </c>
       <c r="Z313" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA313" t="s">
         <v>1004</v>
@@ -11641,7 +11641,7 @@
         <v>799</v>
       </c>
       <c r="Z314" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA314" t="s">
         <v>1003</v>
@@ -11664,7 +11664,7 @@
         <v>800</v>
       </c>
       <c r="Z315" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA315" t="s">
         <v>1002</v>
@@ -11687,7 +11687,7 @@
         <v>801</v>
       </c>
       <c r="Z316" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA316" t="s">
         <v>1001</v>
@@ -11713,7 +11713,7 @@
         <v>805</v>
       </c>
       <c r="Z317" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AA317" t="s">
         <v>975</v>
@@ -11745,7 +11745,7 @@
         <v>806</v>
       </c>
       <c r="Z318" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AA318">
         <v>1</v>
@@ -11765,7 +11765,7 @@
         <v>811</v>
       </c>
       <c r="Z319" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AA319" t="s">
         <v>957</v>
@@ -11788,7 +11788,7 @@
         <v>812</v>
       </c>
       <c r="Z320" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AA320" t="s">
         <v>981</v>
@@ -11811,7 +11811,7 @@
         <v>813</v>
       </c>
       <c r="Z321" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AA321" t="s">
         <v>980</v>
@@ -11834,7 +11834,7 @@
         <v>814</v>
       </c>
       <c r="Z322" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AA322" t="s">
         <v>979</v>
@@ -11863,7 +11863,7 @@
         <v>819</v>
       </c>
       <c r="Z323" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AA323">
         <v>1</v>
@@ -11898,7 +11898,7 @@
         <v>820</v>
       </c>
       <c r="Z324" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="AA324">
         <v>1</v>
@@ -11921,10 +11921,10 @@
         <v>823</v>
       </c>
       <c r="Z325" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AA325" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="326" spans="1:27">
@@ -11941,10 +11941,10 @@
         <v>824</v>
       </c>
       <c r="Z326" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AA326" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="327" spans="1:27">
@@ -11964,10 +11964,10 @@
         <v>827</v>
       </c>
       <c r="Z327" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AA327" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="328" spans="1:27">
@@ -11987,10 +11987,10 @@
         <v>828</v>
       </c>
       <c r="Z328" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AA328" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="329" spans="1:27">
@@ -12016,7 +12016,7 @@
         <v>833</v>
       </c>
       <c r="Z329" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AA329">
         <v>1</v>
@@ -12048,7 +12048,7 @@
         <v>833</v>
       </c>
       <c r="Z330" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="AA330">
         <v>1</v>
@@ -12068,10 +12068,10 @@
         <v>838</v>
       </c>
       <c r="Z331" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AA331" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="332" spans="1:27">
@@ -12094,10 +12094,10 @@
         <v>839</v>
       </c>
       <c r="Z332" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AA332" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="333" spans="1:27">
@@ -12114,10 +12114,10 @@
         <v>840</v>
       </c>
       <c r="Z333" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AA333" t="s">
         <v>1036</v>
-      </c>
-      <c r="AA333" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="334" spans="1:27">
@@ -12140,10 +12140,10 @@
         <v>841</v>
       </c>
       <c r="Z334" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AA334" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="335" spans="1:27">
@@ -12175,7 +12175,7 @@
         <v>844</v>
       </c>
       <c r="Z335" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AA335">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         <v>845</v>
       </c>
       <c r="Z336" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AA336">
         <v>1</v>
@@ -12233,10 +12233,10 @@
         <v>852</v>
       </c>
       <c r="Z337" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AA337" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="338" spans="1:27">
@@ -12256,10 +12256,10 @@
         <v>853</v>
       </c>
       <c r="Z338" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AA338" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="339" spans="1:27">
@@ -12282,10 +12282,10 @@
         <v>854</v>
       </c>
       <c r="Z339" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AA339" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="340" spans="1:27">
@@ -12305,10 +12305,10 @@
         <v>855</v>
       </c>
       <c r="Z340" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AA340" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="341" spans="1:27">
@@ -12351,10 +12351,10 @@
         <v>860</v>
       </c>
       <c r="Z342" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AA342" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="343" spans="1:27">
@@ -12383,10 +12383,10 @@
         <v>862</v>
       </c>
       <c r="Z343" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AA343" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="344" spans="1:27">
@@ -12412,10 +12412,10 @@
         <v>864</v>
       </c>
       <c r="Z344" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AA344" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="345" spans="1:27">
@@ -12444,10 +12444,10 @@
         <v>866</v>
       </c>
       <c r="Z345" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AA345" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="346" spans="1:27">
@@ -12497,7 +12497,7 @@
         <v>872</v>
       </c>
       <c r="Z347" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA347" t="s">
         <v>997</v>
@@ -12526,7 +12526,7 @@
         <v>873</v>
       </c>
       <c r="Z348" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA348" t="s">
         <v>993</v>
@@ -12555,7 +12555,7 @@
         <v>874</v>
       </c>
       <c r="Z349" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA349" t="s">
         <v>992</v>
@@ -12590,7 +12590,7 @@
         <v>875</v>
       </c>
       <c r="Z350" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA350" t="s">
         <v>994</v>
@@ -12619,7 +12619,7 @@
         <v>879</v>
       </c>
       <c r="Z351" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AA351">
         <v>1</v>
@@ -12651,7 +12651,7 @@
         <v>879</v>
       </c>
       <c r="Z352" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AA352">
         <v>1</v>
@@ -12677,7 +12677,7 @@
         <v>884</v>
       </c>
       <c r="Z353" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AA353" t="s">
         <v>961</v>
@@ -12703,7 +12703,7 @@
         <v>884</v>
       </c>
       <c r="Z354" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AA354" t="s">
         <v>960</v>
@@ -12729,7 +12729,7 @@
         <v>884</v>
       </c>
       <c r="Z355" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AA355" t="s">
         <v>955</v>
@@ -12752,7 +12752,7 @@
         <v>885</v>
       </c>
       <c r="Z356" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AA356" t="s">
         <v>959</v>
@@ -12787,7 +12787,7 @@
         <v>888</v>
       </c>
       <c r="Z357" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="AA357">
         <v>1</v>
@@ -12825,7 +12825,7 @@
         <v>889</v>
       </c>
       <c r="Z358" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AA358">
         <v>1</v>
@@ -12848,7 +12848,7 @@
         <v>895</v>
       </c>
       <c r="Z359" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AA359" t="s">
         <v>958</v>
@@ -12871,7 +12871,7 @@
         <v>895</v>
       </c>
       <c r="Z360" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AA360" t="s">
         <v>981</v>
@@ -12894,7 +12894,7 @@
         <v>896</v>
       </c>
       <c r="Z361" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AA361" t="s">
         <v>957</v>
@@ -12917,7 +12917,7 @@
         <v>897</v>
       </c>
       <c r="Z362" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AA362" t="s">
         <v>980</v>
@@ -12998,7 +12998,7 @@
         <v>906</v>
       </c>
       <c r="Z365" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AA365" t="s">
         <v>1007</v>
@@ -13018,7 +13018,7 @@
         <v>907</v>
       </c>
       <c r="Z366" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AA366" t="s">
         <v>1006</v>
@@ -13047,7 +13047,7 @@
         <v>908</v>
       </c>
       <c r="Z367" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AA367" t="s">
         <v>1008</v>
@@ -13067,7 +13067,7 @@
         <v>909</v>
       </c>
       <c r="Z368" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AA368" t="s">
         <v>962</v>
@@ -13157,7 +13157,7 @@
         <v>918</v>
       </c>
       <c r="Z371" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AA371" t="s">
         <v>1002</v>
@@ -13180,7 +13180,7 @@
         <v>911</v>
       </c>
       <c r="Z372" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AA372" t="s">
         <v>1003</v>
@@ -13203,7 +13203,7 @@
         <v>911</v>
       </c>
       <c r="Z373" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AA373" t="s">
         <v>1004</v>
@@ -13223,7 +13223,7 @@
         <v>919</v>
       </c>
       <c r="Z374" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AA374" t="s">
         <v>1005</v>
@@ -13255,7 +13255,7 @@
         <v>934</v>
       </c>
       <c r="Z375" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AA375">
         <v>1</v>
@@ -13290,7 +13290,7 @@
         <v>934</v>
       </c>
       <c r="Z376" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AA376">
         <v>1</v>
@@ -13310,7 +13310,7 @@
         <v>934</v>
       </c>
       <c r="Z377" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AA377" t="s">
         <v>961</v>
@@ -13333,7 +13333,7 @@
         <v>934</v>
       </c>
       <c r="Z378" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AA378" t="s">
         <v>960</v>
@@ -13353,7 +13353,7 @@
         <v>934</v>
       </c>
       <c r="Z379" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AA379" t="s">
         <v>959</v>
@@ -13376,7 +13376,7 @@
         <v>934</v>
       </c>
       <c r="Z380" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AA380" t="s">
         <v>955</v>
@@ -13402,7 +13402,7 @@
         <v>1</v>
       </c>
       <c r="Z381" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="AA381">
         <v>1</v>
@@ -13431,7 +13431,7 @@
         <v>1</v>
       </c>
       <c r="Z382" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AA382">
         <v>1</v>
@@ -13454,7 +13454,7 @@
         <v>1</v>
       </c>
       <c r="Z383" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AA383" t="s">
         <v>957</v>
@@ -13474,7 +13474,7 @@
         <v>1</v>
       </c>
       <c r="Z384" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AA384" t="s">
         <v>981</v>
@@ -13500,7 +13500,7 @@
         <v>1</v>
       </c>
       <c r="Z385" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AA385" t="s">
         <v>980</v>
@@ -13520,7 +13520,7 @@
         <v>1</v>
       </c>
       <c r="Z386" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AA386" t="s">
         <v>958</v>
@@ -13543,7 +13543,7 @@
         <v>21</v>
       </c>
       <c r="Z387" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AA387">
         <v>1</v>
@@ -13569,7 +13569,7 @@
         <v>24</v>
       </c>
       <c r="Z388" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AA388">
         <v>1</v>
@@ -13592,7 +13592,7 @@
         <v>946</v>
       </c>
       <c r="Z389" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AA389" t="s">
         <v>979</v>
@@ -13612,7 +13612,7 @@
         <v>947</v>
       </c>
       <c r="Z390" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AA390" t="s">
         <v>975</v>
@@ -13632,7 +13632,7 @@
         <v>1</v>
       </c>
       <c r="Z391" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AA391" t="s">
         <v>974</v>
@@ -13652,7 +13652,7 @@
         <v>1</v>
       </c>
       <c r="Z392" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AA392" t="s">
         <v>973</v>

--- a/data/masterminds.xlsx
+++ b/data/masterminds.xlsx
@@ -2429,9 +2429,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>Spider-Slayers</t>
-  </si>
-  <si>
     <t>Investigate for hero to put in angry mobs stack. Stack starts with 2 shield officers. 4 to fight any in the stack.</t>
   </si>
   <si>
@@ -3279,6 +3276,9 @@
   </si>
   <si>
     <t>fearitself,jpg</t>
+  </si>
+  <si>
+    <t>Spider-Slayer</t>
   </si>
 </sst>
 </file>
@@ -3627,10 +3627,10 @@
   <dimension ref="A1:AA392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W199" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B298" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z222" sqref="Z222"/>
+      <selection pane="bottomRight" activeCell="G320" sqref="G320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3737,10 +3737,10 @@
         <v>66</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>952</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -3787,10 +3787,10 @@
         <v>237</v>
       </c>
       <c r="Z2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -3813,10 +3813,10 @@
         <v>238</v>
       </c>
       <c r="Z3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -3839,10 +3839,10 @@
         <v>239</v>
       </c>
       <c r="Z4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -3865,10 +3865,10 @@
         <v>240</v>
       </c>
       <c r="Z5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -3891,10 +3891,10 @@
         <v>241</v>
       </c>
       <c r="Z6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA6" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -3923,10 +3923,10 @@
         <v>243</v>
       </c>
       <c r="Z7" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AA7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -3958,7 +3958,7 @@
         <v>244</v>
       </c>
       <c r="Z8" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AA8">
         <v>1</v>
@@ -3987,10 +3987,10 @@
         <v>247</v>
       </c>
       <c r="Z9" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA9" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -4013,10 +4013,10 @@
         <v>250</v>
       </c>
       <c r="Z10" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA10" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -4039,10 +4039,10 @@
         <v>252</v>
       </c>
       <c r="Z11" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA11" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -4065,10 +4065,10 @@
         <v>254</v>
       </c>
       <c r="Z12" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA12" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -4094,10 +4094,10 @@
         <v>255</v>
       </c>
       <c r="Z13" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AA13" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -4117,10 +4117,10 @@
         <v>261</v>
       </c>
       <c r="Z14" t="s">
+        <v>987</v>
+      </c>
+      <c r="AA14" t="s">
         <v>988</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -4143,10 +4143,10 @@
         <v>262</v>
       </c>
       <c r="Z15" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AA15" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -4169,10 +4169,10 @@
         <v>263</v>
       </c>
       <c r="Z16" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AA16" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -4192,10 +4192,10 @@
         <v>264</v>
       </c>
       <c r="Z17" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AA17" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -4221,10 +4221,10 @@
         <v>266</v>
       </c>
       <c r="Z18" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA18" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -4250,10 +4250,10 @@
         <v>267</v>
       </c>
       <c r="Z19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA19" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -4273,10 +4273,10 @@
         <v>270</v>
       </c>
       <c r="Z20" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA20" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -4299,10 +4299,10 @@
         <v>272</v>
       </c>
       <c r="Z21" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA21" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -4325,10 +4325,10 @@
         <v>274</v>
       </c>
       <c r="Z22" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA22" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -4360,10 +4360,10 @@
         <v>47</v>
       </c>
       <c r="Z23" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AA23" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -4389,10 +4389,10 @@
         <v>279</v>
       </c>
       <c r="Z24" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AA24" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -4418,10 +4418,10 @@
         <v>280</v>
       </c>
       <c r="Z25" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AA25" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -4444,10 +4444,10 @@
         <v>281</v>
       </c>
       <c r="Z26" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AA26" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -4464,10 +4464,10 @@
         <v>282</v>
       </c>
       <c r="Z27" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AA27" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -4499,10 +4499,10 @@
         <v>50</v>
       </c>
       <c r="Z28" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -4519,10 +4519,10 @@
         <v>287</v>
       </c>
       <c r="Z29" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA29" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -4542,10 +4542,10 @@
         <v>288</v>
       </c>
       <c r="Z30" t="s">
+        <v>995</v>
+      </c>
+      <c r="AA30" t="s">
         <v>996</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -4568,10 +4568,10 @@
         <v>289</v>
       </c>
       <c r="Z31" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA31" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -4597,10 +4597,10 @@
         <v>290</v>
       </c>
       <c r="Z32" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA32" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -4629,10 +4629,10 @@
         <v>55</v>
       </c>
       <c r="Z33" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AA33" t="s">
         <v>1025</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -4652,10 +4652,10 @@
         <v>295</v>
       </c>
       <c r="Z34" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA34" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -4675,10 +4675,10 @@
         <v>296</v>
       </c>
       <c r="Z35" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA35" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -4698,10 +4698,10 @@
         <v>297</v>
       </c>
       <c r="Z36" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -4724,10 +4724,10 @@
         <v>298</v>
       </c>
       <c r="Z37" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA37" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -4756,10 +4756,10 @@
         <v>61</v>
       </c>
       <c r="Z38" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AA38" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -4776,10 +4776,10 @@
         <v>303</v>
       </c>
       <c r="Z39" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AA39" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -4802,10 +4802,10 @@
         <v>304</v>
       </c>
       <c r="Z40" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AA40" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="41" spans="1:27">
@@ -4831,10 +4831,10 @@
         <v>305</v>
       </c>
       <c r="Z41" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AA41" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42" spans="1:27">
@@ -4854,10 +4854,10 @@
         <v>306</v>
       </c>
       <c r="Z42" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AA42" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="43" spans="1:27">
@@ -4886,10 +4886,10 @@
         <v>307</v>
       </c>
       <c r="Z43" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AA43" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="44" spans="1:27">
@@ -4921,7 +4921,7 @@
         <v>307</v>
       </c>
       <c r="Z44" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AA44">
         <v>1</v>
@@ -4941,10 +4941,10 @@
         <v>313</v>
       </c>
       <c r="Z45" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA45" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="46" spans="1:27">
@@ -4961,10 +4961,10 @@
         <v>314</v>
       </c>
       <c r="Z46" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA46" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="47" spans="1:27">
@@ -4981,10 +4981,10 @@
         <v>315</v>
       </c>
       <c r="Z47" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA47" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="48" spans="1:27">
@@ -5004,10 +5004,10 @@
         <v>316</v>
       </c>
       <c r="Z48" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA48" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="49" spans="1:27">
@@ -5018,7 +5018,7 @@
         <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H49">
         <v>6</v>
@@ -5042,10 +5042,10 @@
         <v>67</v>
       </c>
       <c r="Z49" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AA49" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="50" spans="1:27">
@@ -5077,7 +5077,7 @@
         <v>67</v>
       </c>
       <c r="Z50" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AA50">
         <v>1</v>
@@ -5103,10 +5103,10 @@
         <v>325</v>
       </c>
       <c r="Z51" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA51" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="52" spans="1:27">
@@ -5126,10 +5126,10 @@
         <v>326</v>
       </c>
       <c r="Z52" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA52" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="53" spans="1:27">
@@ -5152,10 +5152,10 @@
         <v>327</v>
       </c>
       <c r="Z53" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA53" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="54" spans="1:27">
@@ -5175,10 +5175,10 @@
         <v>328</v>
       </c>
       <c r="Z54" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA54" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="55" spans="1:27">
@@ -5204,10 +5204,10 @@
         <v>71</v>
       </c>
       <c r="Z55" t="s">
+        <v>967</v>
+      </c>
+      <c r="AA55" t="s">
         <v>968</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="56" spans="1:27">
@@ -5224,10 +5224,10 @@
         <v>333</v>
       </c>
       <c r="Z56" t="s">
+        <v>971</v>
+      </c>
+      <c r="AA56" t="s">
         <v>972</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="57" spans="1:27">
@@ -5244,10 +5244,10 @@
         <v>334</v>
       </c>
       <c r="Z57" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AA57" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="58" spans="1:27">
@@ -5264,10 +5264,10 @@
         <v>335</v>
       </c>
       <c r="Z58" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AA58" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="59" spans="1:27">
@@ -5290,10 +5290,10 @@
         <v>336</v>
       </c>
       <c r="Z59" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AA59" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="60" spans="1:27">
@@ -5322,10 +5322,10 @@
         <v>76</v>
       </c>
       <c r="Z60" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AA60" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="61" spans="1:27">
@@ -5345,10 +5345,10 @@
         <v>346</v>
       </c>
       <c r="Z61" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AA61" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="62" spans="1:27">
@@ -5368,10 +5368,10 @@
         <v>348</v>
       </c>
       <c r="Z62" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AA62" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="63" spans="1:27">
@@ -5391,10 +5391,10 @@
         <v>350</v>
       </c>
       <c r="Z63" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AA63" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="64" spans="1:27">
@@ -5414,10 +5414,10 @@
         <v>352</v>
       </c>
       <c r="Z64" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AA64" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="65" spans="1:27">
@@ -5452,10 +5452,10 @@
         <v>362</v>
       </c>
       <c r="Z65" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA65" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="66" spans="1:27">
@@ -5472,10 +5472,10 @@
         <v>367</v>
       </c>
       <c r="Z66" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA66" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="67" spans="1:27">
@@ -5495,10 +5495,10 @@
         <v>368</v>
       </c>
       <c r="Z67" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA67" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="68" spans="1:27">
@@ -5515,10 +5515,10 @@
         <v>369</v>
       </c>
       <c r="Z68" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA68" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="69" spans="1:27">
@@ -5538,21 +5538,21 @@
         <v>370</v>
       </c>
       <c r="Z69" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA69" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="70" spans="1:27">
       <c r="A70" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E70" t="s">
         <v>82</v>
       </c>
       <c r="F70" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H70">
         <v>5</v>
@@ -5567,10 +5567,10 @@
         <v>85</v>
       </c>
       <c r="Z70" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AA70" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="71" spans="1:27">
@@ -5578,7 +5578,7 @@
         <v>396</v>
       </c>
       <c r="B71" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E71" t="s">
         <v>82</v>
@@ -5587,10 +5587,10 @@
         <v>400</v>
       </c>
       <c r="Z71" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA71" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="72" spans="1:27">
@@ -5598,7 +5598,7 @@
         <v>397</v>
       </c>
       <c r="B72" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E72" t="s">
         <v>82</v>
@@ -5616,10 +5616,10 @@
         <v>401</v>
       </c>
       <c r="Z72" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA72" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="73" spans="1:27">
@@ -5627,7 +5627,7 @@
         <v>398</v>
       </c>
       <c r="B73" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E73" t="s">
         <v>82</v>
@@ -5642,10 +5642,10 @@
         <v>402</v>
       </c>
       <c r="Z73" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA73" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="74" spans="1:27">
@@ -5653,7 +5653,7 @@
         <v>399</v>
       </c>
       <c r="B74" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E74" t="s">
         <v>82</v>
@@ -5665,10 +5665,10 @@
         <v>403</v>
       </c>
       <c r="Z74" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA74" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="75" spans="1:27">
@@ -5697,10 +5697,10 @@
         <v>88</v>
       </c>
       <c r="Z75" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AA75" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="76" spans="1:27">
@@ -5720,10 +5720,10 @@
         <v>419</v>
       </c>
       <c r="Z76" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA76" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="77" spans="1:27">
@@ -5743,10 +5743,10 @@
         <v>420</v>
       </c>
       <c r="Z77" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA77" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="78" spans="1:27">
@@ -5766,10 +5766,10 @@
         <v>421</v>
       </c>
       <c r="Z78" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA78" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="79" spans="1:27">
@@ -5789,10 +5789,10 @@
         <v>422</v>
       </c>
       <c r="Z79" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA79" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="80" spans="1:27">
@@ -5824,10 +5824,10 @@
         <v>92</v>
       </c>
       <c r="Z80" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA80" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="81" spans="1:27">
@@ -5844,10 +5844,10 @@
         <v>423</v>
       </c>
       <c r="Z81" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA81" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="82" spans="1:27">
@@ -5867,10 +5867,10 @@
         <v>424</v>
       </c>
       <c r="Z82" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA82" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="83" spans="1:27">
@@ -5890,10 +5890,10 @@
         <v>429</v>
       </c>
       <c r="Z83" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA83" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="84" spans="1:27">
@@ -5913,10 +5913,10 @@
         <v>430</v>
       </c>
       <c r="Z84" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA84" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="85" spans="1:27">
@@ -5945,10 +5945,10 @@
         <v>95</v>
       </c>
       <c r="Z85" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AA85" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="86" spans="1:27">
@@ -5965,10 +5965,10 @@
         <v>434</v>
       </c>
       <c r="Z86" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AA86" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="87" spans="1:27">
@@ -5988,15 +5988,15 @@
         <v>435</v>
       </c>
       <c r="Z87" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AA87" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="88" spans="1:27">
       <c r="A88" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B88" t="s">
         <v>93</v>
@@ -6008,10 +6008,10 @@
         <v>437</v>
       </c>
       <c r="Z88" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AA88" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="89" spans="1:27">
@@ -6028,10 +6028,10 @@
         <v>436</v>
       </c>
       <c r="Z89" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AA89" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="90" spans="1:27">
@@ -6060,10 +6060,10 @@
         <v>98</v>
       </c>
       <c r="Z90" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AA90" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="91" spans="1:27">
@@ -6080,10 +6080,10 @@
         <v>442</v>
       </c>
       <c r="Z91" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AA91" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="92" spans="1:27">
@@ -6100,10 +6100,10 @@
         <v>443</v>
       </c>
       <c r="Z92" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AA92" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="93" spans="1:27">
@@ -6120,10 +6120,10 @@
         <v>444</v>
       </c>
       <c r="Z93" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AA93" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="94" spans="1:27">
@@ -6140,10 +6140,10 @@
         <v>445</v>
       </c>
       <c r="Z94" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AA94" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="95" spans="1:27">
@@ -6175,10 +6175,10 @@
         <v>104</v>
       </c>
       <c r="Z95" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA95" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="96" spans="1:27">
@@ -6198,10 +6198,10 @@
         <v>446</v>
       </c>
       <c r="Z96" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AA96" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="97" spans="1:27">
@@ -6221,10 +6221,10 @@
         <v>451</v>
       </c>
       <c r="Z97" t="s">
+        <v>953</v>
+      </c>
+      <c r="AA97" t="s">
         <v>954</v>
-      </c>
-      <c r="AA97" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="98" spans="1:27">
@@ -6244,10 +6244,10 @@
         <v>452</v>
       </c>
       <c r="Z98" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA98" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="99" spans="1:27">
@@ -6273,10 +6273,10 @@
         <v>305</v>
       </c>
       <c r="Z99" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA99" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="100" spans="1:27">
@@ -6305,10 +6305,10 @@
         <v>107</v>
       </c>
       <c r="Z100" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AA100" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="101" spans="1:27">
@@ -6334,10 +6334,10 @@
         <v>457</v>
       </c>
       <c r="Z101" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AA101" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="102" spans="1:27">
@@ -6360,10 +6360,10 @@
         <v>458</v>
       </c>
       <c r="Z102" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AA102" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="103" spans="1:27">
@@ -6386,10 +6386,10 @@
         <v>459</v>
       </c>
       <c r="Z103" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AA103" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="104" spans="1:27">
@@ -6412,21 +6412,21 @@
         <v>460</v>
       </c>
       <c r="Z104" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AA104" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="105" spans="1:27">
       <c r="A105" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E105" t="s">
         <v>40</v>
       </c>
       <c r="F105" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H105">
         <v>6</v>
@@ -6444,10 +6444,10 @@
         <v>108</v>
       </c>
       <c r="Z105" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA105" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="106" spans="1:27">
@@ -6455,7 +6455,7 @@
         <v>466</v>
       </c>
       <c r="B106" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E106" t="s">
         <v>40</v>
@@ -6467,10 +6467,10 @@
         <v>461</v>
       </c>
       <c r="Z106" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA106" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="107" spans="1:27">
@@ -6478,7 +6478,7 @@
         <v>467</v>
       </c>
       <c r="B107" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E107" t="s">
         <v>40</v>
@@ -6487,10 +6487,10 @@
         <v>462</v>
       </c>
       <c r="Z107" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA107" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="108" spans="1:27">
@@ -6498,7 +6498,7 @@
         <v>468</v>
       </c>
       <c r="B108" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E108" t="s">
         <v>40</v>
@@ -6510,10 +6510,10 @@
         <v>463</v>
       </c>
       <c r="Z108" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA108" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="109" spans="1:27">
@@ -6521,7 +6521,7 @@
         <v>465</v>
       </c>
       <c r="B109" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E109" t="s">
         <v>40</v>
@@ -6530,10 +6530,10 @@
         <v>464</v>
       </c>
       <c r="Z109" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA109" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="110" spans="1:27">
@@ -6568,10 +6568,10 @@
         <v>113</v>
       </c>
       <c r="Z110" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA110" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="111" spans="1:27">
@@ -6594,10 +6594,10 @@
         <v>473</v>
       </c>
       <c r="Z111" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA111" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="112" spans="1:27">
@@ -6617,10 +6617,10 @@
         <v>474</v>
       </c>
       <c r="Z112" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA112" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="113" spans="1:27">
@@ -6637,10 +6637,10 @@
         <v>475</v>
       </c>
       <c r="Z113" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA113" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="114" spans="1:27">
@@ -6657,10 +6657,10 @@
         <v>476</v>
       </c>
       <c r="Z114" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AA114" t="s">
         <v>1009</v>
-      </c>
-      <c r="AA114" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="115" spans="1:27">
@@ -6689,10 +6689,10 @@
         <v>92</v>
       </c>
       <c r="Z115" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA115" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="116" spans="1:27">
@@ -6709,10 +6709,10 @@
         <v>480</v>
       </c>
       <c r="Z116" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA116" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="117" spans="1:27">
@@ -6738,10 +6738,10 @@
         <v>481</v>
       </c>
       <c r="Z117" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA117" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="118" spans="1:27">
@@ -6764,10 +6764,10 @@
         <v>482</v>
       </c>
       <c r="Z118" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA118" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="119" spans="1:27">
@@ -6787,10 +6787,10 @@
         <v>483</v>
       </c>
       <c r="Z119" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA119" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="120" spans="1:27">
@@ -6825,10 +6825,10 @@
         <v>121</v>
       </c>
       <c r="Z120" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AA120" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="121" spans="1:27">
@@ -6866,7 +6866,7 @@
         <v>500</v>
       </c>
       <c r="Z121" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="AA121">
         <v>1</v>
@@ -6889,10 +6889,10 @@
         <v>505</v>
       </c>
       <c r="Z122" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA122" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="123" spans="1:27">
@@ -6915,10 +6915,10 @@
         <v>506</v>
       </c>
       <c r="Z123" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA123" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="124" spans="1:27">
@@ -6938,10 +6938,10 @@
         <v>474</v>
       </c>
       <c r="Z124" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA124" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="125" spans="1:27">
@@ -6961,10 +6961,10 @@
         <v>507</v>
       </c>
       <c r="Z125" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA125" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="126" spans="1:27">
@@ -6996,10 +6996,10 @@
         <v>125</v>
       </c>
       <c r="Z126" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA126" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="127" spans="1:27">
@@ -7016,10 +7016,10 @@
         <v>512</v>
       </c>
       <c r="Z127" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA127" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="128" spans="1:27">
@@ -7036,10 +7036,10 @@
         <v>513</v>
       </c>
       <c r="Z128" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA128" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="129" spans="1:27">
@@ -7059,10 +7059,10 @@
         <v>514</v>
       </c>
       <c r="Z129" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA129" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="130" spans="1:27">
@@ -7079,10 +7079,10 @@
         <v>515</v>
       </c>
       <c r="Z130" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA130" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="131" spans="1:27">
@@ -7114,10 +7114,10 @@
         <v>129</v>
       </c>
       <c r="Z131" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA131" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="132" spans="1:27">
@@ -7134,10 +7134,10 @@
         <v>520</v>
       </c>
       <c r="Z132" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA132" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="133" spans="1:27">
@@ -7154,10 +7154,10 @@
         <v>521</v>
       </c>
       <c r="Z133" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA133" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="134" spans="1:27">
@@ -7174,10 +7174,10 @@
         <v>522</v>
       </c>
       <c r="Z134" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA134" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="135" spans="1:27">
@@ -7194,10 +7194,10 @@
         <v>523</v>
       </c>
       <c r="Z135" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA135" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="136" spans="1:27">
@@ -7220,10 +7220,10 @@
         <v>132</v>
       </c>
       <c r="Z136" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA136" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="137" spans="1:27">
@@ -7240,10 +7240,10 @@
         <v>528</v>
       </c>
       <c r="Z137" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA137" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="138" spans="1:27">
@@ -7260,10 +7260,10 @@
         <v>529</v>
       </c>
       <c r="Z138" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA138" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="139" spans="1:27">
@@ -7283,10 +7283,10 @@
         <v>530</v>
       </c>
       <c r="Z139" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA139" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="140" spans="1:27">
@@ -7303,10 +7303,10 @@
         <v>531</v>
       </c>
       <c r="Z140" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA140" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="141" spans="1:27">
@@ -7335,10 +7335,10 @@
         <v>136</v>
       </c>
       <c r="Z141" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AA141" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="142" spans="1:27">
@@ -7355,10 +7355,10 @@
         <v>544</v>
       </c>
       <c r="Z142" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AA142" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="143" spans="1:27">
@@ -7375,10 +7375,10 @@
         <v>545</v>
       </c>
       <c r="Z143" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AA143" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="144" spans="1:27">
@@ -7395,10 +7395,10 @@
         <v>546</v>
       </c>
       <c r="Z144" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AA144" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="145" spans="1:27">
@@ -7415,10 +7415,10 @@
         <v>547</v>
       </c>
       <c r="Z145" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AA145" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="146" spans="1:27">
@@ -7447,10 +7447,10 @@
         <v>140</v>
       </c>
       <c r="Z146" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AA146" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="147" spans="1:27">
@@ -7482,7 +7482,7 @@
         <v>140</v>
       </c>
       <c r="Z147" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AA147">
         <v>1</v>
@@ -7514,10 +7514,10 @@
         <v>563</v>
       </c>
       <c r="Z148" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA148" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="149" spans="1:27">
@@ -7534,10 +7534,10 @@
         <v>566</v>
       </c>
       <c r="Z149" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA149" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="150" spans="1:27">
@@ -7557,10 +7557,10 @@
         <v>567</v>
       </c>
       <c r="Z150" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA150" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="151" spans="1:27">
@@ -7586,10 +7586,10 @@
         <v>568</v>
       </c>
       <c r="Z151" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA151" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="152" spans="1:27">
@@ -7615,10 +7615,10 @@
         <v>144</v>
       </c>
       <c r="Z152" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA152" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="153" spans="1:27">
@@ -7638,10 +7638,10 @@
         <v>592</v>
       </c>
       <c r="Z153" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA153" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="154" spans="1:27">
@@ -7658,10 +7658,10 @@
         <v>593</v>
       </c>
       <c r="Z154" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA154" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="155" spans="1:27">
@@ -7678,10 +7678,10 @@
         <v>594</v>
       </c>
       <c r="Z155" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA155" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="156" spans="1:27">
@@ -7701,10 +7701,10 @@
         <v>595</v>
       </c>
       <c r="Z156" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA156" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="157" spans="1:27">
@@ -7730,10 +7730,10 @@
         <v>147</v>
       </c>
       <c r="Z157" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AA157" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="158" spans="1:27">
@@ -7750,10 +7750,10 @@
         <v>600</v>
       </c>
       <c r="Z158" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AA158" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="159" spans="1:27">
@@ -7770,10 +7770,10 @@
         <v>601</v>
       </c>
       <c r="Z159" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AA159" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="160" spans="1:27">
@@ -7790,10 +7790,10 @@
         <v>602</v>
       </c>
       <c r="Z160" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AA160" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="161" spans="1:27">
@@ -7810,10 +7810,10 @@
         <v>603</v>
       </c>
       <c r="Z161" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AA161" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="162" spans="1:27">
@@ -7839,10 +7839,10 @@
         <v>150</v>
       </c>
       <c r="Z162" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AA162" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="163" spans="1:27">
@@ -7874,7 +7874,7 @@
         <v>605</v>
       </c>
       <c r="Z163" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AA163">
         <v>1</v>
@@ -7897,10 +7897,10 @@
         <v>610</v>
       </c>
       <c r="Z164" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA164" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="165" spans="1:27">
@@ -7920,10 +7920,10 @@
         <v>611</v>
       </c>
       <c r="Z165" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA165" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="166" spans="1:27">
@@ -7940,10 +7940,10 @@
         <v>612</v>
       </c>
       <c r="Z166" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA166" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="167" spans="1:27">
@@ -7960,10 +7960,10 @@
         <v>613</v>
       </c>
       <c r="Z167" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA167" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="168" spans="1:27">
@@ -7986,10 +7986,10 @@
         <v>614</v>
       </c>
       <c r="Z168" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AA168" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="169" spans="1:27">
@@ -8006,10 +8006,10 @@
         <v>619</v>
       </c>
       <c r="Z169" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA169" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="170" spans="1:27">
@@ -8026,10 +8026,10 @@
         <v>620</v>
       </c>
       <c r="Z170" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA170" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="171" spans="1:27">
@@ -8046,10 +8046,10 @@
         <v>621</v>
       </c>
       <c r="Z171" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA171" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="172" spans="1:27">
@@ -8066,10 +8066,10 @@
         <v>622</v>
       </c>
       <c r="Z172" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA172" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="173" spans="1:27">
@@ -8101,10 +8101,10 @@
         <v>155</v>
       </c>
       <c r="Z173" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA173" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="174" spans="1:27">
@@ -8130,10 +8130,10 @@
         <v>628</v>
       </c>
       <c r="Z174" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA174" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="175" spans="1:27">
@@ -8156,10 +8156,10 @@
         <v>630</v>
       </c>
       <c r="Z175" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA175" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="176" spans="1:27">
@@ -8179,10 +8179,10 @@
         <v>631</v>
       </c>
       <c r="Z176" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA176" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="177" spans="1:27">
@@ -8202,10 +8202,10 @@
         <v>632</v>
       </c>
       <c r="Z177" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA177" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="178" spans="1:27">
@@ -8237,10 +8237,10 @@
         <v>161</v>
       </c>
       <c r="Z178" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA178" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="179" spans="1:27">
@@ -8257,10 +8257,10 @@
         <v>637</v>
       </c>
       <c r="Z179" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA179" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="180" spans="1:27">
@@ -8286,10 +8286,10 @@
         <v>638</v>
       </c>
       <c r="Z180" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA180" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="181" spans="1:27">
@@ -8306,10 +8306,10 @@
         <v>639</v>
       </c>
       <c r="Z181" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA181" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="182" spans="1:27">
@@ -8326,10 +8326,10 @@
         <v>640</v>
       </c>
       <c r="Z182" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA182" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="183" spans="1:27">
@@ -8355,10 +8355,10 @@
         <v>166</v>
       </c>
       <c r="Z183" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AA183" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="184" spans="1:27">
@@ -8375,10 +8375,10 @@
         <v>645</v>
       </c>
       <c r="Z184" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AA184" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="185" spans="1:27">
@@ -8395,10 +8395,10 @@
         <v>646</v>
       </c>
       <c r="Z185" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AA185" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="186" spans="1:27">
@@ -8415,10 +8415,10 @@
         <v>647</v>
       </c>
       <c r="Z186" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AA186" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="187" spans="1:27">
@@ -8435,10 +8435,10 @@
         <v>648</v>
       </c>
       <c r="Z187" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AA187" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="188" spans="1:27">
@@ -8464,10 +8464,10 @@
         <v>169</v>
       </c>
       <c r="Z188" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AA188" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="189" spans="1:27">
@@ -8484,10 +8484,10 @@
         <v>654</v>
       </c>
       <c r="Z189" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AA189" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="190" spans="1:27">
@@ -8507,10 +8507,10 @@
         <v>655</v>
       </c>
       <c r="Z190" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AA190" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="191" spans="1:27">
@@ -8527,10 +8527,10 @@
         <v>656</v>
       </c>
       <c r="Z191" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AA191" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="192" spans="1:27">
@@ -8547,10 +8547,10 @@
         <v>657</v>
       </c>
       <c r="Z192" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AA192" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="193" spans="1:27">
@@ -8585,10 +8585,10 @@
         <v>173</v>
       </c>
       <c r="Z193" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AA193" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="194" spans="1:27">
@@ -8605,10 +8605,10 @@
         <v>662</v>
       </c>
       <c r="Z194" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AA194" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="195" spans="1:27">
@@ -8625,10 +8625,10 @@
         <v>664</v>
       </c>
       <c r="Z195" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AA195" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="196" spans="1:27">
@@ -8654,10 +8654,10 @@
         <v>665</v>
       </c>
       <c r="Z196" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AA196" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="197" spans="1:27">
@@ -8674,10 +8674,10 @@
         <v>667</v>
       </c>
       <c r="Z197" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AA197" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="198" spans="1:27">
@@ -8706,10 +8706,10 @@
         <v>699</v>
       </c>
       <c r="Z198" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA198" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="199" spans="1:27">
@@ -8729,10 +8729,10 @@
         <v>704</v>
       </c>
       <c r="Z199" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AA199" t="s">
         <v>1041</v>
-      </c>
-      <c r="AA199" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="200" spans="1:27">
@@ -8749,10 +8749,10 @@
         <v>705</v>
       </c>
       <c r="Z200" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA200" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="201" spans="1:27">
@@ -8769,10 +8769,10 @@
         <v>706</v>
       </c>
       <c r="Z201" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA201" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="202" spans="1:27">
@@ -8789,10 +8789,10 @@
         <v>707</v>
       </c>
       <c r="Z202" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA202" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="203" spans="1:27">
@@ -8821,10 +8821,10 @@
         <v>712</v>
       </c>
       <c r="Z203" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA203" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="204" spans="1:27">
@@ -8844,10 +8844,10 @@
         <v>713</v>
       </c>
       <c r="Z204" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA204" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="205" spans="1:27">
@@ -8870,10 +8870,10 @@
         <v>714</v>
       </c>
       <c r="Z205" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA205" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="206" spans="1:27">
@@ -8896,10 +8896,10 @@
         <v>715</v>
       </c>
       <c r="Z206" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA206" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="207" spans="1:27">
@@ -8919,10 +8919,10 @@
         <v>716</v>
       </c>
       <c r="Z207" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA207" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="208" spans="1:27">
@@ -8954,10 +8954,10 @@
         <v>183</v>
       </c>
       <c r="Z208" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA208" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="209" spans="1:27">
@@ -8974,10 +8974,10 @@
         <v>553</v>
       </c>
       <c r="Z209" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA209" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="210" spans="1:27">
@@ -8994,10 +8994,10 @@
         <v>554</v>
       </c>
       <c r="Z210" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA210" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="211" spans="1:27">
@@ -9020,10 +9020,10 @@
         <v>555</v>
       </c>
       <c r="Z211" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA211" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="212" spans="1:27">
@@ -9043,10 +9043,10 @@
         <v>557</v>
       </c>
       <c r="Z212" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA212" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="213" spans="1:27">
@@ -9069,10 +9069,10 @@
         <v>186</v>
       </c>
       <c r="Z213" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA213" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="214" spans="1:27">
@@ -9092,10 +9092,10 @@
         <v>338</v>
       </c>
       <c r="Z214" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA214" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="215" spans="1:27">
@@ -9115,10 +9115,10 @@
         <v>340</v>
       </c>
       <c r="Z215" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA215" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="216" spans="1:27">
@@ -9135,10 +9135,10 @@
         <v>342</v>
       </c>
       <c r="Z216" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA216" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="217" spans="1:27">
@@ -9155,10 +9155,10 @@
         <v>344</v>
       </c>
       <c r="Z217" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA217" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="218" spans="1:27">
@@ -9184,10 +9184,10 @@
         <v>191</v>
       </c>
       <c r="Z218" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="AA218" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="219" spans="1:27">
@@ -9207,10 +9207,10 @@
         <v>695</v>
       </c>
       <c r="Z219" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="AA219" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="220" spans="1:27">
@@ -9227,10 +9227,10 @@
         <v>696</v>
       </c>
       <c r="Z220" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="AA220" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="221" spans="1:27">
@@ -9250,10 +9250,10 @@
         <v>697</v>
       </c>
       <c r="Z221" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="AA221" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="222" spans="1:27">
@@ -9276,10 +9276,10 @@
         <v>698</v>
       </c>
       <c r="Z222" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="AA222" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="223" spans="1:27">
@@ -9302,10 +9302,10 @@
         <v>193</v>
       </c>
       <c r="Z223" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA223" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="224" spans="1:27">
@@ -9322,10 +9322,10 @@
         <v>536</v>
       </c>
       <c r="Z224" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA224" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="225" spans="1:27">
@@ -9342,10 +9342,10 @@
         <v>537</v>
       </c>
       <c r="Z225" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA225" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="226" spans="1:27">
@@ -9362,10 +9362,10 @@
         <v>538</v>
       </c>
       <c r="Z226" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA226" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="227" spans="1:27">
@@ -9388,10 +9388,10 @@
         <v>539</v>
       </c>
       <c r="Z227" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA227" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="228" spans="1:27">
@@ -9420,10 +9420,10 @@
         <v>198</v>
       </c>
       <c r="Z228" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA228" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="229" spans="1:27">
@@ -9449,10 +9449,10 @@
         <v>584</v>
       </c>
       <c r="Z229" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA229" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="230" spans="1:27">
@@ -9472,10 +9472,10 @@
         <v>585</v>
       </c>
       <c r="Z230" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA230" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="231" spans="1:27">
@@ -9492,10 +9492,10 @@
         <v>586</v>
       </c>
       <c r="Z231" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AA231" t="s">
         <v>1045</v>
-      </c>
-      <c r="AA231" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="232" spans="1:27">
@@ -9512,10 +9512,10 @@
         <v>587</v>
       </c>
       <c r="Z232" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA232" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="233" spans="1:27">
@@ -9556,10 +9556,10 @@
         <v>207</v>
       </c>
       <c r="Z233" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AA233" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="234" spans="1:27">
@@ -9603,7 +9603,7 @@
         <v>353</v>
       </c>
       <c r="Z234" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AA234">
         <v>1</v>
@@ -9626,10 +9626,10 @@
         <v>358</v>
       </c>
       <c r="Z235" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AA235" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="236" spans="1:27">
@@ -9661,10 +9661,10 @@
         <v>359</v>
       </c>
       <c r="Z236" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AA236" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="237" spans="1:27">
@@ -9684,10 +9684,10 @@
         <v>360</v>
       </c>
       <c r="Z237" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AA237" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="238" spans="1:27">
@@ -9707,15 +9707,15 @@
         <v>361</v>
       </c>
       <c r="Z238" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AA238" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="239" spans="1:27">
       <c r="A239" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E239" t="s">
         <v>208</v>
@@ -9745,10 +9745,10 @@
         <v>210</v>
       </c>
       <c r="Z239" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA239" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="240" spans="1:27">
@@ -9756,7 +9756,7 @@
         <v>371</v>
       </c>
       <c r="B240" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D240">
         <v>1</v>
@@ -9783,10 +9783,10 @@
         <v>225</v>
       </c>
       <c r="Z240" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA240" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="241" spans="1:27">
@@ -9794,7 +9794,7 @@
         <v>375</v>
       </c>
       <c r="B241" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E241" t="s">
         <v>208</v>
@@ -9803,10 +9803,10 @@
         <v>379</v>
       </c>
       <c r="Z241" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA241" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="242" spans="1:27">
@@ -9814,7 +9814,7 @@
         <v>376</v>
       </c>
       <c r="B242" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E242" t="s">
         <v>208</v>
@@ -9823,10 +9823,10 @@
         <v>380</v>
       </c>
       <c r="Z242" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA242" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="243" spans="1:27">
@@ -9834,7 +9834,7 @@
         <v>377</v>
       </c>
       <c r="B243" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E243" t="s">
         <v>208</v>
@@ -9843,10 +9843,10 @@
         <v>381</v>
       </c>
       <c r="Z243" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA243" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="244" spans="1:27">
@@ -9854,7 +9854,7 @@
         <v>378</v>
       </c>
       <c r="B244" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E244" t="s">
         <v>208</v>
@@ -9863,10 +9863,10 @@
         <v>382</v>
       </c>
       <c r="Z244" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA244" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="245" spans="1:27">
@@ -9892,10 +9892,10 @@
         <v>385</v>
       </c>
       <c r="Z245" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA245" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="246" spans="1:27">
@@ -9924,10 +9924,10 @@
         <v>386</v>
       </c>
       <c r="Z246" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA246" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="247" spans="1:27">
@@ -9953,10 +9953,10 @@
         <v>392</v>
       </c>
       <c r="Z247" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA247" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="248" spans="1:27">
@@ -9979,10 +9979,10 @@
         <v>394</v>
       </c>
       <c r="Z248" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA248" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="249" spans="1:27">
@@ -10005,10 +10005,10 @@
         <v>393</v>
       </c>
       <c r="Z249" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA249" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="250" spans="1:27">
@@ -10025,10 +10025,10 @@
         <v>395</v>
       </c>
       <c r="Z250" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA250" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="251" spans="1:27">
@@ -10057,10 +10057,10 @@
         <v>215</v>
       </c>
       <c r="Z251" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA251" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="252" spans="1:27">
@@ -10092,10 +10092,10 @@
         <v>225</v>
       </c>
       <c r="Z252" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA252" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="253" spans="1:27">
@@ -10115,10 +10115,10 @@
         <v>411</v>
       </c>
       <c r="Z253" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA253" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="254" spans="1:27">
@@ -10138,10 +10138,10 @@
         <v>412</v>
       </c>
       <c r="Z254" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA254" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="255" spans="1:27">
@@ -10161,10 +10161,10 @@
         <v>413</v>
       </c>
       <c r="Z255" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA255" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="256" spans="1:27">
@@ -10184,10 +10184,10 @@
         <v>414</v>
       </c>
       <c r="Z256" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA256" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="257" spans="1:27">
@@ -10216,10 +10216,10 @@
         <v>486</v>
       </c>
       <c r="Z257" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA257" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="258" spans="1:27">
@@ -10248,10 +10248,10 @@
         <v>487</v>
       </c>
       <c r="Z258" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA258" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="259" spans="1:27">
@@ -10268,10 +10268,10 @@
         <v>494</v>
       </c>
       <c r="Z259" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA259" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="260" spans="1:27">
@@ -10288,10 +10288,10 @@
         <v>495</v>
       </c>
       <c r="Z260" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA260" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="261" spans="1:27">
@@ -10308,10 +10308,10 @@
         <v>496</v>
       </c>
       <c r="Z261" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA261" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="262" spans="1:27">
@@ -10328,10 +10328,10 @@
         <v>497</v>
       </c>
       <c r="Z262" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA262" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="263" spans="1:27">
@@ -10354,10 +10354,10 @@
         <v>570</v>
       </c>
       <c r="Z263" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AA263" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="264" spans="1:27">
@@ -10383,7 +10383,7 @@
         <v>571</v>
       </c>
       <c r="Z264" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AA264">
         <v>1</v>
@@ -10403,10 +10403,10 @@
         <v>576</v>
       </c>
       <c r="Z265" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AA265" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="266" spans="1:27">
@@ -10423,10 +10423,10 @@
         <v>577</v>
       </c>
       <c r="Z266" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AA266" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="267" spans="1:27">
@@ -10446,10 +10446,10 @@
         <v>578</v>
       </c>
       <c r="Z267" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AA267" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="268" spans="1:27">
@@ -10469,10 +10469,10 @@
         <v>579</v>
       </c>
       <c r="Z268" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AA268" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="269" spans="1:27">
@@ -10504,10 +10504,10 @@
         <v>222</v>
       </c>
       <c r="Z269" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA269" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="270" spans="1:27">
@@ -10530,10 +10530,10 @@
         <v>670</v>
       </c>
       <c r="Z270" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA270" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="271" spans="1:27">
@@ -10553,10 +10553,10 @@
         <v>675</v>
       </c>
       <c r="Z271" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA271" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="272" spans="1:27">
@@ -10573,10 +10573,10 @@
         <v>676</v>
       </c>
       <c r="Z272" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA272" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="273" spans="1:27">
@@ -10596,10 +10596,10 @@
         <v>677</v>
       </c>
       <c r="Z273" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA273" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="274" spans="1:27">
@@ -10619,10 +10619,10 @@
         <v>678</v>
       </c>
       <c r="Z274" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA274" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="275" spans="1:27">
@@ -10651,10 +10651,10 @@
         <v>680</v>
       </c>
       <c r="Z275" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA275" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="276" spans="1:27">
@@ -10689,10 +10689,10 @@
         <v>225</v>
       </c>
       <c r="Z276" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA276" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="277" spans="1:27">
@@ -10715,10 +10715,10 @@
         <v>687</v>
       </c>
       <c r="Z277" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA277" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="278" spans="1:27">
@@ -10735,10 +10735,10 @@
         <v>688</v>
       </c>
       <c r="Z278" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA278" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="279" spans="1:27">
@@ -10755,10 +10755,10 @@
         <v>689</v>
       </c>
       <c r="Z279" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA279" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="280" spans="1:27">
@@ -10775,10 +10775,10 @@
         <v>690</v>
       </c>
       <c r="Z280" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA280" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="281" spans="1:27">
@@ -10804,10 +10804,10 @@
         <v>725</v>
       </c>
       <c r="Z281" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AA281" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="282" spans="1:27">
@@ -10836,7 +10836,7 @@
         <v>727</v>
       </c>
       <c r="Z282" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AA282">
         <v>1</v>
@@ -10862,10 +10862,10 @@
         <v>729</v>
       </c>
       <c r="Z283" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AA283" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="284" spans="1:27">
@@ -10882,10 +10882,10 @@
         <v>730</v>
       </c>
       <c r="Z284" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AA284" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="285" spans="1:27">
@@ -10905,10 +10905,10 @@
         <v>731</v>
       </c>
       <c r="Z285" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AA285" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="286" spans="1:27">
@@ -10925,10 +10925,10 @@
         <v>732</v>
       </c>
       <c r="Z286" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AA286" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="287" spans="1:27">
@@ -10957,10 +10957,10 @@
         <v>742</v>
       </c>
       <c r="Z287" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AA287" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="288" spans="1:27">
@@ -10992,7 +10992,7 @@
         <v>742</v>
       </c>
       <c r="Z288" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="AA288">
         <v>1</v>
@@ -11012,10 +11012,10 @@
         <v>743</v>
       </c>
       <c r="Z289" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AA289" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="290" spans="1:27">
@@ -11032,10 +11032,10 @@
         <v>744</v>
       </c>
       <c r="Z290" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AA290" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="291" spans="1:27">
@@ -11052,10 +11052,10 @@
         <v>745</v>
       </c>
       <c r="Z291" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AA291" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="292" spans="1:27">
@@ -11072,10 +11072,10 @@
         <v>746</v>
       </c>
       <c r="Z292" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AA292" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="293" spans="1:27">
@@ -11107,10 +11107,10 @@
         <v>756</v>
       </c>
       <c r="Z293" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AA293" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="294" spans="1:27">
@@ -11142,10 +11142,10 @@
         <v>756</v>
       </c>
       <c r="Z294" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AA294" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="295" spans="1:27">
@@ -11168,10 +11168,10 @@
         <v>757</v>
       </c>
       <c r="Z295" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AA295" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="296" spans="1:27">
@@ -11191,10 +11191,10 @@
         <v>758</v>
       </c>
       <c r="Z296" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AA296" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="297" spans="1:27">
@@ -11211,10 +11211,10 @@
         <v>759</v>
       </c>
       <c r="Z297" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AA297" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="298" spans="1:27">
@@ -11234,10 +11234,10 @@
         <v>760</v>
       </c>
       <c r="Z298" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AA298" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="299" spans="1:27">
@@ -11263,10 +11263,10 @@
         <v>770</v>
       </c>
       <c r="Z299" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AA299" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="300" spans="1:27">
@@ -11298,7 +11298,7 @@
         <v>769</v>
       </c>
       <c r="Z300" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AA300">
         <v>1</v>
@@ -11318,10 +11318,10 @@
         <v>771</v>
       </c>
       <c r="Z301" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AA301" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="302" spans="1:27">
@@ -11341,10 +11341,10 @@
         <v>772</v>
       </c>
       <c r="Z302" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AA302" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="303" spans="1:27">
@@ -11361,10 +11361,10 @@
         <v>773</v>
       </c>
       <c r="Z303" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AA303" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="304" spans="1:27">
@@ -11381,10 +11381,10 @@
         <v>774</v>
       </c>
       <c r="Z304" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AA304" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="305" spans="1:27">
@@ -11413,10 +11413,10 @@
         <v>781</v>
       </c>
       <c r="Z305" t="s">
+        <v>955</v>
+      </c>
+      <c r="AA305" t="s">
         <v>956</v>
-      </c>
-      <c r="AA305" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="306" spans="1:27">
@@ -11445,10 +11445,10 @@
         <v>782</v>
       </c>
       <c r="Z306" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AA306" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="307" spans="1:27">
@@ -11465,10 +11465,10 @@
         <v>784</v>
       </c>
       <c r="Z307" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AA307" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="308" spans="1:27">
@@ -11485,10 +11485,10 @@
         <v>785</v>
       </c>
       <c r="Z308" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AA308" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="309" spans="1:27">
@@ -11511,10 +11511,10 @@
         <v>786</v>
       </c>
       <c r="Z309" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AA309" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="310" spans="1:27">
@@ -11531,10 +11531,10 @@
         <v>787</v>
       </c>
       <c r="Z310" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AA310" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="311" spans="1:27">
@@ -11563,10 +11563,10 @@
         <v>795</v>
       </c>
       <c r="Z311" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AA311" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="312" spans="1:27">
@@ -11598,7 +11598,7 @@
         <v>795</v>
       </c>
       <c r="Z312" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="AA312">
         <v>1</v>
@@ -11621,10 +11621,10 @@
         <v>798</v>
       </c>
       <c r="Z313" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AA313" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="314" spans="1:27">
@@ -11641,10 +11641,10 @@
         <v>799</v>
       </c>
       <c r="Z314" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AA314" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="315" spans="1:27">
@@ -11664,10 +11664,10 @@
         <v>800</v>
       </c>
       <c r="Z315" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AA315" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="316" spans="1:27">
@@ -11687,10 +11687,10 @@
         <v>801</v>
       </c>
       <c r="Z316" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AA316" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="317" spans="1:27">
@@ -11701,7 +11701,7 @@
         <v>803</v>
       </c>
       <c r="G317" t="s">
-        <v>804</v>
+        <v>1087</v>
       </c>
       <c r="H317">
         <v>5</v>
@@ -11710,13 +11710,13 @@
         <v>4</v>
       </c>
       <c r="W317" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="Z317" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA317" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="318" spans="1:27">
@@ -11730,7 +11730,7 @@
         <v>803</v>
       </c>
       <c r="G318" t="s">
-        <v>804</v>
+        <v>1087</v>
       </c>
       <c r="H318">
         <v>5</v>
@@ -11742,10 +11742,10 @@
         <v>1</v>
       </c>
       <c r="W318" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Z318" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="AA318">
         <v>1</v>
@@ -11753,7 +11753,7 @@
     </row>
     <row r="319" spans="1:27">
       <c r="A319" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B319" t="s">
         <v>802</v>
@@ -11762,18 +11762,18 @@
         <v>803</v>
       </c>
       <c r="W319" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="Z319" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA319" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="320" spans="1:27">
       <c r="A320" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B320" t="s">
         <v>802</v>
@@ -11785,18 +11785,18 @@
         <v>2</v>
       </c>
       <c r="W320" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="Z320" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA320" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="321" spans="1:27">
       <c r="A321" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B321" t="s">
         <v>802</v>
@@ -11808,18 +11808,18 @@
         <v>1</v>
       </c>
       <c r="W321" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="Z321" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA321" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="322" spans="1:27">
       <c r="A322" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B322" t="s">
         <v>802</v>
@@ -11831,24 +11831,24 @@
         <v>728</v>
       </c>
       <c r="W322" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="Z322" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA322" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="323" spans="1:27">
       <c r="A323" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E323" t="s">
         <v>5</v>
       </c>
       <c r="F323" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H323">
         <v>6</v>
@@ -11857,13 +11857,13 @@
         <v>8</v>
       </c>
       <c r="W323" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="X323" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="Z323" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AA323">
         <v>1</v>
@@ -11871,7 +11871,7 @@
     </row>
     <row r="324" spans="1:27">
       <c r="A324" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C324">
         <v>1</v>
@@ -11880,7 +11880,7 @@
         <v>5</v>
       </c>
       <c r="F324" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H324">
         <v>6</v>
@@ -11892,13 +11892,13 @@
         <v>1</v>
       </c>
       <c r="W324" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="X324" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="Z324" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="AA324">
         <v>1</v>
@@ -11906,10 +11906,10 @@
     </row>
     <row r="325" spans="1:27">
       <c r="A325" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B325" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E325" t="s">
         <v>5</v>
@@ -11918,41 +11918,41 @@
         <v>1</v>
       </c>
       <c r="W325" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="Z325" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AA325" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="326" spans="1:27">
       <c r="A326" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B326" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E326" t="s">
         <v>5</v>
       </c>
       <c r="W326" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="Z326" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AA326" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="327" spans="1:27">
       <c r="A327" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B327" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E327" t="s">
         <v>5</v>
@@ -11961,21 +11961,21 @@
         <v>1</v>
       </c>
       <c r="W327" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="Z327" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AA327" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="328" spans="1:27">
       <c r="A328" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B328" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E328" t="s">
         <v>5</v>
@@ -11984,24 +11984,24 @@
         <v>1</v>
       </c>
       <c r="W328" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="Z328" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AA328" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="329" spans="1:27">
       <c r="A329" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E329" t="s">
         <v>5</v>
       </c>
       <c r="F329" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H329">
         <v>6</v>
@@ -12010,13 +12010,13 @@
         <v>9</v>
       </c>
       <c r="W329" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="X329" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Z329" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AA329">
         <v>1</v>
@@ -12024,7 +12024,7 @@
     </row>
     <row r="330" spans="1:27">
       <c r="A330" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C330">
         <v>1</v>
@@ -12033,7 +12033,7 @@
         <v>5</v>
       </c>
       <c r="F330" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H330">
         <v>6</v>
@@ -12042,13 +12042,13 @@
         <v>10</v>
       </c>
       <c r="W330" t="s">
+        <v>831</v>
+      </c>
+      <c r="X330" t="s">
         <v>832</v>
       </c>
-      <c r="X330" t="s">
-        <v>833</v>
-      </c>
       <c r="Z330" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="AA330">
         <v>1</v>
@@ -12056,30 +12056,30 @@
     </row>
     <row r="331" spans="1:27">
       <c r="A331" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B331" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E331" t="s">
         <v>5</v>
       </c>
       <c r="W331" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="Z331" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AA331" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="332" spans="1:27">
       <c r="A332" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B332" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E332" t="s">
         <v>5</v>
@@ -12091,41 +12091,41 @@
         <v>1</v>
       </c>
       <c r="W332" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="Z332" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AA332" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="333" spans="1:27">
       <c r="A333" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B333" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E333" t="s">
         <v>5</v>
       </c>
       <c r="W333" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="Z333" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AA333" t="s">
         <v>1035</v>
-      </c>
-      <c r="AA333" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="334" spans="1:27">
       <c r="A334" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B334" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E334" t="s">
         <v>5</v>
@@ -12137,24 +12137,24 @@
         <v>1</v>
       </c>
       <c r="W334" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="Z334" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AA334" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="335" spans="1:27">
       <c r="A335" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E335" t="s">
         <v>5</v>
       </c>
       <c r="G335" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H335">
         <v>6</v>
@@ -12169,13 +12169,13 @@
         <v>2</v>
       </c>
       <c r="W335" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="X335" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="Z335" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AA335">
         <v>1</v>
@@ -12183,7 +12183,7 @@
     </row>
     <row r="336" spans="1:27">
       <c r="A336" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C336">
         <v>1</v>
@@ -12192,7 +12192,7 @@
         <v>5</v>
       </c>
       <c r="G336" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H336">
         <v>6</v>
@@ -12207,13 +12207,13 @@
         <v>2</v>
       </c>
       <c r="W336" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="X336" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="Z336" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AA336">
         <v>1</v>
@@ -12221,30 +12221,30 @@
     </row>
     <row r="337" spans="1:27">
       <c r="A337" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B337" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E337" t="s">
         <v>5</v>
       </c>
       <c r="W337" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="Z337" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AA337" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="338" spans="1:27">
       <c r="A338" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B338" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E338" t="s">
         <v>5</v>
@@ -12253,21 +12253,21 @@
         <v>1</v>
       </c>
       <c r="W338" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="Z338" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AA338" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="339" spans="1:27">
       <c r="A339" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B339" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E339" t="s">
         <v>5</v>
@@ -12279,21 +12279,21 @@
         <v>1</v>
       </c>
       <c r="W339" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="Z339" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AA339" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="340" spans="1:27">
       <c r="A340" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B340" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E340" t="s">
         <v>5</v>
@@ -12302,27 +12302,27 @@
         <v>2</v>
       </c>
       <c r="W340" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Z340" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AA340" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="341" spans="1:27">
       <c r="A341" t="s">
+        <v>855</v>
+      </c>
+      <c r="E341" t="s">
         <v>856</v>
       </c>
-      <c r="E341" t="s">
-        <v>857</v>
-      </c>
       <c r="F341" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="W341" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="342" spans="1:27">
@@ -12330,10 +12330,10 @@
         <v>145</v>
       </c>
       <c r="B342" t="s">
+        <v>855</v>
+      </c>
+      <c r="E342" t="s">
         <v>856</v>
-      </c>
-      <c r="E342" t="s">
-        <v>857</v>
       </c>
       <c r="H342">
         <v>6</v>
@@ -12345,27 +12345,27 @@
         <v>2</v>
       </c>
       <c r="W342" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="X342" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="Z342" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AA342" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="343" spans="1:27">
       <c r="A343" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B343" t="s">
+        <v>855</v>
+      </c>
+      <c r="E343" t="s">
         <v>856</v>
-      </c>
-      <c r="E343" t="s">
-        <v>857</v>
       </c>
       <c r="H343">
         <v>6</v>
@@ -12377,16 +12377,16 @@
         <v>1</v>
       </c>
       <c r="W343" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="X343" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="Z343" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AA343" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="344" spans="1:27">
@@ -12394,10 +12394,10 @@
         <v>36</v>
       </c>
       <c r="B344" t="s">
+        <v>855</v>
+      </c>
+      <c r="E344" t="s">
         <v>856</v>
-      </c>
-      <c r="E344" t="s">
-        <v>857</v>
       </c>
       <c r="H344">
         <v>6</v>
@@ -12406,16 +12406,16 @@
         <v>6</v>
       </c>
       <c r="W344" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="X344" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Z344" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AA344" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="345" spans="1:27">
@@ -12423,10 +12423,10 @@
         <v>48</v>
       </c>
       <c r="B345" t="s">
+        <v>855</v>
+      </c>
+      <c r="E345" t="s">
         <v>856</v>
-      </c>
-      <c r="E345" t="s">
-        <v>857</v>
       </c>
       <c r="H345">
         <v>6</v>
@@ -12438,42 +12438,42 @@
         <v>1</v>
       </c>
       <c r="W345" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="X345" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="Z345" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AA345" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="346" spans="1:27">
       <c r="A346" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E346" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F346" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="W346" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="X346" s="4"/>
     </row>
     <row r="347" spans="1:27">
       <c r="A347" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B347" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E347" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H347">
         <v>6</v>
@@ -12494,24 +12494,24 @@
         <v>1</v>
       </c>
       <c r="W347" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="Z347" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AA347" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="348" spans="1:27">
       <c r="A348" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B348" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E348" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H348">
         <v>6</v>
@@ -12523,24 +12523,24 @@
         <v>1</v>
       </c>
       <c r="W348" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Z348" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AA348" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="349" spans="1:27">
       <c r="A349" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B349" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E349" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H349">
         <v>6</v>
@@ -12552,24 +12552,24 @@
         <v>1</v>
       </c>
       <c r="W349" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="Z349" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AA349" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="350" spans="1:27">
       <c r="A350" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B350" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E350" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H350">
         <v>6</v>
@@ -12587,24 +12587,24 @@
         <v>1</v>
       </c>
       <c r="W350" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Z350" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AA350" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="351" spans="1:27">
       <c r="A351" t="s">
+        <v>875</v>
+      </c>
+      <c r="E351" t="s">
         <v>876</v>
       </c>
-      <c r="E351" t="s">
+      <c r="F351" t="s">
         <v>877</v>
-      </c>
-      <c r="F351" t="s">
-        <v>878</v>
       </c>
       <c r="H351">
         <v>6</v>
@@ -12616,10 +12616,10 @@
         <v>1</v>
       </c>
       <c r="W351" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="Z351" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AA351">
         <v>1</v>
@@ -12627,16 +12627,16 @@
     </row>
     <row r="352" spans="1:27">
       <c r="A352" t="s">
+        <v>875</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="E352" t="s">
         <v>876</v>
       </c>
-      <c r="C352">
-        <v>1</v>
-      </c>
-      <c r="E352" t="s">
+      <c r="F352" t="s">
         <v>877</v>
-      </c>
-      <c r="F352" t="s">
-        <v>878</v>
       </c>
       <c r="H352">
         <v>6</v>
@@ -12648,10 +12648,10 @@
         <v>1</v>
       </c>
       <c r="W352" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="Z352" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AA352">
         <v>1</v>
@@ -12659,14 +12659,14 @@
     </row>
     <row r="353" spans="1:27">
       <c r="A353" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B353" t="s">
+        <v>875</v>
+      </c>
+      <c r="E353" t="s">
         <v>876</v>
       </c>
-      <c r="E353" t="s">
-        <v>877</v>
-      </c>
       <c r="T353">
         <v>1</v>
       </c>
@@ -12674,25 +12674,25 @@
         <v>1</v>
       </c>
       <c r="W353" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Z353" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AA353" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="354" spans="1:27">
       <c r="A354" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B354" t="s">
+        <v>875</v>
+      </c>
+      <c r="E354" t="s">
         <v>876</v>
       </c>
-      <c r="E354" t="s">
-        <v>877</v>
-      </c>
       <c r="T354">
         <v>1</v>
       </c>
@@ -12700,25 +12700,25 @@
         <v>1</v>
       </c>
       <c r="W354" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Z354" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AA354" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="355" spans="1:27">
       <c r="A355" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B355" t="s">
+        <v>875</v>
+      </c>
+      <c r="E355" t="s">
         <v>876</v>
       </c>
-      <c r="E355" t="s">
-        <v>877</v>
-      </c>
       <c r="R355">
         <v>1</v>
       </c>
@@ -12726,47 +12726,47 @@
         <v>1</v>
       </c>
       <c r="W355" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Z355" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AA355" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="356" spans="1:27">
       <c r="A356" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B356" t="s">
+        <v>875</v>
+      </c>
+      <c r="E356" t="s">
         <v>876</v>
-      </c>
-      <c r="E356" t="s">
-        <v>877</v>
       </c>
       <c r="N356">
         <v>2</v>
       </c>
       <c r="W356" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="Z356" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AA356" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="357" spans="1:27">
       <c r="A357" t="s">
+        <v>885</v>
+      </c>
+      <c r="E357" t="s">
+        <v>876</v>
+      </c>
+      <c r="F357" t="s">
         <v>886</v>
-      </c>
-      <c r="E357" t="s">
-        <v>877</v>
-      </c>
-      <c r="F357" t="s">
-        <v>887</v>
       </c>
       <c r="H357">
         <v>6</v>
@@ -12781,13 +12781,13 @@
         <v>1</v>
       </c>
       <c r="W357" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="X357" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="Z357" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AA357">
         <v>1</v>
@@ -12795,16 +12795,16 @@
     </row>
     <row r="358" spans="1:27">
       <c r="A358" t="s">
+        <v>885</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="E358" t="s">
+        <v>876</v>
+      </c>
+      <c r="F358" t="s">
         <v>886</v>
-      </c>
-      <c r="C358">
-        <v>1</v>
-      </c>
-      <c r="E358" t="s">
-        <v>877</v>
-      </c>
-      <c r="F358" t="s">
-        <v>887</v>
       </c>
       <c r="H358">
         <v>6</v>
@@ -12819,13 +12819,13 @@
         <v>1</v>
       </c>
       <c r="W358" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="X358" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="Z358" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="AA358">
         <v>1</v>
@@ -12833,105 +12833,105 @@
     </row>
     <row r="359" spans="1:27">
       <c r="A359" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B359" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E359" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="U359">
         <v>1</v>
       </c>
       <c r="W359" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="Z359" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AA359" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="360" spans="1:27">
       <c r="A360" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B360" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E360" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="U360">
         <v>1</v>
       </c>
       <c r="W360" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="Z360" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AA360" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="361" spans="1:27">
       <c r="A361" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B361" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E361" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="T361">
         <v>1</v>
       </c>
       <c r="W361" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="Z361" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AA361" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="362" spans="1:27">
       <c r="A362" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B362" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E362" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="T362">
         <v>1</v>
       </c>
       <c r="W362" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="Z362" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AA362" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="363" spans="1:27">
       <c r="A363" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E363" t="s">
+        <v>897</v>
+      </c>
+      <c r="F363" t="s">
         <v>898</v>
-      </c>
-      <c r="F363" t="s">
-        <v>899</v>
       </c>
       <c r="H363">
         <v>6</v>
@@ -12940,13 +12940,13 @@
         <v>8</v>
       </c>
       <c r="W363" t="s">
+        <v>899</v>
+      </c>
+      <c r="X363" t="s">
         <v>900</v>
       </c>
-      <c r="X363" t="s">
-        <v>901</v>
-      </c>
       <c r="Z363" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="AA363">
         <v>1</v>
@@ -12954,16 +12954,16 @@
     </row>
     <row r="364" spans="1:27">
       <c r="A364" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C364">
         <v>1</v>
       </c>
       <c r="E364" t="s">
+        <v>897</v>
+      </c>
+      <c r="F364" t="s">
         <v>898</v>
-      </c>
-      <c r="F364" t="s">
-        <v>899</v>
       </c>
       <c r="H364">
         <v>6</v>
@@ -12972,13 +12972,13 @@
         <v>9</v>
       </c>
       <c r="W364" t="s">
+        <v>899</v>
+      </c>
+      <c r="X364" t="s">
         <v>900</v>
       </c>
-      <c r="X364" t="s">
-        <v>901</v>
-      </c>
       <c r="Z364" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AA364">
         <v>1</v>
@@ -12986,53 +12986,53 @@
     </row>
     <row r="365" spans="1:27">
       <c r="A365" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B365" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E365" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="W365" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="Z365" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AA365" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="366" spans="1:27">
       <c r="A366" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B366" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E366" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="W366" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="Z366" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AA366" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="367" spans="1:27">
       <c r="A367" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B367" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E367" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="O367" t="s">
         <v>59</v>
@@ -13044,44 +13044,44 @@
         <v>1</v>
       </c>
       <c r="W367" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="Z367" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AA367" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="368" spans="1:27">
       <c r="A368" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B368" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E368" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="W368" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="Z368" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AA368" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="369" spans="1:27">
       <c r="A369" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E369" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F369" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H369">
         <v>6</v>
@@ -13093,13 +13093,13 @@
         <v>2</v>
       </c>
       <c r="W369" t="s">
+        <v>910</v>
+      </c>
+      <c r="X369" t="s">
         <v>911</v>
       </c>
-      <c r="X369" t="s">
-        <v>912</v>
-      </c>
       <c r="Z369" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AA369">
         <v>1</v>
@@ -13107,16 +13107,16 @@
     </row>
     <row r="370" spans="1:27">
       <c r="A370" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C370">
         <v>1</v>
       </c>
       <c r="E370" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F370" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H370">
         <v>6</v>
@@ -13128,13 +13128,13 @@
         <v>2</v>
       </c>
       <c r="W370" t="s">
+        <v>910</v>
+      </c>
+      <c r="X370" t="s">
         <v>911</v>
       </c>
-      <c r="X370" t="s">
-        <v>912</v>
-      </c>
       <c r="Z370" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AA370">
         <v>1</v>
@@ -13142,102 +13142,102 @@
     </row>
     <row r="371" spans="1:27">
       <c r="A371" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B371" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E371" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="R371">
         <v>2</v>
       </c>
       <c r="W371" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="Z371" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AA371" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="372" spans="1:27">
       <c r="A372" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B372" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E372" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="R372">
         <v>2</v>
       </c>
       <c r="W372" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="Z372" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AA372" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="373" spans="1:27">
       <c r="A373" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B373" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E373" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="R373">
         <v>2</v>
       </c>
       <c r="W373" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="Z373" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AA373" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="374" spans="1:27">
       <c r="A374" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B374" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E374" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="W374" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="Z374" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AA374" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="375" spans="1:27">
       <c r="A375" t="s">
+        <v>929</v>
+      </c>
+      <c r="E375" t="s">
         <v>930</v>
       </c>
-      <c r="E375" t="s">
+      <c r="G375" t="s">
         <v>931</v>
-      </c>
-      <c r="G375" t="s">
-        <v>932</v>
       </c>
       <c r="H375">
         <v>6</v>
@@ -13252,10 +13252,10 @@
         <v>1</v>
       </c>
       <c r="Y375" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="Z375" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AA375">
         <v>1</v>
@@ -13263,16 +13263,16 @@
     </row>
     <row r="376" spans="1:27">
       <c r="A376" t="s">
+        <v>929</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="E376" t="s">
         <v>930</v>
       </c>
-      <c r="C376">
-        <v>1</v>
-      </c>
-      <c r="E376" t="s">
+      <c r="G376" t="s">
         <v>931</v>
-      </c>
-      <c r="G376" t="s">
-        <v>932</v>
       </c>
       <c r="H376">
         <v>6</v>
@@ -13287,10 +13287,10 @@
         <v>2</v>
       </c>
       <c r="Y376" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="Z376" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AA376">
         <v>1</v>
@@ -13298,99 +13298,99 @@
     </row>
     <row r="377" spans="1:27">
       <c r="A377" t="s">
+        <v>932</v>
+      </c>
+      <c r="B377" t="s">
+        <v>929</v>
+      </c>
+      <c r="E377" t="s">
+        <v>930</v>
+      </c>
+      <c r="Y377" t="s">
         <v>933</v>
       </c>
-      <c r="B377" t="s">
-        <v>930</v>
-      </c>
-      <c r="E377" t="s">
-        <v>931</v>
-      </c>
-      <c r="Y377" t="s">
-        <v>934</v>
-      </c>
       <c r="Z377" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AA377" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="378" spans="1:27">
       <c r="A378" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B378" t="s">
+        <v>929</v>
+      </c>
+      <c r="E378" t="s">
         <v>930</v>
       </c>
-      <c r="E378" t="s">
-        <v>931</v>
-      </c>
       <c r="K378">
         <v>1</v>
       </c>
       <c r="Y378" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="Z378" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AA378" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="379" spans="1:27">
       <c r="A379" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B379" t="s">
+        <v>929</v>
+      </c>
+      <c r="E379" t="s">
         <v>930</v>
       </c>
-      <c r="E379" t="s">
-        <v>931</v>
-      </c>
       <c r="Y379" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="Z379" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AA379" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="380" spans="1:27">
       <c r="A380" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B380" t="s">
+        <v>929</v>
+      </c>
+      <c r="E380" t="s">
         <v>930</v>
       </c>
-      <c r="E380" t="s">
-        <v>931</v>
-      </c>
       <c r="U380">
         <v>1</v>
       </c>
       <c r="Y380" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="Z380" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AA380" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="381" spans="1:27">
       <c r="A381" t="s">
+        <v>937</v>
+      </c>
+      <c r="E381" t="s">
+        <v>930</v>
+      </c>
+      <c r="F381" t="s">
         <v>938</v>
-      </c>
-      <c r="E381" t="s">
-        <v>931</v>
-      </c>
-      <c r="F381" t="s">
-        <v>939</v>
       </c>
       <c r="H381">
         <v>6</v>
@@ -13402,7 +13402,7 @@
         <v>1</v>
       </c>
       <c r="Z381" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AA381">
         <v>1</v>
@@ -13410,16 +13410,16 @@
     </row>
     <row r="382" spans="1:27">
       <c r="A382" t="s">
+        <v>937</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="E382" t="s">
+        <v>930</v>
+      </c>
+      <c r="F382" t="s">
         <v>938</v>
-      </c>
-      <c r="C382">
-        <v>1</v>
-      </c>
-      <c r="E382" t="s">
-        <v>931</v>
-      </c>
-      <c r="F382" t="s">
-        <v>939</v>
       </c>
       <c r="H382">
         <v>6</v>
@@ -13431,7 +13431,7 @@
         <v>1</v>
       </c>
       <c r="Z382" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="AA382">
         <v>1</v>
@@ -13439,13 +13439,13 @@
     </row>
     <row r="383" spans="1:27">
       <c r="A383" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B383" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E383" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="K383">
         <v>1</v>
@@ -13454,41 +13454,41 @@
         <v>1</v>
       </c>
       <c r="Z383" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AA383" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="384" spans="1:27">
       <c r="A384" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B384" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E384" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="M384">
         <v>1</v>
       </c>
       <c r="Z384" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AA384" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="385" spans="1:27">
       <c r="A385" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B385" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E385" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J385">
         <v>1</v>
@@ -13500,41 +13500,41 @@
         <v>1</v>
       </c>
       <c r="Z385" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AA385" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="386" spans="1:27">
       <c r="A386" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B386" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E386" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L386">
         <v>1</v>
       </c>
       <c r="Z386" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AA386" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="387" spans="1:27">
       <c r="A387" t="s">
+        <v>943</v>
+      </c>
+      <c r="E387" t="s">
+        <v>930</v>
+      </c>
+      <c r="F387" t="s">
         <v>944</v>
-      </c>
-      <c r="E387" t="s">
-        <v>931</v>
-      </c>
-      <c r="F387" t="s">
-        <v>945</v>
       </c>
       <c r="H387">
         <v>7</v>
@@ -13543,7 +13543,7 @@
         <v>21</v>
       </c>
       <c r="Z387" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AA387">
         <v>1</v>
@@ -13551,16 +13551,16 @@
     </row>
     <row r="388" spans="1:27">
       <c r="A388" t="s">
+        <v>943</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="E388" t="s">
+        <v>930</v>
+      </c>
+      <c r="F388" t="s">
         <v>944</v>
-      </c>
-      <c r="C388">
-        <v>1</v>
-      </c>
-      <c r="E388" t="s">
-        <v>931</v>
-      </c>
-      <c r="F388" t="s">
-        <v>945</v>
       </c>
       <c r="H388">
         <v>7</v>
@@ -13569,7 +13569,7 @@
         <v>24</v>
       </c>
       <c r="Z388" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AA388">
         <v>1</v>
@@ -13577,85 +13577,85 @@
     </row>
     <row r="389" spans="1:27">
       <c r="A389" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B389" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E389" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="R389">
         <v>1</v>
       </c>
       <c r="X389" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="Z389" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AA389" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="390" spans="1:27">
       <c r="A390" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B390" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E390" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="X390" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="Z390" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AA390" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="391" spans="1:27">
       <c r="A391" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B391" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E391" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="Q391">
         <v>1</v>
       </c>
       <c r="Z391" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AA391" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="392" spans="1:27">
       <c r="A392" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B392" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E392" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="U392">
         <v>1</v>
       </c>
       <c r="Z392" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AA392" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
   </sheetData>

--- a/data/masterminds.xlsx
+++ b/data/masterminds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="1112">
   <si>
     <t>Name</t>
   </si>
@@ -3279,6 +3279,78 @@
   </si>
   <si>
     <t>Spider-Slayer</t>
+  </si>
+  <si>
+    <t>ROK</t>
+  </si>
+  <si>
+    <t>Emperor Vulcan of the Shi'ar</t>
+  </si>
+  <si>
+    <t>Shi'ar Imperial Elite</t>
+  </si>
+  <si>
+    <t>Contempt for Weakness</t>
+  </si>
+  <si>
+    <t>Solar Cage</t>
+  </si>
+  <si>
+    <t>Blast every form of energy</t>
+  </si>
+  <si>
+    <t>Vast wealth of the Shi'ar</t>
+  </si>
+  <si>
+    <t>Throne's favor</t>
+  </si>
+  <si>
+    <t>Maximus the Mad</t>
+  </si>
+  <si>
+    <t>Inhuman Rebellion</t>
+  </si>
+  <si>
+    <t>Seize the inhuman throne</t>
+  </si>
+  <si>
+    <t>Terrigen bomb</t>
+  </si>
+  <si>
+    <t>Echo-tech chorus sentries</t>
+  </si>
+  <si>
+    <t>Sieve of secrets</t>
+  </si>
+  <si>
+    <t>vulcan,jpg</t>
+  </si>
+  <si>
+    <t>evulcan,jpg</t>
+  </si>
+  <si>
+    <t>vulcantactics,jpg</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>max,jpg</t>
+  </si>
+  <si>
+    <t>emax,jpg</t>
+  </si>
+  <si>
+    <t>maxtactics,jpg</t>
   </si>
 </sst>
 </file>
@@ -3624,13 +3696,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA392"/>
+  <dimension ref="A1:AA404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B298" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R373" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G320" sqref="G320"/>
+      <selection pane="bottomRight" activeCell="AA401" sqref="AA401:AA404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13658,6 +13730,270 @@
         <v>972</v>
       </c>
     </row>
+    <row r="393" spans="1:27">
+      <c r="A393" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E393" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F393" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H393">
+        <v>6</v>
+      </c>
+      <c r="I393">
+        <v>10</v>
+      </c>
+      <c r="W393" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Z393" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AA393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:27">
+      <c r="A394" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="E394" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F394" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H394">
+        <v>6</v>
+      </c>
+      <c r="I394">
+        <v>12</v>
+      </c>
+      <c r="W394" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Z394" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AA394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:27">
+      <c r="A395" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E395" t="s">
+        <v>1088</v>
+      </c>
+      <c r="W395" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Z395" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AA395" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="396" spans="1:27">
+      <c r="A396" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E396" t="s">
+        <v>1088</v>
+      </c>
+      <c r="Q396">
+        <v>1</v>
+      </c>
+      <c r="W396" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Z396" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AA396" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="397" spans="1:27">
+      <c r="A397" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E397" t="s">
+        <v>1088</v>
+      </c>
+      <c r="W397" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Z397" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AA397" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="398" spans="1:27">
+      <c r="A398" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E398" t="s">
+        <v>1088</v>
+      </c>
+      <c r="W398" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Z398" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AA398" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="399" spans="1:27">
+      <c r="A399" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E399" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F399" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H399">
+        <v>6</v>
+      </c>
+      <c r="I399">
+        <v>8</v>
+      </c>
+      <c r="Z399" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AA399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:27">
+      <c r="A400" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="E400" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F400" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H400">
+        <v>6</v>
+      </c>
+      <c r="I400">
+        <v>9</v>
+      </c>
+      <c r="Z400" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AA400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:27">
+      <c r="A401" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E401" t="s">
+        <v>1088</v>
+      </c>
+      <c r="Z401" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AA401" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="402" spans="1:27">
+      <c r="A402" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E402" t="s">
+        <v>1088</v>
+      </c>
+      <c r="R402">
+        <v>1</v>
+      </c>
+      <c r="Z402" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AA402" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="403" spans="1:27">
+      <c r="A403" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E403" t="s">
+        <v>1088</v>
+      </c>
+      <c r="Q403">
+        <v>1</v>
+      </c>
+      <c r="R403">
+        <v>1</v>
+      </c>
+      <c r="Z403" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AA403" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="404" spans="1:27">
+      <c r="A404" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E404" t="s">
+        <v>1088</v>
+      </c>
+      <c r="Z404" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AA404" t="s">
+        <v>1108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/masterminds.xlsx
+++ b/data/masterminds.xlsx
@@ -3699,10 +3699,10 @@
   <dimension ref="A1:AA404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R373" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B156" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA401" sqref="AA401:AA404"/>
+      <selection pane="bottomRight" activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7567,9 +7567,6 @@
       <c r="B148" t="s">
         <v>137</v>
       </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
       <c r="E148" t="s">
         <v>32</v>
       </c>

--- a/data/masterminds.xlsx
+++ b/data/masterminds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="1115">
   <si>
     <t>Name</t>
   </si>
@@ -3351,6 +3351,15 @@
   </si>
   <si>
     <t>maxtactics,jpg</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -3394,7 +3403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3402,6 +3411,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -3699,10 +3711,10 @@
   <dimension ref="A1:AA404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B276" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C148" sqref="C148"/>
+      <selection pane="bottomRight" activeCell="I356" sqref="I356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3714,7 +3726,7 @@
     <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.28515625" customWidth="1"/>
     <col min="8" max="8" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="2.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.140625" bestFit="1" customWidth="1"/>
@@ -3757,7 +3769,7 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -3831,7 +3843,7 @@
       <c r="H2" s="2">
         <v>6</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="6">
         <v>12</v>
       </c>
       <c r="J2" s="1"/>
@@ -3982,7 +3994,7 @@
       <c r="H7">
         <v>5</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="7">
         <v>3</v>
       </c>
       <c r="U7">
@@ -4017,7 +4029,7 @@
       <c r="H8">
         <v>5</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="7">
         <v>4</v>
       </c>
       <c r="U8">
@@ -4156,7 +4168,7 @@
       <c r="H13">
         <v>6</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="7">
         <v>6</v>
       </c>
       <c r="W13" s="3" t="s">
@@ -4283,7 +4295,7 @@
       <c r="H18">
         <v>6</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="7">
         <v>12</v>
       </c>
       <c r="W18" t="s">
@@ -4416,7 +4428,7 @@
       <c r="H23">
         <v>6</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="7">
         <v>9</v>
       </c>
       <c r="Q23">
@@ -4555,7 +4567,7 @@
       <c r="H28">
         <v>6</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="7">
         <v>16</v>
       </c>
       <c r="N28">
@@ -4688,7 +4700,7 @@
       <c r="H33">
         <v>6</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="7">
         <v>9</v>
       </c>
       <c r="Q33">
@@ -4815,7 +4827,7 @@
       <c r="H38">
         <v>6</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="7">
         <v>8</v>
       </c>
       <c r="U38">
@@ -4945,7 +4957,7 @@
       <c r="H43">
         <v>7</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="7">
         <v>13</v>
       </c>
       <c r="R43">
@@ -4980,7 +4992,7 @@
       <c r="H44">
         <v>7</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="7">
         <v>15</v>
       </c>
       <c r="R44">
@@ -5095,7 +5107,7 @@
       <c r="H49">
         <v>6</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="7">
         <v>8</v>
       </c>
       <c r="Q49">
@@ -5133,7 +5145,7 @@
       <c r="H50">
         <v>6</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="7">
         <v>10</v>
       </c>
       <c r="T50">
@@ -5266,7 +5278,7 @@
       <c r="H55">
         <v>5</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="7">
         <v>9</v>
       </c>
       <c r="N55">
@@ -5381,7 +5393,7 @@
       <c r="H60">
         <v>6</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="7">
         <v>11</v>
       </c>
       <c r="Q60">
@@ -5505,7 +5517,7 @@
       <c r="H65">
         <v>7</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="7">
         <v>20</v>
       </c>
       <c r="R65">
@@ -5629,7 +5641,7 @@
       <c r="H70">
         <v>5</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="7">
         <v>7</v>
       </c>
       <c r="W70" t="s">
@@ -5756,7 +5768,7 @@
       <c r="H75">
         <v>6</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="7">
         <v>12</v>
       </c>
       <c r="Q75">
@@ -5880,7 +5892,7 @@
       <c r="H80">
         <v>6</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="7">
         <v>13</v>
       </c>
       <c r="O80" t="s">
@@ -6004,7 +6016,7 @@
       <c r="H85">
         <v>5</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="7">
         <v>10</v>
       </c>
       <c r="L85">
@@ -6119,7 +6131,7 @@
       <c r="H90">
         <v>6</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="7">
         <v>9</v>
       </c>
       <c r="Q90">
@@ -6231,7 +6243,7 @@
       <c r="H95">
         <v>6</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="7">
         <v>10</v>
       </c>
       <c r="Q95">
@@ -6364,7 +6376,7 @@
       <c r="H100">
         <v>5</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="7">
         <v>8</v>
       </c>
       <c r="O100" t="s">
@@ -6503,7 +6515,7 @@
       <c r="H105">
         <v>6</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="7">
         <v>7</v>
       </c>
       <c r="T105">
@@ -6621,7 +6633,7 @@
       <c r="H110">
         <v>6</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="7">
         <v>10</v>
       </c>
       <c r="O110" t="s">
@@ -6748,7 +6760,7 @@
       <c r="H115">
         <v>6</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="7">
         <v>14</v>
       </c>
       <c r="Q115">
@@ -6878,7 +6890,7 @@
       <c r="H120">
         <v>5</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="7">
         <v>6</v>
       </c>
       <c r="N120">
@@ -6919,7 +6931,7 @@
       <c r="H121">
         <v>5</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="7">
         <v>7</v>
       </c>
       <c r="N121">
@@ -7052,7 +7064,7 @@
       <c r="H126">
         <v>6</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="7">
         <v>7</v>
       </c>
       <c r="Q126">
@@ -7170,7 +7182,7 @@
       <c r="H131">
         <v>6</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="7">
         <v>8</v>
       </c>
       <c r="K131">
@@ -7285,7 +7297,7 @@
       <c r="H136">
         <v>6</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="7">
         <v>8</v>
       </c>
       <c r="W136" t="s">
@@ -7394,7 +7406,7 @@
       <c r="H141">
         <v>6</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="7">
         <v>6</v>
       </c>
       <c r="N141">
@@ -7506,7 +7518,7 @@
       <c r="H146">
         <v>7</v>
       </c>
-      <c r="I146">
+      <c r="I146" s="7">
         <v>10</v>
       </c>
       <c r="R146">
@@ -7541,7 +7553,7 @@
       <c r="H147">
         <v>7</v>
       </c>
-      <c r="I147">
+      <c r="I147" s="7">
         <v>12</v>
       </c>
       <c r="R147">
@@ -7674,7 +7686,7 @@
       <c r="H152">
         <v>6</v>
       </c>
-      <c r="I152">
+      <c r="I152" s="7">
         <v>6</v>
       </c>
       <c r="W152" t="s">
@@ -7789,7 +7801,7 @@
       <c r="H157">
         <v>5</v>
       </c>
-      <c r="I157">
+      <c r="I157" s="7">
         <v>7</v>
       </c>
       <c r="R157">
@@ -7898,7 +7910,7 @@
       <c r="H162">
         <v>6</v>
       </c>
-      <c r="I162">
+      <c r="I162" s="7">
         <v>7</v>
       </c>
       <c r="R162">
@@ -7930,7 +7942,7 @@
       <c r="H163">
         <v>6</v>
       </c>
-      <c r="I163">
+      <c r="I163" s="7">
         <v>9</v>
       </c>
       <c r="R163">
@@ -8048,7 +8060,7 @@
       <c r="H168">
         <v>6</v>
       </c>
-      <c r="I168">
+      <c r="I168" s="7">
         <v>9</v>
       </c>
       <c r="W168" t="s">
@@ -8154,7 +8166,7 @@
       <c r="H173">
         <v>6</v>
       </c>
-      <c r="I173">
+      <c r="I173" s="7">
         <v>8</v>
       </c>
       <c r="Q173">
@@ -8290,7 +8302,7 @@
       <c r="H178">
         <v>6</v>
       </c>
-      <c r="I178">
+      <c r="I178" s="7">
         <v>7</v>
       </c>
       <c r="O178" t="s">
@@ -8414,7 +8426,7 @@
       <c r="H183">
         <v>6</v>
       </c>
-      <c r="I183">
+      <c r="I183" s="7">
         <v>9</v>
       </c>
       <c r="W183" t="s">
@@ -8523,7 +8535,7 @@
       <c r="H188">
         <v>7</v>
       </c>
-      <c r="I188">
+      <c r="I188" s="7">
         <v>24</v>
       </c>
       <c r="W188" t="s">
@@ -8635,7 +8647,7 @@
       <c r="H193">
         <v>6</v>
       </c>
-      <c r="I193">
+      <c r="I193" s="7">
         <v>10</v>
       </c>
       <c r="Q193">
@@ -8762,7 +8774,7 @@
       <c r="H198">
         <v>6</v>
       </c>
-      <c r="I198">
+      <c r="I198" s="7">
         <v>7</v>
       </c>
       <c r="Q198">
@@ -8877,7 +8889,7 @@
       <c r="H203">
         <v>6</v>
       </c>
-      <c r="I203">
+      <c r="I203" s="7">
         <v>11</v>
       </c>
       <c r="R203">
@@ -9007,7 +9019,7 @@
       <c r="H208">
         <v>6</v>
       </c>
-      <c r="I208">
+      <c r="I208" s="7">
         <v>10</v>
       </c>
       <c r="Q208">
@@ -9131,7 +9143,7 @@
       <c r="H213">
         <v>6</v>
       </c>
-      <c r="I213">
+      <c r="I213" s="7">
         <v>8</v>
       </c>
       <c r="W213" t="s">
@@ -9243,7 +9255,7 @@
       <c r="H218">
         <v>6</v>
       </c>
-      <c r="I218">
+      <c r="I218" s="7">
         <v>7</v>
       </c>
       <c r="W218" t="s">
@@ -9364,7 +9376,7 @@
       <c r="H223">
         <v>6</v>
       </c>
-      <c r="I223">
+      <c r="I223" s="7">
         <v>9</v>
       </c>
       <c r="W223" t="s">
@@ -9476,7 +9488,7 @@
       <c r="H228">
         <v>6</v>
       </c>
-      <c r="I228">
+      <c r="I228" s="7">
         <v>8</v>
       </c>
       <c r="W228" t="s">
@@ -9600,7 +9612,7 @@
       <c r="H233">
         <v>7</v>
       </c>
-      <c r="I233">
+      <c r="I233" s="7">
         <v>20</v>
       </c>
       <c r="J233">
@@ -9647,7 +9659,7 @@
       <c r="H234">
         <v>7</v>
       </c>
-      <c r="I234">
+      <c r="I234" s="7">
         <v>24</v>
       </c>
       <c r="J234">
@@ -9795,7 +9807,7 @@
       <c r="H239">
         <v>6</v>
       </c>
-      <c r="I239">
+      <c r="I239" s="7">
         <v>6</v>
       </c>
       <c r="Q239">
@@ -9836,7 +9848,7 @@
       <c r="H240">
         <v>6</v>
       </c>
-      <c r="I240">
+      <c r="I240" s="7">
         <v>9</v>
       </c>
       <c r="Q240">
@@ -9951,7 +9963,7 @@
       <c r="H245">
         <v>7</v>
       </c>
-      <c r="I245">
+      <c r="I245" s="7">
         <v>11</v>
       </c>
       <c r="W245" t="s">
@@ -9983,7 +9995,7 @@
       <c r="H246">
         <v>7</v>
       </c>
-      <c r="I246">
+      <c r="I246" s="7">
         <v>13</v>
       </c>
       <c r="W246" t="s">
@@ -10113,7 +10125,7 @@
       <c r="H251">
         <v>6</v>
       </c>
-      <c r="I251">
+      <c r="I251" s="7">
         <v>9</v>
       </c>
       <c r="Q251">
@@ -10148,7 +10160,7 @@
       <c r="H252">
         <v>6</v>
       </c>
-      <c r="I252">
+      <c r="I252" s="7">
         <v>10</v>
       </c>
       <c r="R252">
@@ -10272,7 +10284,7 @@
       <c r="H257">
         <v>6</v>
       </c>
-      <c r="I257">
+      <c r="I257" s="7">
         <v>9</v>
       </c>
       <c r="Q257">
@@ -10307,7 +10319,7 @@
       <c r="H258">
         <v>6</v>
       </c>
-      <c r="I258">
+      <c r="I258" s="7">
         <v>8</v>
       </c>
       <c r="W258" t="s">
@@ -10416,7 +10428,7 @@
       <c r="H263">
         <v>6</v>
       </c>
-      <c r="I263">
+      <c r="I263" s="7">
         <v>9</v>
       </c>
       <c r="W263" t="s">
@@ -10445,7 +10457,7 @@
       <c r="H264">
         <v>6</v>
       </c>
-      <c r="I264">
+      <c r="I264" s="7">
         <v>11</v>
       </c>
       <c r="W264" t="s">
@@ -10557,7 +10569,7 @@
       <c r="H269">
         <v>6</v>
       </c>
-      <c r="I269">
+      <c r="I269" s="7">
         <v>7</v>
       </c>
       <c r="N269">
@@ -10707,7 +10719,7 @@
       <c r="H275">
         <v>6</v>
       </c>
-      <c r="I275">
+      <c r="I275" s="7">
         <v>10</v>
       </c>
       <c r="Q275">
@@ -10742,7 +10754,7 @@
       <c r="H276">
         <v>6</v>
       </c>
-      <c r="I276">
+      <c r="I276" s="7">
         <v>11</v>
       </c>
       <c r="Q276">
@@ -10863,7 +10875,7 @@
       <c r="H281">
         <v>6</v>
       </c>
-      <c r="I281">
+      <c r="I281" s="7">
         <v>5</v>
       </c>
       <c r="W281" t="s">
@@ -10895,7 +10907,7 @@
       <c r="H282">
         <v>6</v>
       </c>
-      <c r="I282">
+      <c r="I282" s="7">
         <v>5</v>
       </c>
       <c r="W282" t="s">
@@ -11013,7 +11025,7 @@
       <c r="H287">
         <v>6</v>
       </c>
-      <c r="I287">
+      <c r="I287" s="7">
         <v>6</v>
       </c>
       <c r="Q287">
@@ -11048,7 +11060,7 @@
       <c r="H288">
         <v>6</v>
       </c>
-      <c r="I288">
+      <c r="I288" s="7">
         <v>8</v>
       </c>
       <c r="Q288">
@@ -11160,7 +11172,7 @@
       <c r="H293">
         <v>6</v>
       </c>
-      <c r="I293">
+      <c r="I293" s="7">
         <v>7</v>
       </c>
       <c r="K293">
@@ -11198,7 +11210,7 @@
       <c r="H294">
         <v>6</v>
       </c>
-      <c r="I294">
+      <c r="I294" s="7">
         <v>9</v>
       </c>
       <c r="Q294">
@@ -11322,7 +11334,7 @@
       <c r="H299">
         <v>7</v>
       </c>
-      <c r="I299">
+      <c r="I299" s="7">
         <v>12</v>
       </c>
       <c r="W299" t="s">
@@ -11354,7 +11366,7 @@
       <c r="H300">
         <v>7</v>
       </c>
-      <c r="I300">
+      <c r="I300" s="7">
         <v>13</v>
       </c>
       <c r="Q300">
@@ -11469,7 +11481,7 @@
       <c r="H305">
         <v>6</v>
       </c>
-      <c r="I305">
+      <c r="I305" s="7">
         <v>9</v>
       </c>
       <c r="N305">
@@ -11504,7 +11516,7 @@
       <c r="H306">
         <v>6</v>
       </c>
-      <c r="I306">
+      <c r="I306" s="7">
         <v>10</v>
       </c>
       <c r="W306" t="s">
@@ -11619,7 +11631,7 @@
       <c r="H311">
         <v>6</v>
       </c>
-      <c r="I311">
+      <c r="I311" s="7">
         <v>8</v>
       </c>
       <c r="Q311">
@@ -11654,7 +11666,7 @@
       <c r="H312">
         <v>6</v>
       </c>
-      <c r="I312">
+      <c r="I312" s="7">
         <v>10</v>
       </c>
       <c r="Q312">
@@ -11775,7 +11787,7 @@
       <c r="H317">
         <v>5</v>
       </c>
-      <c r="I317">
+      <c r="I317" s="7">
         <v>4</v>
       </c>
       <c r="W317" t="s">
@@ -11804,7 +11816,7 @@
       <c r="H318">
         <v>5</v>
       </c>
-      <c r="I318">
+      <c r="I318" s="7">
         <v>5</v>
       </c>
       <c r="Q318">
@@ -11922,7 +11934,7 @@
       <c r="H323">
         <v>6</v>
       </c>
-      <c r="I323">
+      <c r="I323" s="7">
         <v>8</v>
       </c>
       <c r="W323" t="s">
@@ -11954,7 +11966,7 @@
       <c r="H324">
         <v>6</v>
       </c>
-      <c r="I324">
+      <c r="I324" s="7">
         <v>9</v>
       </c>
       <c r="Q324">
@@ -12075,7 +12087,7 @@
       <c r="H329">
         <v>6</v>
       </c>
-      <c r="I329">
+      <c r="I329" s="7">
         <v>9</v>
       </c>
       <c r="W329" t="s">
@@ -12107,7 +12119,7 @@
       <c r="H330">
         <v>6</v>
       </c>
-      <c r="I330">
+      <c r="I330" s="7">
         <v>10</v>
       </c>
       <c r="W330" t="s">
@@ -12228,7 +12240,7 @@
       <c r="H335">
         <v>6</v>
       </c>
-      <c r="I335">
+      <c r="I335" s="7">
         <v>16</v>
       </c>
       <c r="Q335">
@@ -12266,7 +12278,7 @@
       <c r="H336">
         <v>6</v>
       </c>
-      <c r="I336">
+      <c r="I336" s="7">
         <v>26</v>
       </c>
       <c r="Q336">
@@ -12407,7 +12419,7 @@
       <c r="H342">
         <v>6</v>
       </c>
-      <c r="I342">
+      <c r="I342" s="7">
         <v>7</v>
       </c>
       <c r="R342">
@@ -12439,7 +12451,7 @@
       <c r="H343">
         <v>6</v>
       </c>
-      <c r="I343">
+      <c r="I343" s="7">
         <v>9</v>
       </c>
       <c r="Q343">
@@ -12471,7 +12483,7 @@
       <c r="H344">
         <v>6</v>
       </c>
-      <c r="I344">
+      <c r="I344" s="7">
         <v>6</v>
       </c>
       <c r="W344" t="s">
@@ -12500,7 +12512,7 @@
       <c r="H345">
         <v>6</v>
       </c>
-      <c r="I345">
+      <c r="I345" s="7">
         <v>16</v>
       </c>
       <c r="Q345">
@@ -12547,7 +12559,7 @@
       <c r="H347">
         <v>6</v>
       </c>
-      <c r="I347">
+      <c r="I347" s="7">
         <v>8</v>
       </c>
       <c r="K347">
@@ -12585,7 +12597,7 @@
       <c r="H348">
         <v>6</v>
       </c>
-      <c r="I348">
+      <c r="I348" s="7">
         <v>10</v>
       </c>
       <c r="M348">
@@ -12614,7 +12626,7 @@
       <c r="H349">
         <v>6</v>
       </c>
-      <c r="I349">
+      <c r="I349" s="7">
         <v>12</v>
       </c>
       <c r="N349">
@@ -12643,7 +12655,7 @@
       <c r="H350">
         <v>6</v>
       </c>
-      <c r="I350">
+      <c r="I350" s="7">
         <v>14</v>
       </c>
       <c r="J350">
@@ -12678,7 +12690,7 @@
       <c r="H351">
         <v>6</v>
       </c>
-      <c r="I351">
+      <c r="I351" s="7">
         <v>8</v>
       </c>
       <c r="T351">
@@ -12710,7 +12722,7 @@
       <c r="H352">
         <v>6</v>
       </c>
-      <c r="I352">
+      <c r="I352" s="7">
         <v>10</v>
       </c>
       <c r="T352">
@@ -12736,6 +12748,9 @@
       <c r="E353" t="s">
         <v>876</v>
       </c>
+      <c r="I353" s="7" t="s">
+        <v>1112</v>
+      </c>
       <c r="T353">
         <v>1</v>
       </c>
@@ -12762,6 +12777,9 @@
       <c r="E354" t="s">
         <v>876</v>
       </c>
+      <c r="I354" s="7" t="s">
+        <v>1113</v>
+      </c>
       <c r="T354">
         <v>1</v>
       </c>
@@ -12788,6 +12806,9 @@
       <c r="E355" t="s">
         <v>876</v>
       </c>
+      <c r="I355" s="7" t="s">
+        <v>1114</v>
+      </c>
       <c r="R355">
         <v>1</v>
       </c>
@@ -12840,7 +12861,7 @@
       <c r="H357">
         <v>6</v>
       </c>
-      <c r="I357">
+      <c r="I357" s="7">
         <v>10</v>
       </c>
       <c r="Q357">
@@ -12878,7 +12899,7 @@
       <c r="H358">
         <v>6</v>
       </c>
-      <c r="I358">
+      <c r="I358" s="7">
         <v>12</v>
       </c>
       <c r="Q358">
@@ -12910,6 +12931,9 @@
       <c r="E359" t="s">
         <v>876</v>
       </c>
+      <c r="I359" s="7" t="s">
+        <v>1112</v>
+      </c>
       <c r="U359">
         <v>1</v>
       </c>
@@ -12933,6 +12957,9 @@
       <c r="E360" t="s">
         <v>876</v>
       </c>
+      <c r="I360" s="7" t="s">
+        <v>1113</v>
+      </c>
       <c r="U360">
         <v>1</v>
       </c>
@@ -13005,7 +13032,7 @@
       <c r="H363">
         <v>6</v>
       </c>
-      <c r="I363">
+      <c r="I363" s="7">
         <v>8</v>
       </c>
       <c r="W363" t="s">
@@ -13037,7 +13064,7 @@
       <c r="H364">
         <v>6</v>
       </c>
-      <c r="I364">
+      <c r="I364" s="7">
         <v>9</v>
       </c>
       <c r="W364" t="s">
@@ -13155,7 +13182,7 @@
       <c r="H369">
         <v>6</v>
       </c>
-      <c r="I369">
+      <c r="I369" s="7">
         <v>9</v>
       </c>
       <c r="R369">
@@ -13190,7 +13217,7 @@
       <c r="H370">
         <v>6</v>
       </c>
-      <c r="I370">
+      <c r="I370" s="7">
         <v>10</v>
       </c>
       <c r="R370">
@@ -13311,7 +13338,7 @@
       <c r="H375">
         <v>6</v>
       </c>
-      <c r="I375">
+      <c r="I375" s="7">
         <v>9</v>
       </c>
       <c r="Q375">
@@ -13346,7 +13373,7 @@
       <c r="H376">
         <v>6</v>
       </c>
-      <c r="I376">
+      <c r="I376" s="7">
         <v>11</v>
       </c>
       <c r="Q376">
@@ -13464,7 +13491,7 @@
       <c r="H381">
         <v>6</v>
       </c>
-      <c r="I381">
+      <c r="I381" s="7">
         <v>10</v>
       </c>
       <c r="Q381">
@@ -13493,7 +13520,7 @@
       <c r="H382">
         <v>6</v>
       </c>
-      <c r="I382">
+      <c r="I382" s="7">
         <v>11</v>
       </c>
       <c r="Q382">
@@ -13608,7 +13635,7 @@
       <c r="H387">
         <v>7</v>
       </c>
-      <c r="I387">
+      <c r="I387" s="7">
         <v>21</v>
       </c>
       <c r="Z387" t="s">
@@ -13634,7 +13661,7 @@
       <c r="H388">
         <v>7</v>
       </c>
-      <c r="I388">
+      <c r="I388" s="7">
         <v>24</v>
       </c>
       <c r="Z388" t="s">
@@ -13740,7 +13767,7 @@
       <c r="H393">
         <v>6</v>
       </c>
-      <c r="I393">
+      <c r="I393" s="7">
         <v>10</v>
       </c>
       <c r="W393" t="s">
@@ -13769,7 +13796,7 @@
       <c r="H394">
         <v>6</v>
       </c>
-      <c r="I394">
+      <c r="I394" s="7">
         <v>12</v>
       </c>
       <c r="W394" t="s">
@@ -13878,7 +13905,7 @@
       <c r="H399">
         <v>6</v>
       </c>
-      <c r="I399">
+      <c r="I399" s="7">
         <v>8</v>
       </c>
       <c r="Z399" t="s">
@@ -13904,7 +13931,7 @@
       <c r="H400">
         <v>6</v>
       </c>
-      <c r="I400">
+      <c r="I400" s="7">
         <v>9</v>
       </c>
       <c r="Z400" t="s">

--- a/data/masterminds.xlsx
+++ b/data/masterminds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="1134">
   <si>
     <t>Name</t>
   </si>
@@ -3360,6 +3360,63 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>Kang the Conqueror</t>
+  </si>
+  <si>
+    <t>ANH</t>
+  </si>
+  <si>
+    <t>Timelines of Kang</t>
+  </si>
+  <si>
+    <t>Leap into the Timestream</t>
+  </si>
+  <si>
+    <t>Pull from the Future</t>
+  </si>
+  <si>
+    <t>Savior from Another Timeline</t>
+  </si>
+  <si>
+    <t>Iron-Lad Grows up to Become Kang</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Annihilus</t>
+  </si>
+  <si>
+    <t>Surging Annihilation</t>
+  </si>
+  <si>
+    <t>Pull into the Negative Zone</t>
+  </si>
+  <si>
+    <t>Deploy the Planet Killer</t>
+  </si>
+  <si>
+    <t>The Cosmic Control Rod</t>
+  </si>
+  <si>
+    <t>Annihilation Wave</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>anni,jpg</t>
+  </si>
+  <si>
+    <t>ekang,png</t>
+  </si>
+  <si>
+    <t>eanni,png</t>
   </si>
 </sst>
 </file>
@@ -3708,13 +3765,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA404"/>
+  <dimension ref="A1:AA416"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B276" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X388" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I356" sqref="I356"/>
+      <selection pane="bottomRight" activeCell="AA411" sqref="AA411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14018,6 +14075,267 @@
         <v>1108</v>
       </c>
     </row>
+    <row r="405" spans="1:27">
+      <c r="A405" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E405" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F405" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H405">
+        <v>6</v>
+      </c>
+      <c r="I405" s="7" t="s">
+        <v>1122</v>
+      </c>
+      <c r="T405">
+        <v>1</v>
+      </c>
+      <c r="Z405" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AA405" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="406" spans="1:27">
+      <c r="A406" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+      <c r="E406" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F406" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H406">
+        <v>6</v>
+      </c>
+      <c r="I406" s="7" t="s">
+        <v>1123</v>
+      </c>
+      <c r="Q406">
+        <v>1</v>
+      </c>
+      <c r="T406">
+        <v>2</v>
+      </c>
+      <c r="Z406" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AA406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:27">
+      <c r="A407" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E407" t="s">
+        <v>1116</v>
+      </c>
+      <c r="Z407" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AA407" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="408" spans="1:27">
+      <c r="A408" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E408" t="s">
+        <v>1116</v>
+      </c>
+      <c r="T408">
+        <v>1</v>
+      </c>
+      <c r="Z408" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AA408" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="409" spans="1:27">
+      <c r="A409" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E409" t="s">
+        <v>1116</v>
+      </c>
+      <c r="Z409" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AA409" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="410" spans="1:27">
+      <c r="A410" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E410" t="s">
+        <v>1116</v>
+      </c>
+      <c r="Z410" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AA410" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="411" spans="1:27">
+      <c r="A411" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F411" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H411">
+        <v>6</v>
+      </c>
+      <c r="I411" s="7" t="s">
+        <v>1123</v>
+      </c>
+      <c r="T411">
+        <v>2</v>
+      </c>
+      <c r="Z411" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AA411" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="412" spans="1:27">
+      <c r="A412" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="E412" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F412" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H412">
+        <v>6</v>
+      </c>
+      <c r="I412" s="7" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T412">
+        <v>2</v>
+      </c>
+      <c r="Z412" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AA412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:27">
+      <c r="A413" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E413" t="s">
+        <v>1116</v>
+      </c>
+      <c r="T413">
+        <v>1</v>
+      </c>
+      <c r="Z413" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AA413" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="414" spans="1:27">
+      <c r="A414" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E414" t="s">
+        <v>1116</v>
+      </c>
+      <c r="T414">
+        <v>1</v>
+      </c>
+      <c r="Z414" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AA414" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="415" spans="1:27">
+      <c r="A415" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E415" t="s">
+        <v>1116</v>
+      </c>
+      <c r="R415">
+        <v>1</v>
+      </c>
+      <c r="Z415" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AA415" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="416" spans="1:27">
+      <c r="A416" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E416" t="s">
+        <v>1116</v>
+      </c>
+      <c r="Z416" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AA416" t="s">
+        <v>979</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/masterminds.xlsx
+++ b/data/masterminds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="1185">
   <si>
     <t>Name</t>
   </si>
@@ -3417,6 +3417,159 @@
   </si>
   <si>
     <t>eanni,png</t>
+  </si>
+  <si>
+    <t>Exodus</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Acolytes</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>X-Men|X-Force|Brotherhood|X-Factor</t>
+  </si>
+  <si>
+    <t>exodus,jpg</t>
+  </si>
+  <si>
+    <t>eexodus,jpg</t>
+  </si>
+  <si>
+    <t>Avalon, Asteroid Haven</t>
+  </si>
+  <si>
+    <t>Omega-Level Mutant</t>
+  </si>
+  <si>
+    <t>Resurrect the Dead</t>
+  </si>
+  <si>
+    <t>Unite all Mutantkind</t>
+  </si>
+  <si>
+    <t>mc2,jpg</t>
+  </si>
+  <si>
+    <t>Lady Deathstrike</t>
+  </si>
+  <si>
+    <t>Cybernetic Healing Factor</t>
+  </si>
+  <si>
+    <t>Prey on the Weak</t>
+  </si>
+  <si>
+    <t>Relentless Assassin</t>
+  </si>
+  <si>
+    <t>Stretching Adamantium Claws</t>
+  </si>
+  <si>
+    <t>Reavers</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>ladydeath,jpg</t>
+  </si>
+  <si>
+    <t>eladydeath,jpg</t>
+  </si>
+  <si>
+    <t>Bastion, Fused Sentinel</t>
+  </si>
+  <si>
+    <t>Purifiers</t>
+  </si>
+  <si>
+    <t>Sentinel</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Machine Man, Sentinel Supreme</t>
+  </si>
+  <si>
+    <t>Master Mold, Sentinel Factory</t>
+  </si>
+  <si>
+    <t>Nimrod, Future Sentinel</t>
+  </si>
+  <si>
+    <t>Template, Infected Sentinel</t>
+  </si>
+  <si>
+    <t>bastion,jpg</t>
+  </si>
+  <si>
+    <t>ebastion,jpg</t>
+  </si>
+  <si>
+    <t>Nightmare</t>
+  </si>
+  <si>
+    <t>DRS</t>
+  </si>
+  <si>
+    <t>Fear Lords</t>
+  </si>
+  <si>
+    <t>Deadly Waking Nightmares</t>
+  </si>
+  <si>
+    <t>Don't Fall Asleep</t>
+  </si>
+  <si>
+    <t>Dream Weaver</t>
+  </si>
+  <si>
+    <t>Night Terrors</t>
+  </si>
+  <si>
+    <t>nightmare,jpg</t>
+  </si>
+  <si>
+    <t>enightmare,jpg</t>
+  </si>
+  <si>
+    <t>strangexp,jpg</t>
+  </si>
+  <si>
+    <t>Dormammu</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Lords of the Netherworld</t>
+  </si>
+  <si>
+    <t>Barter for Souls</t>
+  </si>
+  <si>
+    <t>Demonic Hellfire</t>
+  </si>
+  <si>
+    <t>Flames of Regency</t>
+  </si>
+  <si>
+    <t>Torments of the Dark Dimension</t>
+  </si>
+  <si>
+    <t>dormammu,jpg</t>
+  </si>
+  <si>
+    <t>edormammu,jpg</t>
   </si>
 </sst>
 </file>
@@ -3765,13 +3918,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA416"/>
+  <dimension ref="A1:AA446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X388" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X416" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA411" sqref="AA411"/>
+      <selection pane="bottomRight" activeCell="AA447" sqref="AA447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14336,6 +14489,639 @@
         <v>979</v>
       </c>
     </row>
+    <row r="417" spans="1:27">
+      <c r="A417" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E417" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F417" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H417">
+        <v>7</v>
+      </c>
+      <c r="I417" s="7" t="s">
+        <v>1137</v>
+      </c>
+      <c r="O417" t="s">
+        <v>1139</v>
+      </c>
+      <c r="Q417">
+        <v>1</v>
+      </c>
+      <c r="Z417" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AA417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:27">
+      <c r="A418" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+      <c r="E418" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F418" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H418">
+        <v>7</v>
+      </c>
+      <c r="I418" s="7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O418" t="s">
+        <v>1139</v>
+      </c>
+      <c r="Q418">
+        <v>1</v>
+      </c>
+      <c r="R418">
+        <v>1</v>
+      </c>
+      <c r="Z418" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AA418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:27">
+      <c r="A419" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E419" t="s">
+        <v>1135</v>
+      </c>
+      <c r="Z419" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AA419" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="420" spans="1:27">
+      <c r="A420" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E420" t="s">
+        <v>1135</v>
+      </c>
+      <c r="Z420" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AA420" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="421" spans="1:27">
+      <c r="A421" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E421" t="s">
+        <v>1135</v>
+      </c>
+      <c r="Z421" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AA421" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="422" spans="1:27">
+      <c r="A422" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E422" t="s">
+        <v>1135</v>
+      </c>
+      <c r="Z422" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AA422" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="423" spans="1:27">
+      <c r="A423" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E423" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F423" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H423">
+        <v>6</v>
+      </c>
+      <c r="I423" s="7" t="s">
+        <v>1122</v>
+      </c>
+      <c r="M423">
+        <v>1</v>
+      </c>
+      <c r="Q423">
+        <v>1</v>
+      </c>
+      <c r="Z423" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AA423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:27">
+      <c r="A424" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+      <c r="E424" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F424" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H424">
+        <v>6</v>
+      </c>
+      <c r="I424" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M424">
+        <v>1</v>
+      </c>
+      <c r="Q424">
+        <v>1</v>
+      </c>
+      <c r="Z424" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AA424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:27">
+      <c r="A425" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E425" t="s">
+        <v>1135</v>
+      </c>
+      <c r="Z425" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AA425" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="426" spans="1:27">
+      <c r="A426" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E426" t="s">
+        <v>1135</v>
+      </c>
+      <c r="Z426" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AA426" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="427" spans="1:27">
+      <c r="A427" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E427" t="s">
+        <v>1135</v>
+      </c>
+      <c r="Z427" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AA427" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="428" spans="1:27">
+      <c r="A428" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E428" t="s">
+        <v>1135</v>
+      </c>
+      <c r="Z428" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AA428" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="429" spans="1:27">
+      <c r="A429" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E429" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F429" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G429" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H429">
+        <v>6</v>
+      </c>
+      <c r="I429" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="U429">
+        <v>1</v>
+      </c>
+      <c r="Z429" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AA429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:27">
+      <c r="A430" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="E430" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F430" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G430" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H430">
+        <v>6</v>
+      </c>
+      <c r="I430" s="7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="R430">
+        <v>1</v>
+      </c>
+      <c r="U430">
+        <v>1</v>
+      </c>
+      <c r="Z430" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AA430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:27">
+      <c r="A431" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E431" t="s">
+        <v>1135</v>
+      </c>
+      <c r="Z431" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AA431" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="432" spans="1:27">
+      <c r="A432" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E432" t="s">
+        <v>1135</v>
+      </c>
+      <c r="Z432" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AA432" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="433" spans="1:27">
+      <c r="A433" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E433" t="s">
+        <v>1135</v>
+      </c>
+      <c r="Z433" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AA433" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="434" spans="1:27">
+      <c r="A434" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E434" t="s">
+        <v>1135</v>
+      </c>
+      <c r="Z434" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AA434" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="435" spans="1:27">
+      <c r="A435" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E435" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F435" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H435">
+        <v>6</v>
+      </c>
+      <c r="I435" s="7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="R435">
+        <v>1</v>
+      </c>
+      <c r="Z435" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AA435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:27">
+      <c r="A436" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="E436" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F436" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H436">
+        <v>6</v>
+      </c>
+      <c r="I436" s="7" t="s">
+        <v>1122</v>
+      </c>
+      <c r="R436">
+        <v>1</v>
+      </c>
+      <c r="Z436" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AA436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:27">
+      <c r="A437" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E437" t="s">
+        <v>1167</v>
+      </c>
+      <c r="Z437" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AA437" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="438" spans="1:27">
+      <c r="A438" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E438" t="s">
+        <v>1167</v>
+      </c>
+      <c r="Z438" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AA438" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="439" spans="1:27">
+      <c r="A439" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E439" t="s">
+        <v>1167</v>
+      </c>
+      <c r="Z439" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AA439" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="440" spans="1:27">
+      <c r="A440" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E440" t="s">
+        <v>1167</v>
+      </c>
+      <c r="Z440" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AA440" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="441" spans="1:27">
+      <c r="A441" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E441" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F441" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H441">
+        <v>6</v>
+      </c>
+      <c r="I441" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="Z441" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AA441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:27">
+      <c r="A442" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+      <c r="E442" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F442" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H442">
+        <v>6</v>
+      </c>
+      <c r="I442" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="Z442" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AA442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:27">
+      <c r="A443" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E443" t="s">
+        <v>1167</v>
+      </c>
+      <c r="Z443" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AA443" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="444" spans="1:27">
+      <c r="A444" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E444" t="s">
+        <v>1167</v>
+      </c>
+      <c r="Z444" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AA444" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="445" spans="1:27">
+      <c r="A445" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E445" t="s">
+        <v>1167</v>
+      </c>
+      <c r="Z445" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AA445" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="446" spans="1:27">
+      <c r="A446" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E446" t="s">
+        <v>1167</v>
+      </c>
+      <c r="Z446" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AA446" t="s">
+        <v>988</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/masterminds.xlsx
+++ b/data/masterminds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="1184">
   <si>
     <t>Name</t>
   </si>
@@ -3489,9 +3489,6 @@
   </si>
   <si>
     <t>Purifiers</t>
-  </si>
-  <si>
-    <t>Sentinel</t>
   </si>
   <si>
     <t>6</t>
@@ -3921,10 +3918,10 @@
   <dimension ref="A1:AA446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X416" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B409" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA447" sqref="AA447"/>
+      <selection pane="bottomRight" activeCell="G431" sqref="G431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10814,6 +10811,12 @@
       <c r="E270" t="s">
         <v>208</v>
       </c>
+      <c r="H270">
+        <v>6</v>
+      </c>
+      <c r="I270" s="7" t="s">
+        <v>1123</v>
+      </c>
       <c r="T270">
         <v>1</v>
       </c>
@@ -14760,9 +14763,6 @@
       <c r="F429" t="s">
         <v>1157</v>
       </c>
-      <c r="G429" t="s">
-        <v>1158</v>
-      </c>
       <c r="H429">
         <v>6</v>
       </c>
@@ -14773,7 +14773,7 @@
         <v>1</v>
       </c>
       <c r="Z429" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AA429">
         <v>1</v>
@@ -14792,14 +14792,11 @@
       <c r="F430" t="s">
         <v>1157</v>
       </c>
-      <c r="G430" t="s">
-        <v>1158</v>
-      </c>
       <c r="H430">
         <v>6</v>
       </c>
       <c r="I430" s="7" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R430">
         <v>1</v>
@@ -14808,7 +14805,7 @@
         <v>1</v>
       </c>
       <c r="Z430" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AA430">
         <v>1</v>
@@ -14816,7 +14813,7 @@
     </row>
     <row r="431" spans="1:27">
       <c r="A431" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B431" t="s">
         <v>1156</v>
@@ -14833,7 +14830,7 @@
     </row>
     <row r="432" spans="1:27">
       <c r="A432" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B432" t="s">
         <v>1156</v>
@@ -14850,7 +14847,7 @@
     </row>
     <row r="433" spans="1:27">
       <c r="A433" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B433" t="s">
         <v>1156</v>
@@ -14867,7 +14864,7 @@
     </row>
     <row r="434" spans="1:27">
       <c r="A434" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B434" t="s">
         <v>1156</v>
@@ -14884,25 +14881,25 @@
     </row>
     <row r="435" spans="1:27">
       <c r="A435" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E435" t="s">
         <v>1166</v>
       </c>
-      <c r="E435" t="s">
+      <c r="F435" t="s">
         <v>1167</v>
-      </c>
-      <c r="F435" t="s">
-        <v>1168</v>
       </c>
       <c r="H435">
         <v>6</v>
       </c>
       <c r="I435" s="7" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R435">
         <v>1</v>
       </c>
       <c r="Z435" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="AA435">
         <v>1</v>
@@ -14910,16 +14907,16 @@
     </row>
     <row r="436" spans="1:27">
       <c r="A436" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="E436" t="s">
         <v>1166</v>
       </c>
-      <c r="C436">
-        <v>1</v>
-      </c>
-      <c r="E436" t="s">
+      <c r="F436" t="s">
         <v>1167</v>
-      </c>
-      <c r="F436" t="s">
-        <v>1168</v>
       </c>
       <c r="H436">
         <v>6</v>
@@ -14931,7 +14928,7 @@
         <v>1</v>
       </c>
       <c r="Z436" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AA436">
         <v>1</v>
@@ -14939,16 +14936,16 @@
     </row>
     <row r="437" spans="1:27">
       <c r="A437" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B437" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E437" t="s">
         <v>1166</v>
       </c>
-      <c r="E437" t="s">
-        <v>1167</v>
-      </c>
       <c r="Z437" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AA437" t="s">
         <v>999</v>
@@ -14956,16 +14953,16 @@
     </row>
     <row r="438" spans="1:27">
       <c r="A438" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B438" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E438" t="s">
         <v>1166</v>
       </c>
-      <c r="E438" t="s">
-        <v>1167</v>
-      </c>
       <c r="Z438" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AA438" t="s">
         <v>1000</v>
@@ -14973,16 +14970,16 @@
     </row>
     <row r="439" spans="1:27">
       <c r="A439" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B439" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E439" t="s">
         <v>1166</v>
       </c>
-      <c r="E439" t="s">
-        <v>1167</v>
-      </c>
       <c r="Z439" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AA439" t="s">
         <v>1001</v>
@@ -14990,16 +14987,16 @@
     </row>
     <row r="440" spans="1:27">
       <c r="A440" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B440" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E440" t="s">
         <v>1166</v>
       </c>
-      <c r="E440" t="s">
-        <v>1167</v>
-      </c>
       <c r="Z440" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AA440" t="s">
         <v>1005</v>
@@ -15007,13 +15004,13 @@
     </row>
     <row r="441" spans="1:27">
       <c r="A441" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E441" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F441" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H441">
         <v>6</v>
@@ -15022,7 +15019,7 @@
         <v>1153</v>
       </c>
       <c r="Z441" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AA441">
         <v>1</v>
@@ -15030,25 +15027,25 @@
     </row>
     <row r="442" spans="1:27">
       <c r="A442" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C442">
         <v>1</v>
       </c>
       <c r="E442" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F442" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H442">
         <v>6</v>
       </c>
       <c r="I442" s="7" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="Z442" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AA442">
         <v>1</v>
@@ -15056,16 +15053,16 @@
     </row>
     <row r="443" spans="1:27">
       <c r="A443" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B443" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E443" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Z443" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AA443" t="s">
         <v>1009</v>
@@ -15073,16 +15070,16 @@
     </row>
     <row r="444" spans="1:27">
       <c r="A444" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B444" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E444" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Z444" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AA444" t="s">
         <v>981</v>
@@ -15090,16 +15087,16 @@
     </row>
     <row r="445" spans="1:27">
       <c r="A445" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B445" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E445" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Z445" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AA445" t="s">
         <v>985</v>
@@ -15107,16 +15104,16 @@
     </row>
     <row r="446" spans="1:27">
       <c r="A446" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B446" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E446" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Z446" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AA446" t="s">
         <v>988</v>

--- a/data/masterminds.xlsx
+++ b/data/masterminds.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="1222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2901" uniqueCount="1222">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -3575,7 +3575,7 @@
     <t xml:space="preserve">BW</t>
   </si>
   <si>
-    <t xml:space="preserve">Taskmaster’s Thunderbolts</t>
+    <t xml:space="preserve">Taskmaster's Thunderbolts</t>
   </si>
   <si>
     <t xml:space="preserve">henchman instructor</t>
@@ -3620,7 +3620,7 @@
     <t xml:space="preserve">Killmonger</t>
   </si>
   <si>
-    <t xml:space="preserve">Killmonger’s League</t>
+    <t xml:space="preserve">Killmonger's League</t>
   </si>
   <si>
     <t xml:space="preserve">Thanos 2</t>
@@ -3820,22 +3820,22 @@
   <dimension ref="A1:AA494"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B458" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B461" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A458" activeCellId="0" sqref="A458"/>
+      <selection pane="bottomLeft" activeCell="A461" activeCellId="0" sqref="A461"/>
       <selection pane="bottomRight" activeCell="F490" activeCellId="0" sqref="F490"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="31.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="31.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="2.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="2.14"/>
@@ -15436,6 +15436,9 @@
       <c r="E484" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="F484" s="0" t="s">
+        <v>1199</v>
+      </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B485" s="0" t="s">
@@ -15489,6 +15492,9 @@
       </c>
       <c r="E490" s="0" t="s">
         <v>1196</v>
+      </c>
+      <c r="F490" s="0" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15545,7 +15551,7 @@
       <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="90.57"/>
